--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\02. Scripts\Parse\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B191C-4B39-461D-BC7D-83C4FEBFB76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6435C185-60C3-4903-9441-4B071DF99D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23895" yWindow="1800" windowWidth="22680" windowHeight="11295" tabRatio="490" activeTab="1" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="25600" windowHeight="9790" tabRatio="490" activeTab="4" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Mode_Out" sheetId="8" r:id="rId1"/>
@@ -1373,20 +1373,20 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>111</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>112</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>113</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>121</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>122</v>
       </c>
@@ -1571,42 +1571,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.08203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.75" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>111</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>112</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>113</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>121</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>122</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
         <v>48</v>
       </c>
@@ -2016,18 +2016,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="6.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>111101</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>111102</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>111103</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>111201</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>111202</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>111203</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>112101</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>112102</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>112103</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>112201</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>112202</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>112203</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>113101</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>113102</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>113103</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>113201</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>113202</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>113203</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>121101</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>121102</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>121103</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>121201</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>121202</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>121203</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>122101</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>122102</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>122103</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>122201</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>122202</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>122203</v>
       </c>
@@ -2740,43 +2740,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
     </row>
@@ -2792,19 +2792,19 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>111001</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>111002</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="F3">
         <v>500</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>112001</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>112002</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="F5">
         <v>500</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>113001</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="F6">
         <v>500</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>113002</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="F7">
         <v>500</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>121001</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="F8">
         <v>500</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>121002</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="F9">
         <v>500</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>122001</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="F10">
         <v>500</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>121002</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="F11">
         <v>500</v>
@@ -3156,47 +3156,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
@@ -3211,22 +3211,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71821EEC-8EF8-416A-A444-28A2AA6C244D}">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>111100</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>111101</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>111102</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H4">
         <v>110</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>111103</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H5">
         <v>120</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>111104</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H6">
         <v>130</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>111105</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H7">
         <v>140</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>111106</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H8">
         <v>150</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>111107</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>7</v>
       </c>
       <c r="G9">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H9">
         <v>160</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>111108</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>8</v>
       </c>
       <c r="G10">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H10">
         <v>170</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>111109</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H11">
         <v>180</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>111110</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H12">
         <v>190</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>111111</v>
       </c>
@@ -3702,16 +3702,16 @@
         <v>11</v>
       </c>
       <c r="G13">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H13">
         <v>200</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>111200</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>111201</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H15">
         <v>50</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>111202</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H16">
         <v>60</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>111203</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H17">
         <v>70</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>111204</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H18">
         <v>80</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>111205</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>5</v>
       </c>
       <c r="G19">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H19">
         <v>90</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>111206</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>6</v>
       </c>
       <c r="G20">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H20">
         <v>100</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>111207</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>7</v>
       </c>
       <c r="G21">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H21">
         <v>110</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>111208</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>8</v>
       </c>
       <c r="G22">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H22">
         <v>120</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>111209</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>9</v>
       </c>
       <c r="G23">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H23">
         <v>130</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>111210</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H24">
         <v>140</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>112100</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>112101</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H26">
         <v>100</v>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>112102</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H27">
         <v>110</v>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>112103</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>3</v>
       </c>
       <c r="G28">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H28">
         <v>120</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>112104</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>4</v>
       </c>
       <c r="G29">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H29">
         <v>130</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>112105</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>5</v>
       </c>
       <c r="G30">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H30">
         <v>140</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>112106</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>6</v>
       </c>
       <c r="G31">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H31">
         <v>150</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>112107</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>7</v>
       </c>
       <c r="G32">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H32">
         <v>160</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>112108</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>8</v>
       </c>
       <c r="G33">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H33">
         <v>170</v>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>112109</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>9</v>
       </c>
       <c r="G34">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H34">
         <v>180</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>112110</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>10</v>
       </c>
       <c r="G35">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H35">
         <v>190</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>112111</v>
       </c>
@@ -4576,16 +4576,16 @@
         <v>11</v>
       </c>
       <c r="G36">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H36">
         <v>200</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>112200</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>112201</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H38">
         <v>50</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>112202</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H39">
         <v>60</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>112203</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>3</v>
       </c>
       <c r="G40">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H40">
         <v>70</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>112204</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>4</v>
       </c>
       <c r="G41">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H41">
         <v>80</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>112205</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>5</v>
       </c>
       <c r="G42">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H42">
         <v>90</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>112206</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>6</v>
       </c>
       <c r="G43">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H43">
         <v>100</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>112207</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>7</v>
       </c>
       <c r="G44">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H44">
         <v>110</v>
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>112208</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>8</v>
       </c>
       <c r="G45">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H45">
         <v>120</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>112209</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>9</v>
       </c>
       <c r="G46">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H46">
         <v>130</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>112210</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>10</v>
       </c>
       <c r="G47">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H47">
         <v>140</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>113100</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>113101</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H49">
         <v>100</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>113102</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="G50">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H50">
         <v>110</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>113103</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H51">
         <v>120</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>113104</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>4</v>
       </c>
       <c r="G52">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H52">
         <v>130</v>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>113105</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>5</v>
       </c>
       <c r="G53">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H53">
         <v>140</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>113106</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>6</v>
       </c>
       <c r="G54">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H54">
         <v>150</v>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>113107</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>7</v>
       </c>
       <c r="G55">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H55">
         <v>160</v>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
         <v>113108</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>8</v>
       </c>
       <c r="G56">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H56">
         <v>170</v>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
         <v>113109</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>9</v>
       </c>
       <c r="G57">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H57">
         <v>180</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
         <v>113110</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>10</v>
       </c>
       <c r="G58">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H58">
         <v>190</v>
@@ -5430,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
         <v>113111</v>
       </c>
@@ -5450,16 +5450,16 @@
         <v>11</v>
       </c>
       <c r="G59">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H59">
         <v>200</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
         <v>113200</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
         <v>113201</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H61">
         <v>50</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
         <v>113202</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>2</v>
       </c>
       <c r="G62">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H62">
         <v>60</v>
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
         <v>113203</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H63">
         <v>70</v>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
         <v>113204</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>4</v>
       </c>
       <c r="G64">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H64">
         <v>80</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
         <v>113205</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>5</v>
       </c>
       <c r="G65">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H65">
         <v>90</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="6">
         <v>113206</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>6</v>
       </c>
       <c r="G66">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H66">
         <v>100</v>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
         <v>113207</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>7</v>
       </c>
       <c r="G67">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H67">
         <v>110</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
         <v>113208</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>8</v>
       </c>
       <c r="G68">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H68">
         <v>120</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
         <v>113209</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>9</v>
       </c>
       <c r="G69">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H69">
         <v>130</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
         <v>113210</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>10</v>
       </c>
       <c r="G70">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H70">
         <v>140</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
         <v>121100</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
         <v>121101</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H72">
         <v>100</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
         <v>121102</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H73">
         <v>110</v>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
         <v>121103</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>3</v>
       </c>
       <c r="G74">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H74">
         <v>120</v>
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="6">
         <v>121104</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>4</v>
       </c>
       <c r="G75">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H75">
         <v>130</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="6">
         <v>121105</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>5</v>
       </c>
       <c r="G76">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H76">
         <v>140</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="6">
         <v>121106</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>6</v>
       </c>
       <c r="G77">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H77">
         <v>150</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="6">
         <v>121107</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>7</v>
       </c>
       <c r="G78">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H78">
         <v>160</v>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="6">
         <v>121108</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>8</v>
       </c>
       <c r="G79">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H79">
         <v>170</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="6">
         <v>121109</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>9</v>
       </c>
       <c r="G80">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H80">
         <v>180</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="6">
         <v>121110</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>10</v>
       </c>
       <c r="G81">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H81">
         <v>190</v>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="6">
         <v>121111</v>
       </c>
@@ -6324,16 +6324,16 @@
         <v>11</v>
       </c>
       <c r="G82">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H82">
         <v>200</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="6">
         <v>121200</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="6">
         <v>121201</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H84">
         <v>50</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="6">
         <v>121202</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>2</v>
       </c>
       <c r="G85">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H85">
         <v>60</v>
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="6">
         <v>121203</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>3</v>
       </c>
       <c r="G86">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H86">
         <v>70</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="6">
         <v>121204</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>4</v>
       </c>
       <c r="G87">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H87">
         <v>80</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="6">
         <v>121205</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>5</v>
       </c>
       <c r="G88">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H88">
         <v>90</v>
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="6">
         <v>121206</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>6</v>
       </c>
       <c r="G89">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H89">
         <v>100</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="6">
         <v>121207</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>7</v>
       </c>
       <c r="G90">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H90">
         <v>110</v>
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="6">
         <v>121208</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>8</v>
       </c>
       <c r="G91">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H91">
         <v>120</v>
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="6">
         <v>121209</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>9</v>
       </c>
       <c r="G92">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H92">
         <v>130</v>
@@ -6722,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="6">
         <v>121210</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>10</v>
       </c>
       <c r="G93">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H93">
         <v>140</v>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
         <v>122100</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
         <v>122101</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H95">
         <v>100</v>
@@ -6836,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
         <v>122102</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>2</v>
       </c>
       <c r="G96">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H96">
         <v>110</v>
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
         <v>122103</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>3</v>
       </c>
       <c r="G97">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H97">
         <v>120</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
         <v>122104</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>4</v>
       </c>
       <c r="G98">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H98">
         <v>130</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
         <v>122105</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>5</v>
       </c>
       <c r="G99">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H99">
         <v>140</v>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="6">
         <v>122106</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>6</v>
       </c>
       <c r="G100">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H100">
         <v>150</v>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="6">
         <v>122107</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>7</v>
       </c>
       <c r="G101">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H101">
         <v>160</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="6">
         <v>122108</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>8</v>
       </c>
       <c r="G102">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H102">
         <v>170</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="6">
         <v>122109</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>9</v>
       </c>
       <c r="G103">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H103">
         <v>180</v>
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="6">
         <v>122110</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>10</v>
       </c>
       <c r="G104">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H104">
         <v>190</v>
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="6">
         <v>122111</v>
       </c>
@@ -7198,16 +7198,16 @@
         <v>11</v>
       </c>
       <c r="G105">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H105">
         <v>200</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="6">
         <v>122200</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
         <v>122201</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H107">
         <v>50</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="6">
         <v>122202</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>2</v>
       </c>
       <c r="G108">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H108">
         <v>60</v>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="6">
         <v>122203</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>3</v>
       </c>
       <c r="G109">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H109">
         <v>70</v>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="6">
         <v>122204</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>4</v>
       </c>
       <c r="G110">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H110">
         <v>80</v>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="6">
         <v>122205</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>5</v>
       </c>
       <c r="G111">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H111">
         <v>90</v>
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="6">
         <v>122206</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>6</v>
       </c>
       <c r="G112">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H112">
         <v>100</v>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="6">
         <v>122207</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>7</v>
       </c>
       <c r="G113">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H113">
         <v>110</v>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="6">
         <v>122208</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>8</v>
       </c>
       <c r="G114">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H114">
         <v>120</v>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="6">
         <v>122209</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>9</v>
       </c>
       <c r="G115">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H115">
         <v>130</v>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="6">
         <v>122210</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>10</v>
       </c>
       <c r="G116">
-        <v>4000</v>
+        <v>100001</v>
       </c>
       <c r="H116">
         <v>140</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6435C185-60C3-4903-9441-4B071DF99D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EFAC11-06A2-45E3-9557-CFF3CF977A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="25600" windowHeight="9790" tabRatio="490" activeTab="4" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mode_Out" sheetId="8" r:id="rId1"/>
-    <sheet name="FITH_Mode" sheetId="1" r:id="rId2"/>
-    <sheet name="Mode_Point" sheetId="7" r:id="rId3"/>
-    <sheet name="Mode_Reward" sheetId="4" r:id="rId4"/>
-    <sheet name="Mode_BonusReward" sheetId="6" r:id="rId5"/>
+    <sheet name="Matching" sheetId="10" r:id="rId1"/>
+    <sheet name="Mode_Out" sheetId="8" r:id="rId2"/>
+    <sheet name="FITH_Mode" sheetId="1" r:id="rId3"/>
+    <sheet name="Mode_Point" sheetId="7" r:id="rId4"/>
+    <sheet name="Mode_Reward" sheetId="4" r:id="rId5"/>
+    <sheet name="Mode_BonusReward" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,6 +41,34 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4A4CE066-CDC9-45B9-A68E-25045A47C719}</author>
+    <author>tc={DEFE490C-47EE-4D67-A9EE-4DFAA53308AB}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4A4CE066-CDC9-45B9-A68E-25045A47C719}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    Matching_Mode = 110 -&gt; FITH_개인전
+Matching_Mode = 120 -&gt; FITH_팀전</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{DEFE490C-47EE-4D67-A9EE-4DFAA53308AB}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    플레이어 모집 수</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5DC29DFE-852E-4C81-8F84-28F4E6794DC2}</author>
@@ -133,7 +162,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={7B20AA07-24DB-4418-AD3C-EB38273A9E53}</author>
@@ -271,7 +300,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={97D376C8-9A49-4DB3-97D4-1D7323B1059B}</author>
@@ -315,7 +344,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={F0CF7482-E735-437C-9DC6-4BF147561C58}</author>
@@ -380,7 +409,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={9626E68D-6C05-49C2-ABE3-30708DC7FCAB}</author>
@@ -464,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="70">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,10 +508,6 @@
   </si>
   <si>
     <t>FITH_Indiv_Battle_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FITH_Indiv_Battle_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -571,10 +596,6 @@
   </si>
   <si>
     <t>1vs1vs1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1vs1vs1vs1vs1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -729,12 +750,36 @@
     <t xml:space="preserve"> Name_Info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Matching_Max_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matching_Min_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matching_Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode1_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode2_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recruit_Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,6 +820,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -820,7 +871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,6 +893,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -857,6 +911,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17411" name="AutoShape 3" descr="이미지">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE052603-382D-E166-B080-ED9970B9ACCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17373600" y="5181600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1184,6 +1291,18 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2024-10-09T05:55:39.22" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{4A4CE066-CDC9-45B9-A68E-25045A47C719}">
+    <text>Matching_Mode = 110 -&gt; FITH_개인전
+Matching_Mode = 120 -&gt; FITH_팀전</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2024-10-09T07:12:31.69" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{DEFE490C-47EE-4D67-A9EE-4DFAA53308AB}">
+    <text>플레이어 모집 수</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2024-09-12T14:08:08.25" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{5DC29DFE-852E-4C81-8F84-28F4E6794DC2}">
     <text>100: 1번 모드
 200: 2번 모드
@@ -1224,7 +1343,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2024-09-12T14:08:08.25" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{7B20AA07-24DB-4418-AD3C-EB38273A9E53}">
     <text>100: 1번 모드
@@ -1274,7 +1393,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D1" dT="2024-09-16T13:16:54.85" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{97D376C8-9A49-4DB3-97D4-1D7323B1059B}">
     <text>게임 승패 
@@ -1296,7 +1415,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D1" dT="2024-09-16T13:16:54.85" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{F0CF7482-E735-437C-9DC6-4BF147561C58}">
     <text>게임 승패 
@@ -1328,7 +1447,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D1" dT="2024-09-16T13:16:54.85" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{9626E68D-6C05-49C2-ABE3-30708DC7FCAB}">
     <text>게임 승패 
@@ -1366,18 +1485,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E80AA-5002-403D-BE2E-63B1902A2B22}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.58203125" customWidth="1"/>
+    <col min="7" max="7" width="13.9140625" customWidth="1"/>
+    <col min="8" max="9" width="24.4140625" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>112</v>
+      </c>
+      <c r="E2">
+        <v>111</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>112</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>110</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>99999</v>
+      </c>
+      <c r="D4">
+        <v>111</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>120</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>122</v>
+      </c>
+      <c r="E5">
+        <v>121</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>122</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>99999</v>
+      </c>
+      <c r="D7">
+        <v>121</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD5ABAE-FD82-4B74-89AC-131D68719B9B}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
@@ -1394,25 +1680,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -1423,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1452,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1475,25 +1761,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1504,16 +1790,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1528,35 +1814,6 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>122</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
         <v>0</v>
       </c>
     </row>
@@ -1567,12 +1824,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1614,61 +1871,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
@@ -1679,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>180</v>
@@ -1744,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>180</v>
@@ -1803,13 +2060,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>180</v>
@@ -1868,13 +2125,13 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>180</v>
@@ -1931,74 +2188,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>122</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>180</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>30</v>
-      </c>
-      <c r="J6">
-        <v>2001</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>20</v>
-      </c>
-      <c r="M6">
-        <v>2002</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>25</v>
-      </c>
-      <c r="P6">
-        <v>3001</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6">
-        <v>15</v>
-      </c>
-      <c r="S6">
-        <v>3002</v>
-      </c>
-      <c r="T6">
-        <v>5</v>
-      </c>
-      <c r="U6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="F13" t="s">
-        <v>48</v>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H22" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2008,12 +2205,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB955C-74DD-4B61-BCC6-9955AD17436D}">
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2032,22 +2229,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2055,7 +2252,7 @@
         <v>111101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>111</v>
@@ -2078,7 +2275,7 @@
         <v>111102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>111</v>
@@ -2101,7 +2298,7 @@
         <v>111103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <v>111</v>
@@ -2124,7 +2321,7 @@
         <v>111201</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>111</v>
@@ -2147,7 +2344,7 @@
         <v>111202</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>111</v>
@@ -2170,7 +2367,7 @@
         <v>111203</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>111</v>
@@ -2193,7 +2390,7 @@
         <v>112101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <v>112</v>
@@ -2216,7 +2413,7 @@
         <v>112102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2">
         <v>112</v>
@@ -2239,7 +2436,7 @@
         <v>112103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2">
         <v>112</v>
@@ -2262,7 +2459,7 @@
         <v>112201</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2">
         <v>112</v>
@@ -2285,7 +2482,7 @@
         <v>112202</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2">
         <v>112</v>
@@ -2308,7 +2505,7 @@
         <v>112203</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2">
         <v>112</v>
@@ -2331,7 +2528,7 @@
         <v>113101</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2">
         <v>113</v>
@@ -2354,7 +2551,7 @@
         <v>113102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2">
         <v>113</v>
@@ -2377,7 +2574,7 @@
         <v>113103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2">
         <v>113</v>
@@ -2400,7 +2597,7 @@
         <v>113201</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2">
         <v>113</v>
@@ -2423,7 +2620,7 @@
         <v>113202</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2">
         <v>113</v>
@@ -2446,7 +2643,7 @@
         <v>113203</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2">
         <v>113</v>
@@ -2469,7 +2666,7 @@
         <v>121101</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2">
         <v>121</v>
@@ -2492,7 +2689,7 @@
         <v>121102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2">
         <v>121</v>
@@ -2515,7 +2712,7 @@
         <v>121103</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2">
         <v>121</v>
@@ -2538,7 +2735,7 @@
         <v>121201</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2">
         <v>121</v>
@@ -2561,7 +2758,7 @@
         <v>121202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2">
         <v>121</v>
@@ -2584,7 +2781,7 @@
         <v>121203</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2">
         <v>121</v>
@@ -2607,7 +2804,7 @@
         <v>122101</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2">
         <v>122</v>
@@ -2630,7 +2827,7 @@
         <v>122102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2">
         <v>122</v>
@@ -2653,7 +2850,7 @@
         <v>122103</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2">
         <v>122</v>
@@ -2676,7 +2873,7 @@
         <v>122201</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2">
         <v>122</v>
@@ -2699,7 +2896,7 @@
         <v>122202</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2">
         <v>122</v>
@@ -2722,7 +2919,7 @@
         <v>122203</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2">
         <v>122</v>
@@ -2787,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87B89F5-A0CF-418F-90DB-EDDE1E3A1683}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -2809,31 +3006,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -2841,7 +3038,7 @@
         <v>111001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>111</v>
@@ -2873,7 +3070,7 @@
         <v>111002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
         <v>111</v>
@@ -2905,7 +3102,7 @@
         <v>112001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2">
         <v>112</v>
@@ -2937,7 +3134,7 @@
         <v>112002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2">
         <v>112</v>
@@ -2969,7 +3166,7 @@
         <v>113001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2">
         <v>113</v>
@@ -3001,7 +3198,7 @@
         <v>113002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>113</v>
@@ -3033,7 +3230,7 @@
         <v>121001</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2">
         <v>121</v>
@@ -3065,7 +3262,7 @@
         <v>121002</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2">
         <v>121</v>
@@ -3097,7 +3294,7 @@
         <v>122001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>122</v>
@@ -3129,7 +3326,7 @@
         <v>121002</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2">
         <v>122</v>
@@ -3207,13 +3404,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71821EEC-8EF8-416A-A444-28A2AA6C244D}">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
+      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3231,37 +3428,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.45">
@@ -3269,7 +3466,7 @@
         <v>111100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>111</v>
@@ -3307,7 +3504,7 @@
         <v>111101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>111</v>
@@ -3345,7 +3542,7 @@
         <v>111102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <v>111</v>
@@ -3383,7 +3580,7 @@
         <v>111103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>111</v>
@@ -3421,7 +3618,7 @@
         <v>111104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <v>111</v>
@@ -3459,7 +3656,7 @@
         <v>111105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>111</v>
@@ -3497,7 +3694,7 @@
         <v>111106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2">
         <v>111</v>
@@ -3535,7 +3732,7 @@
         <v>111107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2">
         <v>111</v>
@@ -3573,7 +3770,7 @@
         <v>111108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <v>111</v>
@@ -3611,7 +3808,7 @@
         <v>111109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2">
         <v>111</v>
@@ -3649,7 +3846,7 @@
         <v>111110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2">
         <v>111</v>
@@ -3687,7 +3884,7 @@
         <v>111111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2">
         <v>111</v>
@@ -3725,7 +3922,7 @@
         <v>111200</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2">
         <v>111</v>
@@ -3763,7 +3960,7 @@
         <v>111201</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2">
         <v>111</v>
@@ -3801,7 +3998,7 @@
         <v>111202</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2">
         <v>111</v>
@@ -3839,7 +4036,7 @@
         <v>111203</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2">
         <v>111</v>
@@ -3877,7 +4074,7 @@
         <v>111204</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2">
         <v>111</v>
@@ -3915,7 +4112,7 @@
         <v>111205</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2">
         <v>111</v>
@@ -3953,7 +4150,7 @@
         <v>111206</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2">
         <v>111</v>
@@ -3991,7 +4188,7 @@
         <v>111207</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2">
         <v>111</v>
@@ -4029,7 +4226,7 @@
         <v>111208</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2">
         <v>111</v>
@@ -4067,7 +4264,7 @@
         <v>111209</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2">
         <v>111</v>
@@ -4105,7 +4302,7 @@
         <v>111210</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2">
         <v>111</v>
@@ -4143,7 +4340,7 @@
         <v>112100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2">
         <v>112</v>
@@ -4181,7 +4378,7 @@
         <v>112101</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2">
         <v>112</v>
@@ -4219,7 +4416,7 @@
         <v>112102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2">
         <v>112</v>
@@ -4257,7 +4454,7 @@
         <v>112103</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2">
         <v>112</v>
@@ -4295,7 +4492,7 @@
         <v>112104</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2">
         <v>112</v>
@@ -4333,7 +4530,7 @@
         <v>112105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2">
         <v>112</v>
@@ -4371,7 +4568,7 @@
         <v>112106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2">
         <v>112</v>
@@ -4409,7 +4606,7 @@
         <v>112107</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2">
         <v>112</v>
@@ -4447,7 +4644,7 @@
         <v>112108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2">
         <v>112</v>
@@ -4485,7 +4682,7 @@
         <v>112109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2">
         <v>112</v>
@@ -4523,7 +4720,7 @@
         <v>112110</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2">
         <v>112</v>
@@ -4561,7 +4758,7 @@
         <v>112111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2">
         <v>112</v>
@@ -4599,7 +4796,7 @@
         <v>112200</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2">
         <v>112</v>
@@ -4637,7 +4834,7 @@
         <v>112201</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2">
         <v>112</v>
@@ -4675,7 +4872,7 @@
         <v>112202</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" s="2">
         <v>112</v>
@@ -4713,7 +4910,7 @@
         <v>112203</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2">
         <v>112</v>
@@ -4751,7 +4948,7 @@
         <v>112204</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2">
         <v>112</v>
@@ -4789,7 +4986,7 @@
         <v>112205</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2">
         <v>112</v>
@@ -4827,7 +5024,7 @@
         <v>112206</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2">
         <v>112</v>
@@ -4865,7 +5062,7 @@
         <v>112207</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2">
         <v>112</v>
@@ -4903,7 +5100,7 @@
         <v>112208</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2">
         <v>112</v>
@@ -4941,7 +5138,7 @@
         <v>112209</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2">
         <v>112</v>
@@ -4979,7 +5176,7 @@
         <v>112210</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2">
         <v>112</v>
@@ -5017,7 +5214,7 @@
         <v>113100</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2">
         <v>113</v>
@@ -5055,7 +5252,7 @@
         <v>113101</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2">
         <v>113</v>
@@ -5093,7 +5290,7 @@
         <v>113102</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2">
         <v>113</v>
@@ -5131,7 +5328,7 @@
         <v>113103</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2">
         <v>113</v>
@@ -5169,7 +5366,7 @@
         <v>113104</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2">
         <v>113</v>
@@ -5207,7 +5404,7 @@
         <v>113105</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2">
         <v>113</v>
@@ -5245,7 +5442,7 @@
         <v>113106</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2">
         <v>113</v>
@@ -5283,7 +5480,7 @@
         <v>113107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2">
         <v>113</v>
@@ -5321,7 +5518,7 @@
         <v>113108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" s="2">
         <v>113</v>
@@ -5359,7 +5556,7 @@
         <v>113109</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2">
         <v>113</v>
@@ -5397,7 +5594,7 @@
         <v>113110</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" s="2">
         <v>113</v>
@@ -5435,7 +5632,7 @@
         <v>113111</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2">
         <v>113</v>
@@ -5473,7 +5670,7 @@
         <v>113200</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C60" s="2">
         <v>113</v>
@@ -5511,7 +5708,7 @@
         <v>113201</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C61" s="2">
         <v>113</v>
@@ -5549,7 +5746,7 @@
         <v>113202</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C62" s="2">
         <v>113</v>
@@ -5587,7 +5784,7 @@
         <v>113203</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C63" s="2">
         <v>113</v>
@@ -5625,7 +5822,7 @@
         <v>113204</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C64" s="2">
         <v>113</v>
@@ -5663,7 +5860,7 @@
         <v>113205</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C65" s="2">
         <v>113</v>
@@ -5701,7 +5898,7 @@
         <v>113206</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2">
         <v>113</v>
@@ -5739,7 +5936,7 @@
         <v>113207</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C67" s="2">
         <v>113</v>
@@ -5777,7 +5974,7 @@
         <v>113208</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2">
         <v>113</v>
@@ -5815,7 +6012,7 @@
         <v>113209</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C69" s="2">
         <v>113</v>
@@ -5853,7 +6050,7 @@
         <v>113210</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2">
         <v>113</v>
@@ -5891,7 +6088,7 @@
         <v>121100</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2">
         <v>121</v>
@@ -5929,7 +6126,7 @@
         <v>121101</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2">
         <v>121</v>
@@ -5967,7 +6164,7 @@
         <v>121102</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2">
         <v>121</v>
@@ -6005,7 +6202,7 @@
         <v>121103</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2">
         <v>121</v>
@@ -6043,7 +6240,7 @@
         <v>121104</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2">
         <v>121</v>
@@ -6081,7 +6278,7 @@
         <v>121105</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2">
         <v>121</v>
@@ -6119,7 +6316,7 @@
         <v>121106</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2">
         <v>121</v>
@@ -6157,7 +6354,7 @@
         <v>121107</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2">
         <v>121</v>
@@ -6195,7 +6392,7 @@
         <v>121108</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2">
         <v>121</v>
@@ -6233,7 +6430,7 @@
         <v>121109</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2">
         <v>121</v>
@@ -6271,7 +6468,7 @@
         <v>121110</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2">
         <v>121</v>
@@ -6309,7 +6506,7 @@
         <v>121111</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2">
         <v>121</v>
@@ -6347,7 +6544,7 @@
         <v>121200</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2">
         <v>121</v>
@@ -6385,7 +6582,7 @@
         <v>121201</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2">
         <v>121</v>
@@ -6423,7 +6620,7 @@
         <v>121202</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2">
         <v>121</v>
@@ -6461,7 +6658,7 @@
         <v>121203</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2">
         <v>121</v>
@@ -6499,7 +6696,7 @@
         <v>121204</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2">
         <v>121</v>
@@ -6537,7 +6734,7 @@
         <v>121205</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2">
         <v>121</v>
@@ -6575,7 +6772,7 @@
         <v>121206</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2">
         <v>121</v>
@@ -6613,7 +6810,7 @@
         <v>121207</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2">
         <v>121</v>
@@ -6651,7 +6848,7 @@
         <v>121208</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C91" s="2">
         <v>121</v>
@@ -6689,7 +6886,7 @@
         <v>121209</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C92" s="2">
         <v>121</v>
@@ -6727,7 +6924,7 @@
         <v>121210</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2">
         <v>121</v>
@@ -6765,7 +6962,7 @@
         <v>122100</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C94" s="2">
         <v>122</v>
@@ -6803,7 +7000,7 @@
         <v>122101</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C95" s="2">
         <v>122</v>
@@ -6841,7 +7038,7 @@
         <v>122102</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C96" s="2">
         <v>122</v>
@@ -6879,7 +7076,7 @@
         <v>122103</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C97" s="2">
         <v>122</v>
@@ -6917,7 +7114,7 @@
         <v>122104</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2">
         <v>122</v>
@@ -6955,7 +7152,7 @@
         <v>122105</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C99" s="2">
         <v>122</v>
@@ -6993,7 +7190,7 @@
         <v>122106</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C100" s="2">
         <v>122</v>
@@ -7031,7 +7228,7 @@
         <v>122107</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2">
         <v>122</v>
@@ -7069,7 +7266,7 @@
         <v>122108</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C102" s="2">
         <v>122</v>
@@ -7107,7 +7304,7 @@
         <v>122109</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C103" s="2">
         <v>122</v>
@@ -7145,7 +7342,7 @@
         <v>122110</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2">
         <v>122</v>
@@ -7183,7 +7380,7 @@
         <v>122111</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C105" s="2">
         <v>122</v>
@@ -7221,7 +7418,7 @@
         <v>122200</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C106" s="2">
         <v>122</v>
@@ -7259,7 +7456,7 @@
         <v>122201</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2">
         <v>122</v>
@@ -7297,7 +7494,7 @@
         <v>122202</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C108" s="2">
         <v>122</v>
@@ -7335,7 +7532,7 @@
         <v>122203</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C109" s="2">
         <v>122</v>
@@ -7373,7 +7570,7 @@
         <v>122204</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2">
         <v>122</v>
@@ -7411,7 +7608,7 @@
         <v>122205</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C111" s="2">
         <v>122</v>
@@ -7449,7 +7646,7 @@
         <v>122206</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2">
         <v>122</v>
@@ -7487,7 +7684,7 @@
         <v>122207</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C113" s="2">
         <v>122</v>
@@ -7525,7 +7722,7 @@
         <v>122208</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2">
         <v>122</v>
@@ -7563,7 +7760,7 @@
         <v>122209</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C115" s="2">
         <v>122</v>
@@ -7601,7 +7798,7 @@
         <v>122210</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2">
         <v>122</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\fix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EFAC11-06A2-45E3-9557-CFF3CF977A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAB2566-D454-41F4-852A-16E13EEBD014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -779,7 +779,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,12 +820,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1488,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E80AA-5002-403D-BE2E-63B1902A2B22}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1828,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1954,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J2">
         <v>2001</v>
@@ -1978,19 +1972,19 @@
         <v>3001</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S2">
         <v>3002</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
@@ -2019,7 +2013,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>2001</v>
@@ -2043,19 +2037,19 @@
         <v>3001</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S3">
         <v>3002</v>
       </c>
       <c r="T3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.45">
@@ -2084,7 +2078,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>2001</v>
@@ -2108,19 +2102,19 @@
         <v>3001</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S4">
         <v>3002</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U4">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
@@ -2149,7 +2143,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>2001</v>
@@ -2173,19 +2167,19 @@
         <v>3001</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S5">
         <v>3002</v>
       </c>
       <c r="T5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.45">

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAB2566-D454-41F4-852A-16E13EEBD014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC280750-6841-45FB-8470-D0ADFA1E25C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -224,7 +224,7 @@
     목숨 개수</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="5" shapeId="0" xr:uid="{8285CCB3-CB58-4294-A5BF-5FB09F89024A}">
+    <comment ref="H1" authorId="5" shapeId="0" xr:uid="{8285CCB3-CB58-4294-A5BF-5FB09F89024A}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -232,7 +232,7 @@
     폭탄 스폰 개수</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="6" shapeId="0" xr:uid="{5B10262B-3C33-49E8-BC4C-128AD00C801E}">
+    <comment ref="I1" authorId="6" shapeId="0" xr:uid="{5B10262B-3C33-49E8-BC4C-128AD00C801E}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -240,7 +240,7 @@
     폭탄 스폰 시간 (초)</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="7" shapeId="0" xr:uid="{984B2A58-1DDA-43E8-940E-B8A31526AB63}">
+    <comment ref="J1" authorId="7" shapeId="0" xr:uid="{984B2A58-1DDA-43E8-940E-B8A31526AB63}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -248,7 +248,7 @@
     폭탄 폭발 지연 시간 (초)</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="8" shapeId="0" xr:uid="{949E0B6C-6B14-40F5-AA31-F4D46B05D01F}">
+    <comment ref="K1" authorId="8" shapeId="0" xr:uid="{949E0B6C-6B14-40F5-AA31-F4D46B05D01F}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -256,7 +256,7 @@
     무기1 인덱스</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="9" shapeId="0" xr:uid="{A7A3BCFD-094C-4BEF-B48E-5D9597828627}">
+    <comment ref="L1" authorId="9" shapeId="0" xr:uid="{A7A3BCFD-094C-4BEF-B48E-5D9597828627}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -264,7 +264,7 @@
     무기1 스폰 개수</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="10" shapeId="0" xr:uid="{B9CF0AE0-1CB0-4ECE-AC8B-90DDBD1A19C8}">
+    <comment ref="M1" authorId="10" shapeId="0" xr:uid="{B9CF0AE0-1CB0-4ECE-AC8B-90DDBD1A19C8}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -272,7 +272,7 @@
     무기1 스폰 시간 (초)</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="11" shapeId="0" xr:uid="{AD41039A-52E1-409F-8CF9-E03370129B0D}">
+    <comment ref="N1" authorId="11" shapeId="0" xr:uid="{AD41039A-52E1-409F-8CF9-E03370129B0D}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -280,7 +280,7 @@
     무기2 인덱스</t>
       </text>
     </comment>
-    <comment ref="N1" authorId="12" shapeId="0" xr:uid="{7F7F9A7E-7241-4417-9719-CC9889CBA455}">
+    <comment ref="O1" authorId="12" shapeId="0" xr:uid="{7F7F9A7E-7241-4417-9719-CC9889CBA455}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -288,7 +288,7 @@
     무기2 스폰 개수</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="13" shapeId="0" xr:uid="{DFEAD093-397E-49EB-9ECD-97658251A7E8}">
+    <comment ref="P1" authorId="13" shapeId="0" xr:uid="{DFEAD093-397E-49EB-9ECD-97658251A7E8}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="71">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -772,6 +772,10 @@
   </si>
   <si>
     <t>Recruit_Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb_Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1357,31 +1361,31 @@
   <threadedComment ref="F1" dT="2024-09-12T15:22:54.00" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{A65E3C15-D104-4378-B5A5-BF7B6FFEF9F9}">
     <text>목숨 개수</text>
   </threadedComment>
-  <threadedComment ref="G1" dT="2024-09-12T14:34:28.71" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{8285CCB3-CB58-4294-A5BF-5FB09F89024A}">
+  <threadedComment ref="H1" dT="2024-09-12T14:34:28.71" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{8285CCB3-CB58-4294-A5BF-5FB09F89024A}">
     <text>폭탄 스폰 개수</text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2024-09-12T14:34:47.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{5B10262B-3C33-49E8-BC4C-128AD00C801E}">
+  <threadedComment ref="I1" dT="2024-09-12T14:34:47.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{5B10262B-3C33-49E8-BC4C-128AD00C801E}">
     <text>폭탄 스폰 시간 (초)</text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2024-09-12T14:35:05.83" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{984B2A58-1DDA-43E8-940E-B8A31526AB63}">
+  <threadedComment ref="J1" dT="2024-09-12T14:35:05.83" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{984B2A58-1DDA-43E8-940E-B8A31526AB63}">
     <text>폭탄 폭발 지연 시간 (초)</text>
   </threadedComment>
-  <threadedComment ref="J1" dT="2024-09-12T14:57:56.58" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{949E0B6C-6B14-40F5-AA31-F4D46B05D01F}">
+  <threadedComment ref="K1" dT="2024-09-12T14:57:56.58" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{949E0B6C-6B14-40F5-AA31-F4D46B05D01F}">
     <text>무기1 인덱스</text>
   </threadedComment>
-  <threadedComment ref="K1" dT="2024-09-12T14:57:56.58" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{A7A3BCFD-094C-4BEF-B48E-5D9597828627}">
+  <threadedComment ref="L1" dT="2024-09-12T14:57:56.58" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{A7A3BCFD-094C-4BEF-B48E-5D9597828627}">
     <text>무기1 스폰 개수</text>
   </threadedComment>
-  <threadedComment ref="L1" dT="2024-09-12T15:08:27.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{B9CF0AE0-1CB0-4ECE-AC8B-90DDBD1A19C8}">
+  <threadedComment ref="M1" dT="2024-09-12T15:08:27.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{B9CF0AE0-1CB0-4ECE-AC8B-90DDBD1A19C8}">
     <text>무기1 스폰 시간 (초)</text>
   </threadedComment>
-  <threadedComment ref="M1" dT="2024-09-12T14:58:08.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{AD41039A-52E1-409F-8CF9-E03370129B0D}">
+  <threadedComment ref="N1" dT="2024-09-12T14:58:08.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{AD41039A-52E1-409F-8CF9-E03370129B0D}">
     <text>무기2 인덱스</text>
   </threadedComment>
-  <threadedComment ref="N1" dT="2024-09-12T14:58:08.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{7F7F9A7E-7241-4417-9719-CC9889CBA455}">
+  <threadedComment ref="O1" dT="2024-09-12T14:58:08.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{7F7F9A7E-7241-4417-9719-CC9889CBA455}">
     <text>무기2 스폰 개수</text>
   </threadedComment>
-  <threadedComment ref="O1" dT="2024-09-12T15:08:45.20" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{DFEAD093-397E-49EB-9ECD-97658251A7E8}">
+  <threadedComment ref="P1" dT="2024-09-12T15:08:45.20" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{DFEAD093-397E-49EB-9ECD-97658251A7E8}">
     <text>무기2 스폰 시간 (초)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1820,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1834,30 +1838,31 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.08203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.08203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.08203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.08203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1877,52 +1882,55 @@
         <v>22</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>111</v>
       </c>
@@ -1942,52 +1950,55 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>20</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2001</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>20</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2002</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
       <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>25</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3001</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>7</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>10</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3002</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>7</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>112</v>
       </c>
@@ -2007,52 +2018,55 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>15</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2001</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>20</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2002</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
       <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>25</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>3001</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>7</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>10</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>3002</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>7</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>121</v>
       </c>
@@ -2072,52 +2086,55 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>15</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2001</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>20</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2002</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>25</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3001</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>7</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>10</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>3002</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>7</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>122</v>
       </c>
@@ -2137,58 +2154,61 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>15</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>20</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2001</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>20</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2002</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
       <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>25</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3001</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>7</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>10</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>3002</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>7</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H22" t="s">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC280750-6841-45FB-8470-D0ADFA1E25C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C99D1-024A-4583-A9B7-86930F7C7E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="72">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -776,6 +776,10 @@
   </si>
   <si>
     <t>Bomb_Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch_Groggy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1824,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1862,7 +1866,7 @@
     <col min="28" max="28" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1929,8 +1933,11 @@
       <c r="V1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>111</v>
       </c>
@@ -1997,8 +2004,11 @@
       <c r="V2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>112</v>
       </c>
@@ -2065,8 +2075,11 @@
       <c r="V3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>121</v>
       </c>
@@ -2133,8 +2146,11 @@
       <c r="V4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>122</v>
       </c>
@@ -2201,8 +2217,11 @@
       <c r="V5">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="W5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
         <v>46</v>
       </c>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C99D1-024A-4583-A9B7-86930F7C7E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC09A661-499B-45F7-97C3-8317423DBE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="5" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -315,7 +315,8 @@
 댓글:
     게임 승패 
 Battle_Result = 1 -&gt; 승리
-Battle_Result = 2 -&gt; 패배</t>
+Battle_Result = 2 -&gt; 패배
+3 = 무승부</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1" shapeId="0" xr:uid="{9FDF698B-40D6-4D59-9285-99E7FD4DF1D6}">
@@ -493,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="77">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -780,6 +781,26 @@
   </si>
   <si>
     <t>Ch_Groggy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH_Indiv_Battle_2_Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH_Indiv_Battle_3_Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH_Indiv_Battle_5_Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH_Team_Battle_4_Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH_Team_Battle_6_Draw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1400,7 +1421,8 @@
   <threadedComment ref="D1" dT="2024-09-16T13:16:54.85" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{97D376C8-9A49-4DB3-97D4-1D7323B1059B}">
     <text>게임 승패 
 Battle_Result = 1 -&gt; 승리
-Battle_Result = 2 -&gt; 패배</text>
+Battle_Result = 2 -&gt; 패배
+3 = 무승부</text>
   </threadedComment>
   <threadedComment ref="E1" dT="2024-09-18T08:37:56.67" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{9FDF698B-40D6-4D59-9285-99E7FD4DF1D6}">
     <text>Kill_Point = 1
@@ -1830,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2240,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB955C-74DD-4B61-BCC6-9955AD17436D}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2420,16 +2442,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>112101</v>
+        <v>111301</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2443,16 +2465,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>112102</v>
+        <v>111302</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -2466,16 +2488,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>112103</v>
+        <v>111303</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -2489,16 +2511,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>112201</v>
+        <v>112101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2">
         <v>112</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2512,16 +2534,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>112202</v>
+        <v>112102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2">
         <v>112</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2535,16 +2557,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>112203</v>
+        <v>112103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2">
         <v>112</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -2558,16 +2580,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>113101</v>
+        <v>112201</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2581,16 +2603,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>113102</v>
+        <v>112202</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -2604,16 +2626,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>113103</v>
+        <v>112203</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -2627,16 +2649,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>113201</v>
+        <v>112301</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2650,16 +2672,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>113202</v>
+        <v>112302</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -2673,16 +2695,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>113203</v>
+        <v>112303</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -2696,13 +2718,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>121101</v>
+        <v>113101</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2719,13 +2741,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>121102</v>
+        <v>113102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2742,13 +2764,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>121103</v>
+        <v>113103</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2765,13 +2787,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>121201</v>
+        <v>113201</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2788,13 +2810,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>121202</v>
+        <v>113202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2811,13 +2833,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>121203</v>
+        <v>113203</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2834,16 +2856,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>122101</v>
+        <v>113301</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2857,16 +2879,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>122102</v>
+        <v>113302</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2880,16 +2902,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>122103</v>
+        <v>113303</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2903,16 +2925,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>122201</v>
+        <v>121101</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2926,16 +2948,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>122202</v>
+        <v>121102</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2949,66 +2971,407 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
+        <v>121103</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2">
+        <v>121</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>121201</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="2">
+        <v>121</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>121202</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="2">
+        <v>121</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>121203</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="2">
+        <v>121</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>121301</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2">
+        <v>121</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>121302</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2">
+        <v>121</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>121303</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2">
+        <v>121</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>122101</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="2">
+        <v>122</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>122102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="2">
+        <v>122</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>122103</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="2">
+        <v>122</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>122201</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="2">
+        <v>122</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>122202</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="2">
+        <v>122</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43">
         <v>122203</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C43" s="2">
         <v>122</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>122301</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="2">
+        <v>122</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>122302</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="2">
+        <v>122</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>122303</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="2">
+        <v>122</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" s="1"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3019,10 +3382,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87B89F5-A0CF-418F-90DB-EDDE1E3A1683}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3132,16 +3495,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <v>112001</v>
+        <v>111003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>100001</v>
@@ -3164,16 +3527,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>112002</v>
+        <v>112001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>112</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>100001</v>
@@ -3196,16 +3559,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <v>113001</v>
+        <v>112002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>100001</v>
@@ -3228,16 +3591,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <v>113002</v>
+        <v>112003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>100001</v>
@@ -3260,13 +3623,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <v>121001</v>
+        <v>113001</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3292,13 +3655,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>121002</v>
+        <v>113002</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3324,16 +3687,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>122001</v>
+        <v>113003</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>100001</v>
@@ -3356,16 +3719,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>121002</v>
+        <v>121001</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>100001</v>
@@ -3386,21 +3749,165 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>121002</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2">
+        <v>121</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>100001</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>121003</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2">
+        <v>121</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>100001</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>122001</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2">
+        <v>122</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>100001</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>121002</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2">
+        <v>122</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>100001</v>
+      </c>
+      <c r="F15">
+        <v>500</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>121003</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="2">
+        <v>122</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>100001</v>
+      </c>
+      <c r="F16">
+        <v>500</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
@@ -3429,6 +3936,22 @@
     <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3439,11 +3962,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71821EEC-8EF8-416A-A444-28A2AA6C244D}">
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M152" sqref="M152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4370,16 +4893,16 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
-        <v>112100</v>
+        <v>111300</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4388,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -4408,28 +4931,28 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
-        <v>112101</v>
+        <v>111301</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2">
+        <v>111</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>100001</v>
+      </c>
+      <c r="H26">
         <v>50</v>
-      </c>
-      <c r="C26" s="2">
-        <v>112</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>100001</v>
-      </c>
-      <c r="H26">
-        <v>100</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4446,16 +4969,16 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
-        <v>112102</v>
+        <v>111302</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4467,7 +4990,7 @@
         <v>100001</v>
       </c>
       <c r="H27">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -4484,16 +5007,16 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
-        <v>112103</v>
+        <v>111303</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -4505,7 +5028,7 @@
         <v>100001</v>
       </c>
       <c r="H28">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -4522,16 +5045,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
-        <v>112104</v>
+        <v>111304</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -4543,7 +5066,7 @@
         <v>100001</v>
       </c>
       <c r="H29">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -4560,16 +5083,16 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
-        <v>112105</v>
+        <v>111305</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -4581,7 +5104,7 @@
         <v>100001</v>
       </c>
       <c r="H30">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -4598,16 +5121,16 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
-        <v>112106</v>
+        <v>111306</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4619,7 +5142,7 @@
         <v>100001</v>
       </c>
       <c r="H31">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4636,16 +5159,16 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
-        <v>112107</v>
+        <v>111307</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -4657,7 +5180,7 @@
         <v>100001</v>
       </c>
       <c r="H32">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -4674,16 +5197,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
-        <v>112108</v>
+        <v>111308</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -4695,7 +5218,7 @@
         <v>100001</v>
       </c>
       <c r="H33">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4712,16 +5235,16 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
-        <v>112109</v>
+        <v>111309</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -4733,7 +5256,7 @@
         <v>100001</v>
       </c>
       <c r="H34">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4750,16 +5273,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
-        <v>112110</v>
+        <v>111310</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -4771,7 +5294,7 @@
         <v>100001</v>
       </c>
       <c r="H35">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4788,10 +5311,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
-        <v>112111</v>
+        <v>112100</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2">
         <v>112</v>
@@ -4800,22 +5323,22 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>100001</v>
       </c>
       <c r="H36">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>100003</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -4826,28 +5349,28 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
-        <v>112200</v>
+        <v>112101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2">
         <v>112</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>100001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4864,28 +5387,28 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
-        <v>112201</v>
+        <v>112102</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <v>112</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>100001</v>
       </c>
       <c r="H38">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4902,28 +5425,28 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
-        <v>112202</v>
+        <v>112103</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2">
         <v>112</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39">
         <v>100001</v>
       </c>
       <c r="H39">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4940,28 +5463,28 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
-        <v>112203</v>
+        <v>112104</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2">
         <v>112</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40">
         <v>100001</v>
       </c>
       <c r="H40">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4978,28 +5501,28 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
-        <v>112204</v>
+        <v>112105</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2">
         <v>112</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41">
         <v>100001</v>
       </c>
       <c r="H41">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5016,28 +5539,28 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
-        <v>112205</v>
+        <v>112106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2">
         <v>112</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42">
         <v>100001</v>
       </c>
       <c r="H42">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5054,28 +5577,28 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
-        <v>112206</v>
+        <v>112107</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2">
         <v>112</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G43">
         <v>100001</v>
       </c>
       <c r="H43">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -5092,28 +5615,28 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
-        <v>112207</v>
+        <v>112108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2">
         <v>112</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G44">
         <v>100001</v>
       </c>
       <c r="H44">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -5130,28 +5653,28 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
-        <v>112208</v>
+        <v>112109</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2">
         <v>112</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45">
         <v>100001</v>
       </c>
       <c r="H45">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -5168,28 +5691,28 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
-        <v>112209</v>
+        <v>112110</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2">
         <v>112</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>100001</v>
       </c>
       <c r="H46">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -5206,34 +5729,34 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
-        <v>112210</v>
+        <v>112111</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2">
         <v>112</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47">
         <v>100001</v>
       </c>
       <c r="H47">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -5244,16 +5767,16 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
-        <v>113100</v>
+        <v>112200</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -5262,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -5282,16 +5805,16 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
-        <v>113101</v>
+        <v>112201</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -5303,7 +5826,7 @@
         <v>100001</v>
       </c>
       <c r="H49">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -5320,16 +5843,16 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
-        <v>113102</v>
+        <v>112202</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -5341,7 +5864,7 @@
         <v>100001</v>
       </c>
       <c r="H50">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -5358,16 +5881,16 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
-        <v>113103</v>
+        <v>112203</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -5379,7 +5902,7 @@
         <v>100001</v>
       </c>
       <c r="H51">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5396,16 +5919,16 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
-        <v>113104</v>
+        <v>112204</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -5417,7 +5940,7 @@
         <v>100001</v>
       </c>
       <c r="H52">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5434,16 +5957,16 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
-        <v>113105</v>
+        <v>112205</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -5455,7 +5978,7 @@
         <v>100001</v>
       </c>
       <c r="H53">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -5472,16 +5995,16 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
-        <v>113106</v>
+        <v>112206</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -5493,7 +6016,7 @@
         <v>100001</v>
       </c>
       <c r="H54">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -5510,16 +6033,16 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
-        <v>113107</v>
+        <v>112207</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -5531,7 +6054,7 @@
         <v>100001</v>
       </c>
       <c r="H55">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -5548,16 +6071,16 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
-        <v>113108</v>
+        <v>112208</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -5569,7 +6092,7 @@
         <v>100001</v>
       </c>
       <c r="H56">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5586,16 +6109,16 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
-        <v>113109</v>
+        <v>112209</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -5607,7 +6130,7 @@
         <v>100001</v>
       </c>
       <c r="H57">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5624,16 +6147,16 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
-        <v>113110</v>
+        <v>112210</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -5645,7 +6168,7 @@
         <v>100001</v>
       </c>
       <c r="H58">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -5662,34 +6185,34 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
-        <v>113111</v>
+        <v>112300</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>100003</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -5700,28 +6223,28 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
-        <v>113200</v>
+        <v>112301</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5738,28 +6261,28 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
-        <v>113201</v>
+        <v>112302</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61">
         <v>100001</v>
       </c>
       <c r="H61">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -5776,28 +6299,28 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
-        <v>113202</v>
+        <v>112303</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62">
         <v>100001</v>
       </c>
       <c r="H62">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -5814,28 +6337,28 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
-        <v>113203</v>
+        <v>112304</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63">
         <v>100001</v>
       </c>
       <c r="H63">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -5852,28 +6375,28 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
-        <v>113204</v>
+        <v>112305</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G64">
         <v>100001</v>
       </c>
       <c r="H64">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -5890,28 +6413,28 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
-        <v>113205</v>
+        <v>112306</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G65">
         <v>100001</v>
       </c>
       <c r="H65">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -5928,28 +6451,28 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="6">
-        <v>113206</v>
+        <v>112307</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G66">
         <v>100001</v>
       </c>
       <c r="H66">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -5966,28 +6489,28 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
-        <v>113207</v>
+        <v>112308</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C67" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G67">
         <v>100001</v>
       </c>
       <c r="H67">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -6004,28 +6527,28 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
-        <v>113208</v>
+        <v>112309</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C68" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G68">
         <v>100001</v>
       </c>
       <c r="H68">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6042,28 +6565,28 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
-        <v>113209</v>
+        <v>112310</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C69" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G69">
         <v>100001</v>
       </c>
       <c r="H69">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6080,28 +6603,28 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
-        <v>113210</v>
+        <v>113100</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2">
         <v>113</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6118,13 +6641,13 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
-        <v>121100</v>
+        <v>113101</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -6133,13 +6656,13 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6156,13 +6679,13 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
-        <v>121101</v>
+        <v>113102</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -6171,13 +6694,13 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72">
         <v>100001</v>
       </c>
       <c r="H72">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6194,13 +6717,13 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
-        <v>121102</v>
+        <v>113103</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -6209,13 +6732,13 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73">
         <v>100001</v>
       </c>
       <c r="H73">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6232,13 +6755,13 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
-        <v>121103</v>
+        <v>113104</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -6247,13 +6770,13 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G74">
         <v>100001</v>
       </c>
       <c r="H74">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -6270,13 +6793,13 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="6">
-        <v>121104</v>
+        <v>113105</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -6285,13 +6808,13 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G75">
         <v>100001</v>
       </c>
       <c r="H75">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -6308,13 +6831,13 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="6">
-        <v>121105</v>
+        <v>113106</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -6323,13 +6846,13 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G76">
         <v>100001</v>
       </c>
       <c r="H76">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -6346,13 +6869,13 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="6">
-        <v>121106</v>
+        <v>113107</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -6361,13 +6884,13 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G77">
         <v>100001</v>
       </c>
       <c r="H77">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -6384,13 +6907,13 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="6">
-        <v>121107</v>
+        <v>113108</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -6399,13 +6922,13 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G78">
         <v>100001</v>
       </c>
       <c r="H78">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -6422,13 +6945,13 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="6">
-        <v>121108</v>
+        <v>113109</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -6437,13 +6960,13 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G79">
         <v>100001</v>
       </c>
       <c r="H79">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -6460,13 +6983,13 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="6">
-        <v>121109</v>
+        <v>113110</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -6475,13 +6998,13 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G80">
         <v>100001</v>
       </c>
       <c r="H80">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -6498,34 +7021,34 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="6">
-        <v>121110</v>
+        <v>113111</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G81">
         <v>100001</v>
       </c>
       <c r="H81">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -6536,34 +7059,34 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="6">
-        <v>121111</v>
+        <v>113200</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>100003</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -6574,13 +7097,13 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="6">
-        <v>121200</v>
+        <v>113201</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -6589,13 +7112,13 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -6612,13 +7135,13 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="6">
-        <v>121201</v>
+        <v>113202</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -6627,13 +7150,13 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84">
         <v>100001</v>
       </c>
       <c r="H84">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -6650,13 +7173,13 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="6">
-        <v>121202</v>
+        <v>113203</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -6665,13 +7188,13 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G85">
         <v>100001</v>
       </c>
       <c r="H85">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -6688,13 +7211,13 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="6">
-        <v>121203</v>
+        <v>113204</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -6703,13 +7226,13 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G86">
         <v>100001</v>
       </c>
       <c r="H86">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -6726,13 +7249,13 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="6">
-        <v>121204</v>
+        <v>113205</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -6741,13 +7264,13 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G87">
         <v>100001</v>
       </c>
       <c r="H87">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6764,13 +7287,13 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="6">
-        <v>121205</v>
+        <v>113206</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -6779,13 +7302,13 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G88">
         <v>100001</v>
       </c>
       <c r="H88">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -6802,13 +7325,13 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="6">
-        <v>121206</v>
+        <v>113207</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -6817,13 +7340,13 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G89">
         <v>100001</v>
       </c>
       <c r="H89">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -6840,13 +7363,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="6">
-        <v>121207</v>
+        <v>113208</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C90" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -6855,13 +7378,13 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G90">
         <v>100001</v>
       </c>
       <c r="H90">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -6878,13 +7401,13 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="6">
-        <v>121208</v>
+        <v>113209</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C91" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -6893,13 +7416,13 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G91">
         <v>100001</v>
       </c>
       <c r="H91">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -6916,13 +7439,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="6">
-        <v>121209</v>
+        <v>113210</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -6931,13 +7454,13 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G92">
         <v>100001</v>
       </c>
       <c r="H92">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -6954,28 +7477,28 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="6">
-        <v>121210</v>
+        <v>113300</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -6992,28 +7515,28 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
-        <v>122100</v>
+        <v>113301</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -7030,28 +7553,28 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
-        <v>122101</v>
+        <v>113302</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C95" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95">
         <v>100001</v>
       </c>
       <c r="H95">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -7068,28 +7591,28 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
-        <v>122102</v>
+        <v>113303</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C96" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96">
         <v>100001</v>
       </c>
       <c r="H96">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -7106,28 +7629,28 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
-        <v>122103</v>
+        <v>113304</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C97" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G97">
         <v>100001</v>
       </c>
       <c r="H97">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -7144,28 +7667,28 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
-        <v>122104</v>
+        <v>113305</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C98" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G98">
         <v>100001</v>
       </c>
       <c r="H98">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -7182,28 +7705,28 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
-        <v>122105</v>
+        <v>113306</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C99" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G99">
         <v>100001</v>
       </c>
       <c r="H99">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -7220,28 +7743,28 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="6">
-        <v>122106</v>
+        <v>113307</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C100" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G100">
         <v>100001</v>
       </c>
       <c r="H100">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -7258,28 +7781,28 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="6">
-        <v>122107</v>
+        <v>113308</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C101" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G101">
         <v>100001</v>
       </c>
       <c r="H101">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -7296,28 +7819,28 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="6">
-        <v>122108</v>
+        <v>113309</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C102" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G102">
         <v>100001</v>
       </c>
       <c r="H102">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -7334,28 +7857,28 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="6">
-        <v>122109</v>
+        <v>113310</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C103" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G103">
         <v>100001</v>
       </c>
       <c r="H103">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -7372,13 +7895,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="6">
-        <v>122110</v>
+        <v>121100</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C104" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -7387,13 +7910,13 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -7410,34 +7933,34 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="6">
-        <v>122111</v>
+        <v>121101</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C105" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>100001</v>
       </c>
       <c r="H105">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I105">
-        <v>100003</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -7448,28 +7971,28 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="6">
-        <v>122200</v>
+        <v>121102</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C106" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -7486,28 +8009,28 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
-        <v>122201</v>
+        <v>121103</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C107" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G107">
         <v>100001</v>
       </c>
       <c r="H107">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -7524,28 +8047,28 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="6">
-        <v>122202</v>
+        <v>121104</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C108" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G108">
         <v>100001</v>
       </c>
       <c r="H108">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -7562,28 +8085,28 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="6">
-        <v>122203</v>
+        <v>121105</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C109" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G109">
         <v>100001</v>
       </c>
       <c r="H109">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -7600,28 +8123,28 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="6">
-        <v>122204</v>
+        <v>121106</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G110">
         <v>100001</v>
       </c>
       <c r="H110">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -7638,28 +8161,28 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="6">
-        <v>122205</v>
+        <v>121107</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G111">
         <v>100001</v>
       </c>
       <c r="H111">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -7676,28 +8199,28 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="6">
-        <v>122206</v>
+        <v>121108</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C112" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G112">
         <v>100001</v>
       </c>
       <c r="H112">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -7714,28 +8237,28 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="6">
-        <v>122207</v>
+        <v>121109</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G113">
         <v>100001</v>
       </c>
       <c r="H113">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -7752,28 +8275,28 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="6">
-        <v>122208</v>
+        <v>121110</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C114" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G114">
         <v>100001</v>
       </c>
       <c r="H114">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -7790,34 +8313,34 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="6">
-        <v>122209</v>
+        <v>121111</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G115">
         <v>100001</v>
       </c>
       <c r="H115">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -7828,39 +8351,2129 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="6">
+        <v>121200</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="2">
+        <v>121</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A117" s="6">
+        <v>121201</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" s="2">
+        <v>121</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>100001</v>
+      </c>
+      <c r="H117">
+        <v>50</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A118" s="6">
+        <v>121202</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" s="2">
+        <v>121</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>100001</v>
+      </c>
+      <c r="H118">
+        <v>60</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A119" s="6">
+        <v>121203</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="2">
+        <v>121</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <v>100001</v>
+      </c>
+      <c r="H119">
+        <v>70</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A120" s="6">
+        <v>121204</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" s="2">
+        <v>121</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120">
+        <v>100001</v>
+      </c>
+      <c r="H120">
+        <v>80</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A121" s="6">
+        <v>121205</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" s="2">
+        <v>121</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121">
+        <v>100001</v>
+      </c>
+      <c r="H121">
+        <v>90</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A122" s="6">
+        <v>121206</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="2">
+        <v>121</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>6</v>
+      </c>
+      <c r="G122">
+        <v>100001</v>
+      </c>
+      <c r="H122">
+        <v>100</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A123" s="6">
+        <v>121207</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="2">
+        <v>121</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>7</v>
+      </c>
+      <c r="G123">
+        <v>100001</v>
+      </c>
+      <c r="H123">
+        <v>110</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A124" s="6">
+        <v>121208</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" s="2">
+        <v>121</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>8</v>
+      </c>
+      <c r="G124">
+        <v>100001</v>
+      </c>
+      <c r="H124">
+        <v>120</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A125" s="6">
+        <v>121209</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="2">
+        <v>121</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>9</v>
+      </c>
+      <c r="G125">
+        <v>100001</v>
+      </c>
+      <c r="H125">
+        <v>130</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A126" s="6">
+        <v>121210</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" s="2">
+        <v>121</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="G126">
+        <v>100001</v>
+      </c>
+      <c r="H126">
+        <v>140</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A127" s="6">
+        <v>121300</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C127" s="2">
+        <v>121</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A128" s="6">
+        <v>121301</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C128" s="2">
+        <v>121</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>100001</v>
+      </c>
+      <c r="H128">
+        <v>50</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A129" s="6">
+        <v>121302</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C129" s="2">
+        <v>121</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>100001</v>
+      </c>
+      <c r="H129">
+        <v>60</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A130" s="6">
+        <v>121303</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C130" s="2">
+        <v>121</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>3</v>
+      </c>
+      <c r="G130">
+        <v>100001</v>
+      </c>
+      <c r="H130">
+        <v>70</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A131" s="6">
+        <v>121304</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C131" s="2">
+        <v>121</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+      <c r="G131">
+        <v>100001</v>
+      </c>
+      <c r="H131">
+        <v>80</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A132" s="6">
+        <v>121305</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C132" s="2">
+        <v>121</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>5</v>
+      </c>
+      <c r="G132">
+        <v>100001</v>
+      </c>
+      <c r="H132">
+        <v>90</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A133" s="6">
+        <v>121306</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C133" s="2">
+        <v>121</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>6</v>
+      </c>
+      <c r="G133">
+        <v>100001</v>
+      </c>
+      <c r="H133">
+        <v>100</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A134" s="6">
+        <v>121307</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C134" s="2">
+        <v>121</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>7</v>
+      </c>
+      <c r="G134">
+        <v>100001</v>
+      </c>
+      <c r="H134">
+        <v>110</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A135" s="6">
+        <v>121308</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C135" s="2">
+        <v>121</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>8</v>
+      </c>
+      <c r="G135">
+        <v>100001</v>
+      </c>
+      <c r="H135">
+        <v>120</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A136" s="6">
+        <v>121309</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C136" s="2">
+        <v>121</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>9</v>
+      </c>
+      <c r="G136">
+        <v>100001</v>
+      </c>
+      <c r="H136">
+        <v>130</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A137" s="6">
+        <v>121310</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C137" s="2">
+        <v>121</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>10</v>
+      </c>
+      <c r="G137">
+        <v>100001</v>
+      </c>
+      <c r="H137">
+        <v>140</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A138" s="6">
+        <v>122100</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="2">
+        <v>122</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A139" s="6">
+        <v>122101</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" s="2">
+        <v>122</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>100001</v>
+      </c>
+      <c r="H139">
+        <v>100</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A140" s="6">
+        <v>122102</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140" s="2">
+        <v>122</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>100001</v>
+      </c>
+      <c r="H140">
+        <v>110</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A141" s="6">
+        <v>122103</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="2">
+        <v>122</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>100001</v>
+      </c>
+      <c r="H141">
+        <v>120</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A142" s="6">
+        <v>122104</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142" s="2">
+        <v>122</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
+      </c>
+      <c r="G142">
+        <v>100001</v>
+      </c>
+      <c r="H142">
+        <v>130</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A143" s="6">
+        <v>122105</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143" s="2">
+        <v>122</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>5</v>
+      </c>
+      <c r="G143">
+        <v>100001</v>
+      </c>
+      <c r="H143">
+        <v>140</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A144" s="6">
+        <v>122106</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C144" s="2">
+        <v>122</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>6</v>
+      </c>
+      <c r="G144">
+        <v>100001</v>
+      </c>
+      <c r="H144">
+        <v>150</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A145" s="6">
+        <v>122107</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C145" s="2">
+        <v>122</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>7</v>
+      </c>
+      <c r="G145">
+        <v>100001</v>
+      </c>
+      <c r="H145">
+        <v>160</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A146" s="6">
+        <v>122108</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="2">
+        <v>122</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>8</v>
+      </c>
+      <c r="G146">
+        <v>100001</v>
+      </c>
+      <c r="H146">
+        <v>170</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A147" s="6">
+        <v>122109</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147" s="2">
+        <v>122</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>9</v>
+      </c>
+      <c r="G147">
+        <v>100001</v>
+      </c>
+      <c r="H147">
+        <v>180</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A148" s="6">
+        <v>122110</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C148" s="2">
+        <v>122</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>10</v>
+      </c>
+      <c r="G148">
+        <v>100001</v>
+      </c>
+      <c r="H148">
+        <v>190</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A149" s="6">
+        <v>122111</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C149" s="2">
+        <v>122</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
+        <v>11</v>
+      </c>
+      <c r="G149">
+        <v>100001</v>
+      </c>
+      <c r="H149">
+        <v>200</v>
+      </c>
+      <c r="I149">
+        <v>100003</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A150" s="6">
+        <v>122200</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C150" s="2">
+        <v>122</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A151" s="6">
+        <v>122201</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C151" s="2">
+        <v>122</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>100001</v>
+      </c>
+      <c r="H151">
+        <v>50</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A152" s="6">
+        <v>122202</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C152" s="2">
+        <v>122</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>100001</v>
+      </c>
+      <c r="H152">
+        <v>60</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A153" s="6">
+        <v>122203</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C153" s="2">
+        <v>122</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>3</v>
+      </c>
+      <c r="G153">
+        <v>100001</v>
+      </c>
+      <c r="H153">
+        <v>70</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A154" s="6">
+        <v>122204</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C154" s="2">
+        <v>122</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154">
+        <v>100001</v>
+      </c>
+      <c r="H154">
+        <v>80</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A155" s="6">
+        <v>122205</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155" s="2">
+        <v>122</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>5</v>
+      </c>
+      <c r="G155">
+        <v>100001</v>
+      </c>
+      <c r="H155">
+        <v>90</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A156" s="6">
+        <v>122206</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C156" s="2">
+        <v>122</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>6</v>
+      </c>
+      <c r="G156">
+        <v>100001</v>
+      </c>
+      <c r="H156">
+        <v>100</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A157" s="6">
+        <v>122207</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C157" s="2">
+        <v>122</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>7</v>
+      </c>
+      <c r="G157">
+        <v>100001</v>
+      </c>
+      <c r="H157">
+        <v>110</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A158" s="6">
+        <v>122208</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C158" s="2">
+        <v>122</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>8</v>
+      </c>
+      <c r="G158">
+        <v>100001</v>
+      </c>
+      <c r="H158">
+        <v>120</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A159" s="6">
+        <v>122209</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C159" s="2">
+        <v>122</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>9</v>
+      </c>
+      <c r="G159">
+        <v>100001</v>
+      </c>
+      <c r="H159">
+        <v>130</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A160" s="6">
         <v>122210</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C160" s="2">
         <v>122</v>
       </c>
-      <c r="D116">
-        <v>2</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116">
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
         <v>10</v>
       </c>
-      <c r="G116">
-        <v>100001</v>
-      </c>
-      <c r="H116">
+      <c r="G160">
+        <v>100001</v>
+      </c>
+      <c r="H160">
         <v>140</v>
       </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116">
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A161" s="6">
+        <v>122300</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C161" s="2">
+        <v>122</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A162" s="6">
+        <v>122301</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C162" s="2">
+        <v>122</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>100001</v>
+      </c>
+      <c r="H162">
+        <v>50</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A163" s="6">
+        <v>122302</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C163" s="2">
+        <v>122</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163">
+        <v>100001</v>
+      </c>
+      <c r="H163">
+        <v>60</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A164" s="6">
+        <v>122303</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C164" s="2">
+        <v>122</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+      <c r="G164">
+        <v>100001</v>
+      </c>
+      <c r="H164">
+        <v>70</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A165" s="6">
+        <v>122304</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C165" s="2">
+        <v>122</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>4</v>
+      </c>
+      <c r="G165">
+        <v>100001</v>
+      </c>
+      <c r="H165">
+        <v>80</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A166" s="6">
+        <v>122305</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C166" s="2">
+        <v>122</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>5</v>
+      </c>
+      <c r="G166">
+        <v>100001</v>
+      </c>
+      <c r="H166">
+        <v>90</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A167" s="6">
+        <v>122306</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C167" s="2">
+        <v>122</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167">
+        <v>100001</v>
+      </c>
+      <c r="H167">
+        <v>100</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A168" s="6">
+        <v>122307</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C168" s="2">
+        <v>122</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>7</v>
+      </c>
+      <c r="G168">
+        <v>100001</v>
+      </c>
+      <c r="H168">
+        <v>110</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A169" s="6">
+        <v>122308</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C169" s="2">
+        <v>122</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>8</v>
+      </c>
+      <c r="G169">
+        <v>100001</v>
+      </c>
+      <c r="H169">
+        <v>120</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A170" s="6">
+        <v>122309</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C170" s="2">
+        <v>122</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>9</v>
+      </c>
+      <c r="G170">
+        <v>100001</v>
+      </c>
+      <c r="H170">
+        <v>130</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A171" s="6">
+        <v>122310</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C171" s="2">
+        <v>122</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>10</v>
+      </c>
+      <c r="G171">
+        <v>100001</v>
+      </c>
+      <c r="H171">
+        <v>140</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
         <v>0</v>
       </c>
     </row>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC09A661-499B-45F7-97C3-8317423DBE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67BF489-B3EC-45E2-BA38-C895AF51E8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="5" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="78">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,6 +801,10 @@
   </si>
   <si>
     <t>FITH_Team_Battle_6_Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1852,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1982,7 +1986,7 @@
         <v>20</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1997,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N2">
         <v>2002</v>
@@ -2006,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>3001</v>
@@ -2021,7 +2025,7 @@
         <v>3002</v>
       </c>
       <c r="U2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="V2">
         <v>10</v>
@@ -2244,6 +2248,9 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
       <c r="F12" t="s">
         <v>46</v>
       </c>
@@ -3964,7 +3971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71821EEC-8EF8-416A-A444-28A2AA6C244D}">
   <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M152" sqref="M152"/>
     </sheetView>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67BF489-B3EC-45E2-BA38-C895AF51E8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F993F9B-6BE3-4DFD-BF3D-A7F639D4B6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -1856,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <v>3001</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F993F9B-6BE3-4DFD-BF3D-A7F639D4B6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1DA6AD-10DA-4283-A3EA-594244612711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2025,7 +2025,7 @@
         <v>3002</v>
       </c>
       <c r="U2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V2">
         <v>10</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1DA6AD-10DA-4283-A3EA-594244612711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4E3641-6216-4E4A-9461-E2938C0F6A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="77">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,10 +801,6 @@
   </si>
   <si>
     <t>FITH_Team_Battle_6_Draw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1517,22 +1513,22 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.58203125" customWidth="1"/>
-    <col min="7" max="7" width="13.9140625" customWidth="1"/>
-    <col min="8" max="9" width="24.4140625" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="9" width="24.375" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>66</v>
       </c>
@@ -1552,7 +1548,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>110</v>
       </c>
@@ -1572,7 +1568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>110</v>
       </c>
@@ -1592,7 +1588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>110</v>
       </c>
@@ -1612,7 +1608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>120</v>
       </c>
@@ -1632,7 +1628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>120</v>
       </c>
@@ -1652,7 +1648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>120</v>
       </c>
@@ -1685,22 +1681,22 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>111</v>
       </c>
@@ -1758,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>112</v>
       </c>
@@ -1787,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>121</v>
       </c>
@@ -1816,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>122</v>
       </c>
@@ -1857,42 +1853,42 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.08203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.08203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.08203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.75" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1963,7 +1959,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>111</v>
       </c>
@@ -2034,7 +2030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>112</v>
       </c>
@@ -2096,7 +2092,7 @@
         <v>3002</v>
       </c>
       <c r="U3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V3">
         <v>10</v>
@@ -2105,7 +2101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>121</v>
       </c>
@@ -2167,7 +2163,7 @@
         <v>3002</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V4">
         <v>10</v>
@@ -2176,7 +2172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>122</v>
       </c>
@@ -2238,7 +2234,7 @@
         <v>3002</v>
       </c>
       <c r="U5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V5">
         <v>10</v>
@@ -2247,15 +2243,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
         <v>46</v>
       </c>
@@ -2271,22 +2264,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB955C-74DD-4B61-BCC6-9955AD17436D}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:G37"/>
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>111101</v>
       </c>
@@ -2332,7 +2325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>111102</v>
       </c>
@@ -2355,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>111103</v>
       </c>
@@ -2378,7 +2371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>111201</v>
       </c>
@@ -2401,7 +2394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>111202</v>
       </c>
@@ -2424,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>111203</v>
       </c>
@@ -2447,7 +2440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>111301</v>
       </c>
@@ -2470,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>111302</v>
       </c>
@@ -2493,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>111303</v>
       </c>
@@ -2516,7 +2509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>112101</v>
       </c>
@@ -2539,7 +2532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>112102</v>
       </c>
@@ -2562,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>112103</v>
       </c>
@@ -2585,7 +2578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>112201</v>
       </c>
@@ -2608,7 +2601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>112202</v>
       </c>
@@ -2631,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>112203</v>
       </c>
@@ -2654,7 +2647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>112301</v>
       </c>
@@ -2677,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>112302</v>
       </c>
@@ -2700,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>112303</v>
       </c>
@@ -2723,7 +2716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>113101</v>
       </c>
@@ -2746,7 +2739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>113102</v>
       </c>
@@ -2769,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>113103</v>
       </c>
@@ -2792,7 +2785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>113201</v>
       </c>
@@ -2815,7 +2808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>113202</v>
       </c>
@@ -2838,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>113203</v>
       </c>
@@ -2861,7 +2854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>113301</v>
       </c>
@@ -2884,7 +2877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>113302</v>
       </c>
@@ -2907,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>113303</v>
       </c>
@@ -2930,7 +2923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>121101</v>
       </c>
@@ -2953,7 +2946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>121102</v>
       </c>
@@ -2976,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>121103</v>
       </c>
@@ -2999,7 +2992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>121201</v>
       </c>
@@ -3022,7 +3015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>121202</v>
       </c>
@@ -3045,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>121203</v>
       </c>
@@ -3068,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>121301</v>
       </c>
@@ -3091,7 +3084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>121302</v>
       </c>
@@ -3114,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>121303</v>
       </c>
@@ -3137,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>122101</v>
       </c>
@@ -3160,7 +3153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>122102</v>
       </c>
@@ -3183,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>122103</v>
       </c>
@@ -3206,7 +3199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>122201</v>
       </c>
@@ -3229,7 +3222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>122202</v>
       </c>
@@ -3252,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>122203</v>
       </c>
@@ -3275,7 +3268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>122301</v>
       </c>
@@ -3298,7 +3291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>122302</v>
       </c>
@@ -3321,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>122303</v>
       </c>
@@ -3344,39 +3337,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
     </row>
@@ -3392,19 +3385,19 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3436,7 +3429,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>111001</v>
       </c>
@@ -3468,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>111002</v>
       </c>
@@ -3500,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>111003</v>
       </c>
@@ -3532,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>112001</v>
       </c>
@@ -3564,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>112002</v>
       </c>
@@ -3596,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>112003</v>
       </c>
@@ -3628,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>113001</v>
       </c>
@@ -3660,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>113002</v>
       </c>
@@ -3692,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>113003</v>
       </c>
@@ -3724,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>121001</v>
       </c>
@@ -3756,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>121002</v>
       </c>
@@ -3788,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>121003</v>
       </c>
@@ -3820,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>122001</v>
       </c>
@@ -3852,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>121002</v>
       </c>
@@ -3884,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>121003</v>
       </c>
@@ -3916,47 +3909,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
@@ -3972,21 +3965,21 @@
   <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M152" sqref="M152"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N166" sqref="N166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4024,7 +4017,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>111100</v>
       </c>
@@ -4062,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>111101</v>
       </c>
@@ -4100,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>111102</v>
       </c>
@@ -4138,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>111103</v>
       </c>
@@ -4176,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>111104</v>
       </c>
@@ -4214,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>111105</v>
       </c>
@@ -4252,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>111106</v>
       </c>
@@ -4290,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>111107</v>
       </c>
@@ -4328,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>111108</v>
       </c>
@@ -4366,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>111109</v>
       </c>
@@ -4404,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>111110</v>
       </c>
@@ -4442,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>111111</v>
       </c>
@@ -4480,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>111200</v>
       </c>
@@ -4518,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>111201</v>
       </c>
@@ -4556,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>111202</v>
       </c>
@@ -4594,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>111203</v>
       </c>
@@ -4632,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>111204</v>
       </c>
@@ -4670,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>111205</v>
       </c>
@@ -4708,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>111206</v>
       </c>
@@ -4746,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>111207</v>
       </c>
@@ -4784,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>111208</v>
       </c>
@@ -4822,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>111209</v>
       </c>
@@ -4860,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>111210</v>
       </c>
@@ -4898,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>111300</v>
       </c>
@@ -4936,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>111301</v>
       </c>
@@ -4974,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>111302</v>
       </c>
@@ -5012,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>111303</v>
       </c>
@@ -5050,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>111304</v>
       </c>
@@ -5088,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>111305</v>
       </c>
@@ -5126,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>111306</v>
       </c>
@@ -5164,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>111307</v>
       </c>
@@ -5202,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>111308</v>
       </c>
@@ -5240,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>111309</v>
       </c>
@@ -5278,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>111310</v>
       </c>
@@ -5316,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>112100</v>
       </c>
@@ -5354,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>112101</v>
       </c>
@@ -5392,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>112102</v>
       </c>
@@ -5430,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>112103</v>
       </c>
@@ -5468,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>112104</v>
       </c>
@@ -5506,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>112105</v>
       </c>
@@ -5544,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>112106</v>
       </c>
@@ -5582,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>112107</v>
       </c>
@@ -5620,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>112108</v>
       </c>
@@ -5658,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>112109</v>
       </c>
@@ -5696,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>112110</v>
       </c>
@@ -5734,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>112111</v>
       </c>
@@ -5772,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>112200</v>
       </c>
@@ -5810,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>112201</v>
       </c>
@@ -5848,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>112202</v>
       </c>
@@ -5886,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>112203</v>
       </c>
@@ -5924,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>112204</v>
       </c>
@@ -5962,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>112205</v>
       </c>
@@ -6000,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>112206</v>
       </c>
@@ -6038,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>112207</v>
       </c>
@@ -6076,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>112208</v>
       </c>
@@ -6114,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>112209</v>
       </c>
@@ -6152,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>112210</v>
       </c>
@@ -6190,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>112300</v>
       </c>
@@ -6228,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>112301</v>
       </c>
@@ -6266,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>112302</v>
       </c>
@@ -6304,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>112303</v>
       </c>
@@ -6342,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>112304</v>
       </c>
@@ -6380,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>112305</v>
       </c>
@@ -6418,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>112306</v>
       </c>
@@ -6456,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>112307</v>
       </c>
@@ -6494,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>112308</v>
       </c>
@@ -6532,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>112309</v>
       </c>
@@ -6570,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>112310</v>
       </c>
@@ -6608,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>113100</v>
       </c>
@@ -6646,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>113101</v>
       </c>
@@ -6684,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>113102</v>
       </c>
@@ -6722,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>113103</v>
       </c>
@@ -6760,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>113104</v>
       </c>
@@ -6798,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>113105</v>
       </c>
@@ -6836,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>113106</v>
       </c>
@@ -6874,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>113107</v>
       </c>
@@ -6912,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>113108</v>
       </c>
@@ -6950,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>113109</v>
       </c>
@@ -6988,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>113110</v>
       </c>
@@ -7026,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>113111</v>
       </c>
@@ -7064,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>113200</v>
       </c>
@@ -7102,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>113201</v>
       </c>
@@ -7140,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>113202</v>
       </c>
@@ -7178,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>113203</v>
       </c>
@@ -7216,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>113204</v>
       </c>
@@ -7254,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>113205</v>
       </c>
@@ -7292,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>113206</v>
       </c>
@@ -7330,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>113207</v>
       </c>
@@ -7368,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>113208</v>
       </c>
@@ -7406,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>113209</v>
       </c>
@@ -7444,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>113210</v>
       </c>
@@ -7482,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>113300</v>
       </c>
@@ -7520,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>113301</v>
       </c>
@@ -7558,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>113302</v>
       </c>
@@ -7596,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>113303</v>
       </c>
@@ -7634,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>113304</v>
       </c>
@@ -7672,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>113305</v>
       </c>
@@ -7710,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>113306</v>
       </c>
@@ -7748,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>113307</v>
       </c>
@@ -7786,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>113308</v>
       </c>
@@ -7824,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>113309</v>
       </c>
@@ -7862,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>113310</v>
       </c>
@@ -7900,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>121100</v>
       </c>
@@ -7938,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>121101</v>
       </c>
@@ -7976,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>121102</v>
       </c>
@@ -8014,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>121103</v>
       </c>
@@ -8052,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>121104</v>
       </c>
@@ -8090,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>121105</v>
       </c>
@@ -8128,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>121106</v>
       </c>
@@ -8166,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>121107</v>
       </c>
@@ -8204,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>121108</v>
       </c>
@@ -8242,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>121109</v>
       </c>
@@ -8280,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>121110</v>
       </c>
@@ -8318,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>121111</v>
       </c>
@@ -8356,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>121200</v>
       </c>
@@ -8394,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>121201</v>
       </c>
@@ -8432,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>121202</v>
       </c>
@@ -8470,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>121203</v>
       </c>
@@ -8508,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>121204</v>
       </c>
@@ -8546,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>121205</v>
       </c>
@@ -8584,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>121206</v>
       </c>
@@ -8622,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>121207</v>
       </c>
@@ -8660,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>121208</v>
       </c>
@@ -8698,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>121209</v>
       </c>
@@ -8736,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>121210</v>
       </c>
@@ -8774,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>121300</v>
       </c>
@@ -8812,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>121301</v>
       </c>
@@ -8850,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>121302</v>
       </c>
@@ -8888,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>121303</v>
       </c>
@@ -8926,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>121304</v>
       </c>
@@ -8964,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>121305</v>
       </c>
@@ -9002,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>121306</v>
       </c>
@@ -9040,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>121307</v>
       </c>
@@ -9078,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>121308</v>
       </c>
@@ -9116,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>121309</v>
       </c>
@@ -9154,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>121310</v>
       </c>
@@ -9192,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>122100</v>
       </c>
@@ -9230,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>122101</v>
       </c>
@@ -9268,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>122102</v>
       </c>
@@ -9306,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>122103</v>
       </c>
@@ -9344,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>122104</v>
       </c>
@@ -9382,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>122105</v>
       </c>
@@ -9420,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>122106</v>
       </c>
@@ -9458,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>122107</v>
       </c>
@@ -9496,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>122108</v>
       </c>
@@ -9534,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>122109</v>
       </c>
@@ -9572,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>122110</v>
       </c>
@@ -9610,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>122111</v>
       </c>
@@ -9648,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>122200</v>
       </c>
@@ -9686,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>122201</v>
       </c>
@@ -9724,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>122202</v>
       </c>
@@ -9762,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>122203</v>
       </c>
@@ -9800,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>122204</v>
       </c>
@@ -9838,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>122205</v>
       </c>
@@ -9876,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>122206</v>
       </c>
@@ -9914,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>122207</v>
       </c>
@@ -9952,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>122208</v>
       </c>
@@ -9990,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>122209</v>
       </c>
@@ -10028,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>122210</v>
       </c>
@@ -10066,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>122300</v>
       </c>
@@ -10104,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>122301</v>
       </c>
@@ -10142,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>122302</v>
       </c>
@@ -10180,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>122303</v>
       </c>
@@ -10218,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>122304</v>
       </c>
@@ -10256,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>122305</v>
       </c>
@@ -10294,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>122306</v>
       </c>
@@ -10332,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>122307</v>
       </c>
@@ -10370,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>122308</v>
       </c>
@@ -10408,7 +10401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>122309</v>
       </c>
@@ -10446,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>122310</v>
       </c>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4E3641-6216-4E4A-9461-E2938C0F6A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F4E7AD-DF6F-40BC-8BD7-F8571E46F23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -248,7 +248,7 @@
     폭탄 폭발 지연 시간 (초)</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="8" shapeId="0" xr:uid="{949E0B6C-6B14-40F5-AA31-F4D46B05D01F}">
+    <comment ref="O1" authorId="8" shapeId="0" xr:uid="{949E0B6C-6B14-40F5-AA31-F4D46B05D01F}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -256,7 +256,7 @@
     무기1 인덱스</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="9" shapeId="0" xr:uid="{A7A3BCFD-094C-4BEF-B48E-5D9597828627}">
+    <comment ref="P1" authorId="9" shapeId="0" xr:uid="{A7A3BCFD-094C-4BEF-B48E-5D9597828627}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -264,7 +264,7 @@
     무기1 스폰 개수</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="10" shapeId="0" xr:uid="{B9CF0AE0-1CB0-4ECE-AC8B-90DDBD1A19C8}">
+    <comment ref="Q1" authorId="10" shapeId="0" xr:uid="{B9CF0AE0-1CB0-4ECE-AC8B-90DDBD1A19C8}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -272,7 +272,7 @@
     무기1 스폰 시간 (초)</t>
       </text>
     </comment>
-    <comment ref="N1" authorId="11" shapeId="0" xr:uid="{AD41039A-52E1-409F-8CF9-E03370129B0D}">
+    <comment ref="R1" authorId="11" shapeId="0" xr:uid="{AD41039A-52E1-409F-8CF9-E03370129B0D}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -280,7 +280,7 @@
     무기2 인덱스</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="12" shapeId="0" xr:uid="{7F7F9A7E-7241-4417-9719-CC9889CBA455}">
+    <comment ref="S1" authorId="12" shapeId="0" xr:uid="{7F7F9A7E-7241-4417-9719-CC9889CBA455}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -288,7 +288,7 @@
     무기2 스폰 개수</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="13" shapeId="0" xr:uid="{DFEAD093-397E-49EB-9ECD-97658251A7E8}">
+    <comment ref="T1" authorId="13" shapeId="0" xr:uid="{DFEAD093-397E-49EB-9ECD-97658251A7E8}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="81">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,6 +801,22 @@
   </si>
   <si>
     <t>FITH_Team_Battle_6_Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb_Ready_Count1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb_Ready_Count2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb_Ready_Time1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb_Ready_Time2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1395,22 +1411,22 @@
   <threadedComment ref="J1" dT="2024-09-12T14:35:05.83" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{984B2A58-1DDA-43E8-940E-B8A31526AB63}">
     <text>폭탄 폭발 지연 시간 (초)</text>
   </threadedComment>
-  <threadedComment ref="K1" dT="2024-09-12T14:57:56.58" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{949E0B6C-6B14-40F5-AA31-F4D46B05D01F}">
+  <threadedComment ref="O1" dT="2024-09-12T14:57:56.58" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{949E0B6C-6B14-40F5-AA31-F4D46B05D01F}">
     <text>무기1 인덱스</text>
   </threadedComment>
-  <threadedComment ref="L1" dT="2024-09-12T14:57:56.58" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{A7A3BCFD-094C-4BEF-B48E-5D9597828627}">
+  <threadedComment ref="P1" dT="2024-09-12T14:57:56.58" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{A7A3BCFD-094C-4BEF-B48E-5D9597828627}">
     <text>무기1 스폰 개수</text>
   </threadedComment>
-  <threadedComment ref="M1" dT="2024-09-12T15:08:27.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{B9CF0AE0-1CB0-4ECE-AC8B-90DDBD1A19C8}">
+  <threadedComment ref="Q1" dT="2024-09-12T15:08:27.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{B9CF0AE0-1CB0-4ECE-AC8B-90DDBD1A19C8}">
     <text>무기1 스폰 시간 (초)</text>
   </threadedComment>
-  <threadedComment ref="N1" dT="2024-09-12T14:58:08.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{AD41039A-52E1-409F-8CF9-E03370129B0D}">
+  <threadedComment ref="R1" dT="2024-09-12T14:58:08.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{AD41039A-52E1-409F-8CF9-E03370129B0D}">
     <text>무기2 인덱스</text>
   </threadedComment>
-  <threadedComment ref="O1" dT="2024-09-12T14:58:08.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{7F7F9A7E-7241-4417-9719-CC9889CBA455}">
+  <threadedComment ref="S1" dT="2024-09-12T14:58:08.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{7F7F9A7E-7241-4417-9719-CC9889CBA455}">
     <text>무기2 스폰 개수</text>
   </threadedComment>
-  <threadedComment ref="P1" dT="2024-09-12T15:08:45.20" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{DFEAD093-397E-49EB-9ECD-97658251A7E8}">
+  <threadedComment ref="T1" dT="2024-09-12T15:08:45.20" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{DFEAD093-397E-49EB-9ECD-97658251A7E8}">
     <text>무기2 스폰 시간 (초)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1516,19 +1532,19 @@
       <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="9" width="24.375" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.58203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="9" width="24.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>66</v>
       </c>
@@ -1548,7 +1564,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>110</v>
       </c>
@@ -1568,7 +1584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>110</v>
       </c>
@@ -1588,7 +1604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>110</v>
       </c>
@@ -1608,7 +1624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>120</v>
       </c>
@@ -1628,7 +1644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>120</v>
       </c>
@@ -1648,7 +1664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>120</v>
       </c>
@@ -1684,19 +1700,19 @@
       <selection activeCell="A2" sqref="A2:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>111</v>
       </c>
@@ -1754,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>112</v>
       </c>
@@ -1783,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>121</v>
       </c>
@@ -1812,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>122</v>
       </c>
@@ -1850,45 +1866,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.08203125" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1920,46 +1940,58 @@
         <v>12</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>111</v>
       </c>
@@ -1991,46 +2023,58 @@
         <v>20</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
         <v>2001</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>30</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <v>2002</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
         <v>30</v>
       </c>
-      <c r="Q2">
+      <c r="U2">
         <v>3001</v>
       </c>
-      <c r="R2">
+      <c r="V2">
         <v>7</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <v>10</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>3002</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
         <v>10</v>
       </c>
-      <c r="V2">
+      <c r="Z2">
         <v>10</v>
       </c>
-      <c r="W2">
+      <c r="AA2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>112</v>
       </c>
@@ -2062,46 +2106,58 @@
         <v>20</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
         <v>2001</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>20</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <v>2002</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
         <v>25</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>3001</v>
       </c>
-      <c r="R3">
+      <c r="V3">
         <v>7</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>10</v>
       </c>
-      <c r="T3">
+      <c r="X3">
         <v>3002</v>
       </c>
-      <c r="U3">
+      <c r="Y3">
         <v>10</v>
       </c>
-      <c r="V3">
+      <c r="Z3">
         <v>10</v>
       </c>
-      <c r="W3">
+      <c r="AA3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>121</v>
       </c>
@@ -2133,46 +2189,58 @@
         <v>20</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
         <v>2001</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>20</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>2002</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
         <v>25</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>3001</v>
       </c>
-      <c r="R4">
+      <c r="V4">
         <v>7</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>10</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>3002</v>
       </c>
-      <c r="U4">
+      <c r="Y4">
         <v>10</v>
       </c>
-      <c r="V4">
+      <c r="Z4">
         <v>10</v>
       </c>
-      <c r="W4">
+      <c r="AA4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>122</v>
       </c>
@@ -2204,51 +2272,63 @@
         <v>20</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
         <v>2001</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>20</v>
       </c>
-      <c r="N5">
+      <c r="R5">
         <v>2002</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
         <v>25</v>
       </c>
-      <c r="Q5">
+      <c r="U5">
         <v>3001</v>
       </c>
-      <c r="R5">
+      <c r="V5">
         <v>7</v>
       </c>
-      <c r="S5">
+      <c r="W5">
         <v>10</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <v>3002</v>
       </c>
-      <c r="U5">
+      <c r="Y5">
         <v>10</v>
       </c>
-      <c r="V5">
+      <c r="Z5">
         <v>10</v>
       </c>
-      <c r="W5">
+      <c r="AA5">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
         <v>46</v>
       </c>
@@ -2268,18 +2348,18 @@
       <selection activeCell="A2" sqref="A2:G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="6.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2382,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>111101</v>
       </c>
@@ -2325,7 +2405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>111102</v>
       </c>
@@ -2348,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>111103</v>
       </c>
@@ -2371,7 +2451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>111201</v>
       </c>
@@ -2394,7 +2474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>111202</v>
       </c>
@@ -2417,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>111203</v>
       </c>
@@ -2440,7 +2520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>111301</v>
       </c>
@@ -2463,7 +2543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>111302</v>
       </c>
@@ -2486,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>111303</v>
       </c>
@@ -2509,7 +2589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>112101</v>
       </c>
@@ -2532,7 +2612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>112102</v>
       </c>
@@ -2555,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>112103</v>
       </c>
@@ -2578,7 +2658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>112201</v>
       </c>
@@ -2601,7 +2681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>112202</v>
       </c>
@@ -2624,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>112203</v>
       </c>
@@ -2647,7 +2727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>112301</v>
       </c>
@@ -2670,7 +2750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>112302</v>
       </c>
@@ -2693,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>112303</v>
       </c>
@@ -2716,7 +2796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>113101</v>
       </c>
@@ -2739,7 +2819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>113102</v>
       </c>
@@ -2762,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>113103</v>
       </c>
@@ -2785,7 +2865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>113201</v>
       </c>
@@ -2808,7 +2888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>113202</v>
       </c>
@@ -2831,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>113203</v>
       </c>
@@ -2854,7 +2934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>113301</v>
       </c>
@@ -2877,7 +2957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>113302</v>
       </c>
@@ -2900,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>113303</v>
       </c>
@@ -2923,7 +3003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>121101</v>
       </c>
@@ -2946,7 +3026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>121102</v>
       </c>
@@ -2969,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>121103</v>
       </c>
@@ -2992,7 +3072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>121201</v>
       </c>
@@ -3015,7 +3095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>121202</v>
       </c>
@@ -3038,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>121203</v>
       </c>
@@ -3061,7 +3141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>121301</v>
       </c>
@@ -3084,7 +3164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>121302</v>
       </c>
@@ -3107,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>121303</v>
       </c>
@@ -3130,7 +3210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>122101</v>
       </c>
@@ -3153,7 +3233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>122102</v>
       </c>
@@ -3176,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>122103</v>
       </c>
@@ -3199,7 +3279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>122201</v>
       </c>
@@ -3222,7 +3302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>122202</v>
       </c>
@@ -3245,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>122203</v>
       </c>
@@ -3268,7 +3348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>122301</v>
       </c>
@@ -3291,7 +3371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>122302</v>
       </c>
@@ -3314,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>122303</v>
       </c>
@@ -3337,39 +3417,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
     </row>
@@ -3388,16 +3468,16 @@
       <selection activeCell="A2" sqref="A2:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3429,7 +3509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>111001</v>
       </c>
@@ -3461,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>111002</v>
       </c>
@@ -3493,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>111003</v>
       </c>
@@ -3525,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>112001</v>
       </c>
@@ -3557,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>112002</v>
       </c>
@@ -3589,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>112003</v>
       </c>
@@ -3621,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>113001</v>
       </c>
@@ -3653,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>113002</v>
       </c>
@@ -3685,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>113003</v>
       </c>
@@ -3717,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>121001</v>
       </c>
@@ -3749,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>121002</v>
       </c>
@@ -3781,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>121003</v>
       </c>
@@ -3813,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>122001</v>
       </c>
@@ -3845,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>121002</v>
       </c>
@@ -3877,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>121003</v>
       </c>
@@ -3909,47 +3989,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
@@ -3969,17 +4049,17 @@
       <selection pane="bottomLeft" activeCell="N166" sqref="N166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4017,7 +4097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>111100</v>
       </c>
@@ -4055,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>111101</v>
       </c>
@@ -4093,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>111102</v>
       </c>
@@ -4131,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>111103</v>
       </c>
@@ -4169,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>111104</v>
       </c>
@@ -4207,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>111105</v>
       </c>
@@ -4245,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>111106</v>
       </c>
@@ -4283,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>111107</v>
       </c>
@@ -4321,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>111108</v>
       </c>
@@ -4359,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>111109</v>
       </c>
@@ -4397,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>111110</v>
       </c>
@@ -4435,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>111111</v>
       </c>
@@ -4473,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>111200</v>
       </c>
@@ -4511,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>111201</v>
       </c>
@@ -4549,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>111202</v>
       </c>
@@ -4587,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>111203</v>
       </c>
@@ -4625,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>111204</v>
       </c>
@@ -4663,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>111205</v>
       </c>
@@ -4701,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>111206</v>
       </c>
@@ -4739,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>111207</v>
       </c>
@@ -4777,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>111208</v>
       </c>
@@ -4815,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>111209</v>
       </c>
@@ -4853,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>111210</v>
       </c>
@@ -4891,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>111300</v>
       </c>
@@ -4929,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>111301</v>
       </c>
@@ -4967,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>111302</v>
       </c>
@@ -5005,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>111303</v>
       </c>
@@ -5043,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>111304</v>
       </c>
@@ -5081,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>111305</v>
       </c>
@@ -5119,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>111306</v>
       </c>
@@ -5157,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>111307</v>
       </c>
@@ -5195,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>111308</v>
       </c>
@@ -5233,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>111309</v>
       </c>
@@ -5271,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>111310</v>
       </c>
@@ -5309,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>112100</v>
       </c>
@@ -5347,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>112101</v>
       </c>
@@ -5385,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>112102</v>
       </c>
@@ -5423,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>112103</v>
       </c>
@@ -5461,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>112104</v>
       </c>
@@ -5499,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>112105</v>
       </c>
@@ -5537,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>112106</v>
       </c>
@@ -5575,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>112107</v>
       </c>
@@ -5613,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>112108</v>
       </c>
@@ -5651,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>112109</v>
       </c>
@@ -5689,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>112110</v>
       </c>
@@ -5727,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>112111</v>
       </c>
@@ -5765,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>112200</v>
       </c>
@@ -5803,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>112201</v>
       </c>
@@ -5841,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>112202</v>
       </c>
@@ -5879,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>112203</v>
       </c>
@@ -5917,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>112204</v>
       </c>
@@ -5955,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>112205</v>
       </c>
@@ -5993,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>112206</v>
       </c>
@@ -6031,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>112207</v>
       </c>
@@ -6069,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
         <v>112208</v>
       </c>
@@ -6107,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
         <v>112209</v>
       </c>
@@ -6145,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
         <v>112210</v>
       </c>
@@ -6183,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
         <v>112300</v>
       </c>
@@ -6221,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
         <v>112301</v>
       </c>
@@ -6259,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
         <v>112302</v>
       </c>
@@ -6297,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
         <v>112303</v>
       </c>
@@ -6335,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
         <v>112304</v>
       </c>
@@ -6373,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
         <v>112305</v>
       </c>
@@ -6411,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
         <v>112306</v>
       </c>
@@ -6449,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="6">
         <v>112307</v>
       </c>
@@ -6487,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
         <v>112308</v>
       </c>
@@ -6525,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
         <v>112309</v>
       </c>
@@ -6563,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
         <v>112310</v>
       </c>
@@ -6601,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
         <v>113100</v>
       </c>
@@ -6639,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
         <v>113101</v>
       </c>
@@ -6677,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
         <v>113102</v>
       </c>
@@ -6715,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
         <v>113103</v>
       </c>
@@ -6753,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
         <v>113104</v>
       </c>
@@ -6791,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="6">
         <v>113105</v>
       </c>
@@ -6829,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="6">
         <v>113106</v>
       </c>
@@ -6867,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="6">
         <v>113107</v>
       </c>
@@ -6905,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="6">
         <v>113108</v>
       </c>
@@ -6943,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="6">
         <v>113109</v>
       </c>
@@ -6981,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="6">
         <v>113110</v>
       </c>
@@ -7019,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="6">
         <v>113111</v>
       </c>
@@ -7057,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="6">
         <v>113200</v>
       </c>
@@ -7095,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="6">
         <v>113201</v>
       </c>
@@ -7133,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="6">
         <v>113202</v>
       </c>
@@ -7171,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="6">
         <v>113203</v>
       </c>
@@ -7209,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="6">
         <v>113204</v>
       </c>
@@ -7247,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="6">
         <v>113205</v>
       </c>
@@ -7285,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="6">
         <v>113206</v>
       </c>
@@ -7323,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="6">
         <v>113207</v>
       </c>
@@ -7361,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="6">
         <v>113208</v>
       </c>
@@ -7399,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="6">
         <v>113209</v>
       </c>
@@ -7437,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="6">
         <v>113210</v>
       </c>
@@ -7475,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="6">
         <v>113300</v>
       </c>
@@ -7513,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
         <v>113301</v>
       </c>
@@ -7551,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
         <v>113302</v>
       </c>
@@ -7589,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
         <v>113303</v>
       </c>
@@ -7627,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
         <v>113304</v>
       </c>
@@ -7665,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
         <v>113305</v>
       </c>
@@ -7703,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
         <v>113306</v>
       </c>
@@ -7741,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="6">
         <v>113307</v>
       </c>
@@ -7779,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="6">
         <v>113308</v>
       </c>
@@ -7817,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="6">
         <v>113309</v>
       </c>
@@ -7855,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="6">
         <v>113310</v>
       </c>
@@ -7893,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="6">
         <v>121100</v>
       </c>
@@ -7931,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="6">
         <v>121101</v>
       </c>
@@ -7969,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="6">
         <v>121102</v>
       </c>
@@ -8007,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
         <v>121103</v>
       </c>
@@ -8045,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="6">
         <v>121104</v>
       </c>
@@ -8083,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="6">
         <v>121105</v>
       </c>
@@ -8121,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="6">
         <v>121106</v>
       </c>
@@ -8159,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="6">
         <v>121107</v>
       </c>
@@ -8197,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="6">
         <v>121108</v>
       </c>
@@ -8235,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="6">
         <v>121109</v>
       </c>
@@ -8273,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="6">
         <v>121110</v>
       </c>
@@ -8311,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="6">
         <v>121111</v>
       </c>
@@ -8349,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="6">
         <v>121200</v>
       </c>
@@ -8387,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="6">
         <v>121201</v>
       </c>
@@ -8425,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="6">
         <v>121202</v>
       </c>
@@ -8463,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="6">
         <v>121203</v>
       </c>
@@ -8501,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="6">
         <v>121204</v>
       </c>
@@ -8539,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="6">
         <v>121205</v>
       </c>
@@ -8577,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="6">
         <v>121206</v>
       </c>
@@ -8615,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="6">
         <v>121207</v>
       </c>
@@ -8653,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="6">
         <v>121208</v>
       </c>
@@ -8691,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="6">
         <v>121209</v>
       </c>
@@ -8729,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="6">
         <v>121210</v>
       </c>
@@ -8767,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="6">
         <v>121300</v>
       </c>
@@ -8805,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="6">
         <v>121301</v>
       </c>
@@ -8843,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="6">
         <v>121302</v>
       </c>
@@ -8881,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="6">
         <v>121303</v>
       </c>
@@ -8919,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="6">
         <v>121304</v>
       </c>
@@ -8957,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="6">
         <v>121305</v>
       </c>
@@ -8995,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="6">
         <v>121306</v>
       </c>
@@ -9033,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="6">
         <v>121307</v>
       </c>
@@ -9071,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="6">
         <v>121308</v>
       </c>
@@ -9109,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="6">
         <v>121309</v>
       </c>
@@ -9147,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="6">
         <v>121310</v>
       </c>
@@ -9185,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="6">
         <v>122100</v>
       </c>
@@ -9223,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="6">
         <v>122101</v>
       </c>
@@ -9261,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="6">
         <v>122102</v>
       </c>
@@ -9299,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="6">
         <v>122103</v>
       </c>
@@ -9337,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="6">
         <v>122104</v>
       </c>
@@ -9375,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="6">
         <v>122105</v>
       </c>
@@ -9413,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="6">
         <v>122106</v>
       </c>
@@ -9451,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="6">
         <v>122107</v>
       </c>
@@ -9489,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="6">
         <v>122108</v>
       </c>
@@ -9527,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="6">
         <v>122109</v>
       </c>
@@ -9565,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="6">
         <v>122110</v>
       </c>
@@ -9603,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="6">
         <v>122111</v>
       </c>
@@ -9641,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="6">
         <v>122200</v>
       </c>
@@ -9679,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="6">
         <v>122201</v>
       </c>
@@ -9717,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="6">
         <v>122202</v>
       </c>
@@ -9755,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="6">
         <v>122203</v>
       </c>
@@ -9793,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="6">
         <v>122204</v>
       </c>
@@ -9831,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="6">
         <v>122205</v>
       </c>
@@ -9869,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="6">
         <v>122206</v>
       </c>
@@ -9907,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="6">
         <v>122207</v>
       </c>
@@ -9945,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="6">
         <v>122208</v>
       </c>
@@ -9983,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="6">
         <v>122209</v>
       </c>
@@ -10021,7 +10101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="6">
         <v>122210</v>
       </c>
@@ -10059,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="6">
         <v>122300</v>
       </c>
@@ -10097,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="6">
         <v>122301</v>
       </c>
@@ -10135,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="6">
         <v>122302</v>
       </c>
@@ -10173,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="6">
         <v>122303</v>
       </c>
@@ -10211,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="6">
         <v>122304</v>
       </c>
@@ -10249,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="6">
         <v>122305</v>
       </c>
@@ -10287,7 +10367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="6">
         <v>122306</v>
       </c>
@@ -10325,7 +10405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="6">
         <v>122307</v>
       </c>
@@ -10363,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="6">
         <v>122308</v>
       </c>
@@ -10401,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="6">
         <v>122309</v>
       </c>
@@ -10439,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="6">
         <v>122310</v>
       </c>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F4E7AD-DF6F-40BC-8BD7-F8571E46F23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0753B07C-4FA4-4765-88E2-ADF01BFBD2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -167,6 +167,8 @@
   <authors>
     <author>tc={7B20AA07-24DB-4418-AD3C-EB38273A9E53}</author>
     <author>tc={E2FE2F0E-FC03-439A-A7C1-ECEBA9B21F2D}</author>
+    <author>tc={02E53B71-1A2E-4118-BE57-A5E1299BD8E0}</author>
+    <author>tc={389AE681-215C-4FA5-A3EA-E992E587B7D0}</author>
     <author>tc={F917FFA1-36A9-4F6B-9951-0A981146E633}</author>
     <author>tc={685392DA-7BF7-4E49-96EF-DBFC67CBBB1D}</author>
     <author>tc={A65E3C15-D104-4378-B5A5-BF7B6FFEF9F9}</author>
@@ -181,7 +183,7 @@
     <author>tc={DFEAD093-397E-49EB-9ECD-97658251A7E8}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7B20AA07-24DB-4418-AD3C-EB38273A9E53}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{7B20AA07-24DB-4418-AD3C-EB38273A9E53}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -192,7 +194,7 @@
 20: 팀전</t>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{E2FE2F0E-FC03-439A-A7C1-ECEBA9B21F2D}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{E2FE2F0E-FC03-439A-A7C1-ECEBA9B21F2D}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -200,7 +202,27 @@
     모드 이름</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{F917FFA1-36A9-4F6B-9951-0A981146E633}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{02E53B71-1A2E-4118-BE57-A5E1299BD8E0}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    게임 모드 활성화 날짜
+Open_Date = 0  → 현재 서비스
+Open_Date = 202409130000→ 2024년 9월 13일 00시 00분 서비스 시작</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{389AE681-215C-4FA5-A3EA-E992E587B7D0}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    게임모드 비활성화 시간
+Close_Date= 0 -&gt; 비활성화 시간 없음
+Close_Date= 202409140000 -&gt; 2024년 9월 14일 00시 00분 게임모드 비활성화</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="4" shapeId="0" xr:uid="{F917FFA1-36A9-4F6B-9951-0A981146E633}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -208,7 +230,7 @@
     제한 시간 (초)</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{685392DA-7BF7-4E49-96EF-DBFC67CBBB1D}">
+    <comment ref="H1" authorId="5" shapeId="0" xr:uid="{685392DA-7BF7-4E49-96EF-DBFC67CBBB1D}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -216,7 +238,7 @@
     플레이어 스폰 시간 (초)</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="4" shapeId="0" xr:uid="{A65E3C15-D104-4378-B5A5-BF7B6FFEF9F9}">
+    <comment ref="I1" authorId="6" shapeId="0" xr:uid="{A65E3C15-D104-4378-B5A5-BF7B6FFEF9F9}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -224,7 +246,7 @@
     목숨 개수</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="5" shapeId="0" xr:uid="{8285CCB3-CB58-4294-A5BF-5FB09F89024A}">
+    <comment ref="K1" authorId="7" shapeId="0" xr:uid="{8285CCB3-CB58-4294-A5BF-5FB09F89024A}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -232,7 +254,7 @@
     폭탄 스폰 개수</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="6" shapeId="0" xr:uid="{5B10262B-3C33-49E8-BC4C-128AD00C801E}">
+    <comment ref="L1" authorId="8" shapeId="0" xr:uid="{5B10262B-3C33-49E8-BC4C-128AD00C801E}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -240,7 +262,7 @@
     폭탄 스폰 시간 (초)</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="7" shapeId="0" xr:uid="{984B2A58-1DDA-43E8-940E-B8A31526AB63}">
+    <comment ref="M1" authorId="9" shapeId="0" xr:uid="{984B2A58-1DDA-43E8-940E-B8A31526AB63}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -248,7 +270,7 @@
     폭탄 폭발 지연 시간 (초)</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="8" shapeId="0" xr:uid="{949E0B6C-6B14-40F5-AA31-F4D46B05D01F}">
+    <comment ref="R1" authorId="10" shapeId="0" xr:uid="{949E0B6C-6B14-40F5-AA31-F4D46B05D01F}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -256,7 +278,7 @@
     무기1 인덱스</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="9" shapeId="0" xr:uid="{A7A3BCFD-094C-4BEF-B48E-5D9597828627}">
+    <comment ref="S1" authorId="11" shapeId="0" xr:uid="{A7A3BCFD-094C-4BEF-B48E-5D9597828627}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -264,7 +286,7 @@
     무기1 스폰 개수</t>
       </text>
     </comment>
-    <comment ref="Q1" authorId="10" shapeId="0" xr:uid="{B9CF0AE0-1CB0-4ECE-AC8B-90DDBD1A19C8}">
+    <comment ref="T1" authorId="12" shapeId="0" xr:uid="{B9CF0AE0-1CB0-4ECE-AC8B-90DDBD1A19C8}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -272,7 +294,7 @@
     무기1 스폰 시간 (초)</t>
       </text>
     </comment>
-    <comment ref="R1" authorId="11" shapeId="0" xr:uid="{AD41039A-52E1-409F-8CF9-E03370129B0D}">
+    <comment ref="U1" authorId="13" shapeId="0" xr:uid="{AD41039A-52E1-409F-8CF9-E03370129B0D}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -280,7 +302,7 @@
     무기2 인덱스</t>
       </text>
     </comment>
-    <comment ref="S1" authorId="12" shapeId="0" xr:uid="{7F7F9A7E-7241-4417-9719-CC9889CBA455}">
+    <comment ref="V1" authorId="14" shapeId="0" xr:uid="{7F7F9A7E-7241-4417-9719-CC9889CBA455}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -288,7 +310,7 @@
     무기2 스폰 개수</t>
       </text>
     </comment>
-    <comment ref="T1" authorId="13" shapeId="0" xr:uid="{DFEAD093-397E-49EB-9ECD-97658251A7E8}">
+    <comment ref="W1" authorId="15" shapeId="0" xr:uid="{DFEAD093-397E-49EB-9ECD-97658251A7E8}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -494,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="82">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -817,6 +839,10 @@
   </si>
   <si>
     <t>Bomb_Ready_Time2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1384,49 +1410,59 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-09-12T14:08:08.25" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{7B20AA07-24DB-4418-AD3C-EB38273A9E53}">
+  <threadedComment ref="B1" dT="2024-09-12T14:08:08.25" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{7B20AA07-24DB-4418-AD3C-EB38273A9E53}">
     <text>100: 1번 모드
 200: 2번 모드
 10: 개인전
 20: 팀전</text>
   </threadedComment>
-  <threadedComment ref="B1" dT="2024-09-12T14:12:24.35" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{E2FE2F0E-FC03-439A-A7C1-ECEBA9B21F2D}">
+  <threadedComment ref="C1" dT="2024-09-12T14:12:24.35" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{E2FE2F0E-FC03-439A-A7C1-ECEBA9B21F2D}">
     <text>모드 이름</text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2024-09-12T14:13:27.38" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{F917FFA1-36A9-4F6B-9951-0A981146E633}">
+  <threadedComment ref="E1" dT="2024-09-13T06:11:58.63" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{02E53B71-1A2E-4118-BE57-A5E1299BD8E0}">
+    <text>게임 모드 활성화 날짜
+Open_Date = 0  → 현재 서비스
+Open_Date = 202409130000→ 2024년 9월 13일 00시 00분 서비스 시작</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2024-09-13T06:18:29.33" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{389AE681-215C-4FA5-A3EA-E992E587B7D0}">
+    <text>게임모드 비활성화 시간
+Close_Date= 0 -&gt; 비활성화 시간 없음
+Close_Date= 202409140000 -&gt; 2024년 9월 14일 00시 00분 게임모드 비활성화</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2024-09-12T14:13:27.38" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{F917FFA1-36A9-4F6B-9951-0A981146E633}">
     <text>제한 시간 (초)</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2024-09-12T14:27:46.52" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{685392DA-7BF7-4E49-96EF-DBFC67CBBB1D}">
+  <threadedComment ref="H1" dT="2024-09-12T14:27:46.52" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{685392DA-7BF7-4E49-96EF-DBFC67CBBB1D}">
     <text>플레이어 스폰 시간 (초)</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2024-09-12T15:22:54.00" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{A65E3C15-D104-4378-B5A5-BF7B6FFEF9F9}">
+  <threadedComment ref="I1" dT="2024-09-12T15:22:54.00" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{A65E3C15-D104-4378-B5A5-BF7B6FFEF9F9}">
     <text>목숨 개수</text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2024-09-12T14:34:28.71" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{8285CCB3-CB58-4294-A5BF-5FB09F89024A}">
+  <threadedComment ref="K1" dT="2024-09-12T14:34:28.71" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{8285CCB3-CB58-4294-A5BF-5FB09F89024A}">
     <text>폭탄 스폰 개수</text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2024-09-12T14:34:47.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{5B10262B-3C33-49E8-BC4C-128AD00C801E}">
+  <threadedComment ref="L1" dT="2024-09-12T14:34:47.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{5B10262B-3C33-49E8-BC4C-128AD00C801E}">
     <text>폭탄 스폰 시간 (초)</text>
   </threadedComment>
-  <threadedComment ref="J1" dT="2024-09-12T14:35:05.83" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{984B2A58-1DDA-43E8-940E-B8A31526AB63}">
+  <threadedComment ref="M1" dT="2024-09-12T14:35:05.83" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{984B2A58-1DDA-43E8-940E-B8A31526AB63}">
     <text>폭탄 폭발 지연 시간 (초)</text>
   </threadedComment>
-  <threadedComment ref="O1" dT="2024-09-12T14:57:56.58" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{949E0B6C-6B14-40F5-AA31-F4D46B05D01F}">
+  <threadedComment ref="R1" dT="2024-09-12T14:57:56.58" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{949E0B6C-6B14-40F5-AA31-F4D46B05D01F}">
     <text>무기1 인덱스</text>
   </threadedComment>
-  <threadedComment ref="P1" dT="2024-09-12T14:57:56.58" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{A7A3BCFD-094C-4BEF-B48E-5D9597828627}">
+  <threadedComment ref="S1" dT="2024-09-12T14:57:56.58" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{A7A3BCFD-094C-4BEF-B48E-5D9597828627}">
     <text>무기1 스폰 개수</text>
   </threadedComment>
-  <threadedComment ref="Q1" dT="2024-09-12T15:08:27.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{B9CF0AE0-1CB0-4ECE-AC8B-90DDBD1A19C8}">
+  <threadedComment ref="T1" dT="2024-09-12T15:08:27.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{B9CF0AE0-1CB0-4ECE-AC8B-90DDBD1A19C8}">
     <text>무기1 스폰 시간 (초)</text>
   </threadedComment>
-  <threadedComment ref="R1" dT="2024-09-12T14:58:08.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{AD41039A-52E1-409F-8CF9-E03370129B0D}">
+  <threadedComment ref="U1" dT="2024-09-12T14:58:08.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{AD41039A-52E1-409F-8CF9-E03370129B0D}">
     <text>무기2 인덱스</text>
   </threadedComment>
-  <threadedComment ref="S1" dT="2024-09-12T14:58:08.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{7F7F9A7E-7241-4417-9719-CC9889CBA455}">
+  <threadedComment ref="V1" dT="2024-09-12T14:58:08.28" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{7F7F9A7E-7241-4417-9719-CC9889CBA455}">
     <text>무기2 스폰 개수</text>
   </threadedComment>
-  <threadedComment ref="T1" dT="2024-09-12T15:08:45.20" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{DFEAD093-397E-49EB-9ECD-97658251A7E8}">
+  <threadedComment ref="W1" dT="2024-09-12T15:08:45.20" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{DFEAD093-397E-49EB-9ECD-97658251A7E8}">
     <text>무기2 스폰 시간 (초)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1529,7 +1565,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1697,12 +1733,12 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -1714,7 +1750,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1866,158 +1902,169 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.08203125" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.83203125" customWidth="1"/>
-    <col min="14" max="14" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.08203125" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.83203125" customWidth="1"/>
+    <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.08203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.08203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.08203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22.75" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23.08203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
+        <v>11101</v>
+      </c>
+      <c r="B2" s="2">
         <v>111</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>180</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
       <c r="I2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>20</v>
@@ -2029,22 +2076,22 @@
         <v>15</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
         <v>5</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>2001</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>30</v>
-      </c>
-      <c r="R2">
-        <v>2002</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -2053,54 +2100,63 @@
         <v>30</v>
       </c>
       <c r="U2">
+        <v>2002</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>30</v>
+      </c>
+      <c r="X2">
         <v>3001</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <v>7</v>
-      </c>
-      <c r="W2">
-        <v>10</v>
-      </c>
-      <c r="X2">
-        <v>3002</v>
-      </c>
-      <c r="Y2">
-        <v>10</v>
       </c>
       <c r="Z2">
         <v>10</v>
       </c>
       <c r="AA2">
+        <v>3002</v>
+      </c>
+      <c r="AB2">
+        <v>10</v>
+      </c>
+      <c r="AC2">
+        <v>10</v>
+      </c>
+      <c r="AD2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>112</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
+        <v>11102</v>
+      </c>
+      <c r="B3" s="2">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>180</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
       <c r="I3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>20</v>
@@ -2112,78 +2168,87 @@
         <v>15</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
         <v>5</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>2001</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>20</v>
-      </c>
-      <c r="R3">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>30</v>
+      </c>
+      <c r="U3">
         <v>2002</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>25</v>
-      </c>
-      <c r="U3">
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>30</v>
+      </c>
+      <c r="X3">
         <v>3001</v>
       </c>
-      <c r="V3">
+      <c r="Y3">
         <v>7</v>
-      </c>
-      <c r="W3">
-        <v>10</v>
-      </c>
-      <c r="X3">
-        <v>3002</v>
-      </c>
-      <c r="Y3">
-        <v>10</v>
       </c>
       <c r="Z3">
         <v>10</v>
       </c>
       <c r="AA3">
+        <v>3002</v>
+      </c>
+      <c r="AB3">
+        <v>10</v>
+      </c>
+      <c r="AC3">
+        <v>10</v>
+      </c>
+      <c r="AD3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <v>121</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
+        <v>11103</v>
+      </c>
+      <c r="B4" s="2">
+        <v>111</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>180</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
       <c r="I4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>20</v>
@@ -2195,141 +2260,530 @@
         <v>15</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>2001</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>20</v>
-      </c>
-      <c r="R4">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>30</v>
+      </c>
+      <c r="U4">
         <v>2002</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>25</v>
-      </c>
-      <c r="U4">
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>30</v>
+      </c>
+      <c r="X4">
         <v>3001</v>
       </c>
-      <c r="V4">
+      <c r="Y4">
         <v>7</v>
-      </c>
-      <c r="W4">
-        <v>10</v>
-      </c>
-      <c r="X4">
-        <v>3002</v>
-      </c>
-      <c r="Y4">
-        <v>10</v>
       </c>
       <c r="Z4">
         <v>10</v>
       </c>
       <c r="AA4">
+        <v>3002</v>
+      </c>
+      <c r="AB4">
+        <v>10</v>
+      </c>
+      <c r="AC4">
+        <v>10</v>
+      </c>
+      <c r="AD4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>122</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>11201</v>
+      </c>
+      <c r="B5" s="2">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>180</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>180</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
       <c r="I5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>15</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>2001</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
         <v>20</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>2002</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
         <v>25</v>
       </c>
-      <c r="U5">
+      <c r="X5">
         <v>3001</v>
       </c>
-      <c r="V5">
+      <c r="Y5">
         <v>7</v>
-      </c>
-      <c r="W5">
-        <v>10</v>
-      </c>
-      <c r="X5">
-        <v>3002</v>
-      </c>
-      <c r="Y5">
-        <v>10</v>
       </c>
       <c r="Z5">
         <v>10</v>
       </c>
       <c r="AA5">
+        <v>3002</v>
+      </c>
+      <c r="AB5">
+        <v>10</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="F12" t="s">
+    <row r="6" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>12101</v>
+      </c>
+      <c r="B6" s="2">
+        <v>121</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>180</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>2001</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>20</v>
+      </c>
+      <c r="U6">
+        <v>2002</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>25</v>
+      </c>
+      <c r="X6">
+        <v>3001</v>
+      </c>
+      <c r="Y6">
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
+        <v>3002</v>
+      </c>
+      <c r="AB6">
+        <v>10</v>
+      </c>
+      <c r="AC6">
+        <v>10</v>
+      </c>
+      <c r="AD6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>12102</v>
+      </c>
+      <c r="B7" s="2">
+        <v>121</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>180</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>15</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>2001</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>20</v>
+      </c>
+      <c r="U7">
+        <v>2002</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>25</v>
+      </c>
+      <c r="X7">
+        <v>3001</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
+        <v>3002</v>
+      </c>
+      <c r="AB7">
+        <v>10</v>
+      </c>
+      <c r="AC7">
+        <v>10</v>
+      </c>
+      <c r="AD7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>12201</v>
+      </c>
+      <c r="B8" s="2">
+        <v>122</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>180</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>15</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>2001</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>20</v>
+      </c>
+      <c r="U8">
+        <v>2002</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>25</v>
+      </c>
+      <c r="X8">
+        <v>3001</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
+        <v>3002</v>
+      </c>
+      <c r="AB8">
+        <v>10</v>
+      </c>
+      <c r="AC8">
+        <v>10</v>
+      </c>
+      <c r="AD8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>12202</v>
+      </c>
+      <c r="B9" s="2">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>180</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>15</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>2001</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>20</v>
+      </c>
+      <c r="U9">
+        <v>2002</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>25</v>
+      </c>
+      <c r="X9">
+        <v>3001</v>
+      </c>
+      <c r="Y9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AA9">
+        <v>3002</v>
+      </c>
+      <c r="AB9">
+        <v>10</v>
+      </c>
+      <c r="AC9">
+        <v>10</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="I15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I22" t="s">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2344,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB955C-74DD-4B61-BCC6-9955AD17436D}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G46"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3465,7 +3919,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4045,7 +4499,7 @@
   <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N166" sqref="N166"/>
     </sheetView>
   </sheetViews>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0753B07C-4FA4-4765-88E2-ADF01BFBD2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D730145-55D7-43AE-8610-4044A557A548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -1905,7 +1905,8 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2097,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="T2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="U2">
         <v>2002</v>
@@ -2106,31 +2107,31 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="X2">
         <v>3001</v>
       </c>
       <c r="Y2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA2">
         <v>3002</v>
       </c>
       <c r="AB2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>11102</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="U3">
         <v>2002</v>
@@ -2198,31 +2199,31 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="X3">
         <v>3001</v>
       </c>
       <c r="Y3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA3">
         <v>3002</v>
       </c>
       <c r="AB3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>11103</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="U4">
         <v>2002</v>
@@ -2290,31 +2291,31 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="X4">
         <v>3001</v>
       </c>
       <c r="Y4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA4">
         <v>3002</v>
       </c>
       <c r="AB4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>11201</v>
       </c>
@@ -2382,13 +2383,13 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X5">
         <v>3001</v>
       </c>
       <c r="Y5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z5">
         <v>10</v>
@@ -2397,16 +2398,16 @@
         <v>3002</v>
       </c>
       <c r="AB5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>12101</v>
       </c>
@@ -2480,7 +2481,7 @@
         <v>3001</v>
       </c>
       <c r="Y6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>10</v>
@@ -2489,16 +2490,16 @@
         <v>3002</v>
       </c>
       <c r="AB6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>12102</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>3001</v>
       </c>
       <c r="Y7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z7">
         <v>10</v>
@@ -2581,16 +2582,16 @@
         <v>3002</v>
       </c>
       <c r="AB7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>12201</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>3001</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z8">
         <v>10</v>
@@ -2673,16 +2674,16 @@
         <v>3002</v>
       </c>
       <c r="AB8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>12202</v>
       </c>
@@ -2756,7 +2757,7 @@
         <v>3001</v>
       </c>
       <c r="Y9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z9">
         <v>10</v>
@@ -2765,19 +2766,16 @@
         <v>3002</v>
       </c>
       <c r="AB9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD9">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
         <v>46</v>
       </c>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D730145-55D7-43AE-8610-4044A557A548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7470E4A0-4891-4037-BFF8-E1AD4A214ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="81">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,10 +839,6 @@
   </si>
   <si>
     <t>Bomb_Ready_Time2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1904,9 +1900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB11" sqref="AB11"/>
+      <selection pane="topRight" activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1949,7 +1945,7 @@
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>35</v>
@@ -2796,7 +2792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB955C-74DD-4B61-BCC6-9955AD17436D}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7470E4A0-4891-4037-BFF8-E1AD4A214ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38326E42-AD29-4D02-B8DD-2791D6056180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="4170" yWindow="1635" windowWidth="17520" windowHeight="13110" tabRatio="490" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Mode_Point" sheetId="7" r:id="rId4"/>
     <sheet name="Mode_Reward" sheetId="4" r:id="rId5"/>
     <sheet name="Mode_BonusReward" sheetId="6" r:id="rId6"/>
+    <sheet name="Tip" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -515,8 +516,31 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0BA95505-EDF6-4AA1-8DCB-779387567FD5}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0BA95505-EDF6-4AA1-8DCB-779387567FD5}">
+      <text>
+        <t xml:space="preserve">[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    1= 공통
+2= only FITH Mode
+3= only Individ
+4= only Team
+5= only 3Way
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="102">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -841,12 +865,177 @@
     <t>Bomb_Ready_Time2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Map_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대를 잡을 수 없다면 무기를 들어 내려치세요!</t>
+  </si>
+  <si>
+    <t>고양이는 매우 강력한 생물입니다. 냥냥</t>
+  </si>
+  <si>
+    <t>아군의 기지에 폭탄을 넣더라도 아무 일도 일어나지 않습니다.</t>
+  </si>
+  <si>
+    <t>갑자기 머리 위에서 블록이 떨어지더라도 당황하지 마세요.</t>
+  </si>
+  <si>
+    <t>매너가 고양이를 만듭니다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3파전 구도에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중요한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>덕목은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눈치입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방심은 패배로 가는 지름길입니다. 고양이는 언제나 경계하고 있어야 해요.</t>
+  </si>
+  <si>
+    <t>상대 진영에 폭탄을 넣을 때는 속도가 생명입니다. 느린 고양이는 생선을 놓칩니다.</t>
+  </si>
+  <si>
+    <t>고양이의 기본 규칙: 자신 외엔 누구도 믿지 마라.</t>
+  </si>
+  <si>
+    <t>다른 고양이의 실수를 노리는 건 고양이 세계에서는 당연한 일입니다.</t>
+  </si>
+  <si>
+    <t>첫 번째 목표는 생존, 두 번째 목표는 상대를 냥냥하게 만드는 것.</t>
+  </si>
+  <si>
+    <t>팀원은 가장 든든한 존재입니다. 하지만 조심하세요. 고양이는 가끔 이기적일 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군을 도울 수 없다면 적어도 방해하지는 말아야죠.</t>
+  </si>
+  <si>
+    <t>상대의 속도를 늦추기 위한 방해 공작이 승리의 열쇠입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 팀이 싸우고 있을 때 한 팀은 항상 뒤에서 웃고 있습니다. 그게 당신이어야 합니다.</t>
+  </si>
+  <si>
+    <t>길목은 점점 복잡해집니다. 하지만 고양이는 공간을 탐험하는 데 타고난 존재죠.</t>
+  </si>
+  <si>
+    <t>준비한 고양이가 생선을 잡는다. 발톱 손질은 필수입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 팀이 압도적으로 우세하다면 나머지 두 팀이 협력해야 합니다. 그렇지 않으면 차례대로 당할 뿐입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,6 +1076,25 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -932,7 +1140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,6 +1164,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,6 +1242,7 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="seong jae Han" id="{CC3691F5-0E90-424A-9CA6-BAFF6ACAADB7}" userId="358af7de6e657511" providerId="Windows Live"/>
   <person displayName="경천 강" id="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" userId="9a4f2fb646cdd437" providerId="Windows Live"/>
+  <person displayName="창민 이" id="{0245714F-8125-4FC6-B930-BC540A66E2AA}" userId="fda0e400ac064334" providerId="Windows Live"/>
   <person displayName="임해인(2017184028)" id="{9C8E97D2-8029-43C4-A842-3E22C3E33CE3}" userId="S::haein0303@tukorea.ac.kr::fd3d04e6-a7c1-4b9a-a4d6-aaee638a4a8a" providerId="AD"/>
 </personList>
 </file>
@@ -1556,27 +1768,40 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2024-11-28T06:03:49.58" personId="{0245714F-8125-4FC6-B930-BC540A66E2AA}" id="{0BA95505-EDF6-4AA1-8DCB-779387567FD5}">
+    <text xml:space="preserve">1= 공통
+2= only FITH Mode
+3= only Individ
+4= only Team
+5= only 3Way
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E80AA-5002-403D-BE2E-63B1902A2B22}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.58203125" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="9" width="24.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="9" width="24.375" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>66</v>
       </c>
@@ -1596,7 +1821,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>110</v>
       </c>
@@ -1616,7 +1841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>110</v>
       </c>
@@ -1636,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>110</v>
       </c>
@@ -1656,7 +1881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>120</v>
       </c>
@@ -1676,7 +1901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>120</v>
       </c>
@@ -1696,7 +1921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>120</v>
       </c>
@@ -1728,23 +1953,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD5ABAE-FD82-4B74-89AC-131D68719B9B}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1773,7 +1998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>111</v>
       </c>
@@ -1802,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>112</v>
       </c>
@@ -1831,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>121</v>
       </c>
@@ -1860,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>122</v>
       </c>
@@ -1900,52 +2125,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y24" sqref="Y24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.08203125" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.83203125" customWidth="1"/>
-    <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.08203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.125" customWidth="1"/>
+    <col min="15" max="15" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.875" customWidth="1"/>
+    <col min="17" max="17" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.08203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.08203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11.75" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>35</v>
@@ -2035,7 +2259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>11101</v>
       </c>
@@ -2094,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="T2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="U2">
         <v>2002</v>
@@ -2103,31 +2327,31 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="X2">
         <v>3001</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA2">
         <v>3002</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AC2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>11102</v>
       </c>
@@ -2186,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="U3">
         <v>2002</v>
@@ -2195,31 +2419,31 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="X3">
         <v>3001</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA3">
         <v>3002</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AC3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>11103</v>
       </c>
@@ -2278,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="U4">
         <v>2002</v>
@@ -2287,31 +2511,31 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="X4">
         <v>3001</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA4">
         <v>3002</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AC4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>11201</v>
       </c>
@@ -2379,13 +2603,13 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X5">
         <v>3001</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z5">
         <v>10</v>
@@ -2394,16 +2618,16 @@
         <v>3002</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AC5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>12101</v>
       </c>
@@ -2477,7 +2701,7 @@
         <v>3001</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z6">
         <v>10</v>
@@ -2486,16 +2710,16 @@
         <v>3002</v>
       </c>
       <c r="AB6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>12102</v>
       </c>
@@ -2569,7 +2793,7 @@
         <v>3001</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z7">
         <v>10</v>
@@ -2578,16 +2802,16 @@
         <v>3002</v>
       </c>
       <c r="AB7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>12201</v>
       </c>
@@ -2661,7 +2885,7 @@
         <v>3001</v>
       </c>
       <c r="Y8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z8">
         <v>10</v>
@@ -2670,16 +2894,16 @@
         <v>3002</v>
       </c>
       <c r="AB8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12202</v>
       </c>
@@ -2753,7 +2977,7 @@
         <v>3001</v>
       </c>
       <c r="Y9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z9">
         <v>10</v>
@@ -2762,21 +2986,21 @@
         <v>3002</v>
       </c>
       <c r="AB9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD9">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L25" t="s">
         <v>46</v>
       </c>
@@ -2792,22 +3016,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB955C-74DD-4B61-BCC6-9955AD17436D}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.58203125" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2830,7 +3054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>111101</v>
       </c>
@@ -2853,7 +3077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>111102</v>
       </c>
@@ -2876,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>111103</v>
       </c>
@@ -2899,7 +3123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>111201</v>
       </c>
@@ -2922,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>111202</v>
       </c>
@@ -2945,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>111203</v>
       </c>
@@ -2968,7 +3192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>111301</v>
       </c>
@@ -2991,7 +3215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>111302</v>
       </c>
@@ -3014,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>111303</v>
       </c>
@@ -3037,7 +3261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>112101</v>
       </c>
@@ -3060,7 +3284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>112102</v>
       </c>
@@ -3083,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>112103</v>
       </c>
@@ -3106,7 +3330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>112201</v>
       </c>
@@ -3129,7 +3353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>112202</v>
       </c>
@@ -3152,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>112203</v>
       </c>
@@ -3175,7 +3399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>112301</v>
       </c>
@@ -3198,7 +3422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>112302</v>
       </c>
@@ -3221,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>112303</v>
       </c>
@@ -3244,7 +3468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>113101</v>
       </c>
@@ -3267,7 +3491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>113102</v>
       </c>
@@ -3290,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>113103</v>
       </c>
@@ -3313,7 +3537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>113201</v>
       </c>
@@ -3336,7 +3560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>113202</v>
       </c>
@@ -3359,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>113203</v>
       </c>
@@ -3382,7 +3606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>113301</v>
       </c>
@@ -3405,7 +3629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>113302</v>
       </c>
@@ -3428,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>113303</v>
       </c>
@@ -3451,7 +3675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>121101</v>
       </c>
@@ -3474,7 +3698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>121102</v>
       </c>
@@ -3497,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>121103</v>
       </c>
@@ -3520,7 +3744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>121201</v>
       </c>
@@ -3543,7 +3767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>121202</v>
       </c>
@@ -3566,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>121203</v>
       </c>
@@ -3589,7 +3813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>121301</v>
       </c>
@@ -3612,7 +3836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>121302</v>
       </c>
@@ -3635,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>121303</v>
       </c>
@@ -3658,7 +3882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>122101</v>
       </c>
@@ -3681,7 +3905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>122102</v>
       </c>
@@ -3704,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>122103</v>
       </c>
@@ -3727,7 +3951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>122201</v>
       </c>
@@ -3750,7 +3974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>122202</v>
       </c>
@@ -3773,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>122203</v>
       </c>
@@ -3796,7 +4020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>122301</v>
       </c>
@@ -3819,7 +4043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>122302</v>
       </c>
@@ -3842,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>122303</v>
       </c>
@@ -3865,39 +4089,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
     </row>
@@ -3916,16 +4140,16 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3957,7 +4181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>111001</v>
       </c>
@@ -3989,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>111002</v>
       </c>
@@ -4021,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>111003</v>
       </c>
@@ -4053,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>112001</v>
       </c>
@@ -4085,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>112002</v>
       </c>
@@ -4117,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>112003</v>
       </c>
@@ -4149,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>113001</v>
       </c>
@@ -4181,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>113002</v>
       </c>
@@ -4213,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>113003</v>
       </c>
@@ -4245,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>121001</v>
       </c>
@@ -4277,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>121002</v>
       </c>
@@ -4309,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>121003</v>
       </c>
@@ -4341,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>122001</v>
       </c>
@@ -4373,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>121002</v>
       </c>
@@ -4405,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>121003</v>
       </c>
@@ -4437,47 +4661,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
@@ -4497,17 +4721,17 @@
       <selection pane="bottomLeft" activeCell="N166" sqref="N166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4545,7 +4769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>111100</v>
       </c>
@@ -4583,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>111101</v>
       </c>
@@ -4621,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>111102</v>
       </c>
@@ -4659,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>111103</v>
       </c>
@@ -4697,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>111104</v>
       </c>
@@ -4735,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>111105</v>
       </c>
@@ -4773,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>111106</v>
       </c>
@@ -4811,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>111107</v>
       </c>
@@ -4849,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>111108</v>
       </c>
@@ -4887,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>111109</v>
       </c>
@@ -4925,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>111110</v>
       </c>
@@ -4963,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>111111</v>
       </c>
@@ -5001,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>111200</v>
       </c>
@@ -5039,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>111201</v>
       </c>
@@ -5077,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>111202</v>
       </c>
@@ -5115,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>111203</v>
       </c>
@@ -5153,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>111204</v>
       </c>
@@ -5191,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>111205</v>
       </c>
@@ -5229,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>111206</v>
       </c>
@@ -5267,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>111207</v>
       </c>
@@ -5305,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>111208</v>
       </c>
@@ -5343,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>111209</v>
       </c>
@@ -5381,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>111210</v>
       </c>
@@ -5419,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>111300</v>
       </c>
@@ -5457,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>111301</v>
       </c>
@@ -5495,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>111302</v>
       </c>
@@ -5533,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>111303</v>
       </c>
@@ -5571,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>111304</v>
       </c>
@@ -5609,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>111305</v>
       </c>
@@ -5647,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>111306</v>
       </c>
@@ -5685,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>111307</v>
       </c>
@@ -5723,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>111308</v>
       </c>
@@ -5761,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>111309</v>
       </c>
@@ -5799,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>111310</v>
       </c>
@@ -5837,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>112100</v>
       </c>
@@ -5875,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>112101</v>
       </c>
@@ -5913,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>112102</v>
       </c>
@@ -5951,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>112103</v>
       </c>
@@ -5989,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>112104</v>
       </c>
@@ -6027,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>112105</v>
       </c>
@@ -6065,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>112106</v>
       </c>
@@ -6103,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>112107</v>
       </c>
@@ -6141,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>112108</v>
       </c>
@@ -6179,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>112109</v>
       </c>
@@ -6217,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>112110</v>
       </c>
@@ -6255,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>112111</v>
       </c>
@@ -6293,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>112200</v>
       </c>
@@ -6331,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>112201</v>
       </c>
@@ -6369,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>112202</v>
       </c>
@@ -6407,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>112203</v>
       </c>
@@ -6445,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>112204</v>
       </c>
@@ -6483,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>112205</v>
       </c>
@@ -6521,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>112206</v>
       </c>
@@ -6559,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>112207</v>
       </c>
@@ -6597,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>112208</v>
       </c>
@@ -6635,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>112209</v>
       </c>
@@ -6673,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>112210</v>
       </c>
@@ -6711,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>112300</v>
       </c>
@@ -6749,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>112301</v>
       </c>
@@ -6787,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>112302</v>
       </c>
@@ -6825,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>112303</v>
       </c>
@@ -6863,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>112304</v>
       </c>
@@ -6901,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>112305</v>
       </c>
@@ -6939,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>112306</v>
       </c>
@@ -6977,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>112307</v>
       </c>
@@ -7015,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>112308</v>
       </c>
@@ -7053,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>112309</v>
       </c>
@@ -7091,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>112310</v>
       </c>
@@ -7129,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>113100</v>
       </c>
@@ -7167,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>113101</v>
       </c>
@@ -7205,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>113102</v>
       </c>
@@ -7243,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>113103</v>
       </c>
@@ -7281,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>113104</v>
       </c>
@@ -7319,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>113105</v>
       </c>
@@ -7357,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>113106</v>
       </c>
@@ -7395,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>113107</v>
       </c>
@@ -7433,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>113108</v>
       </c>
@@ -7471,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>113109</v>
       </c>
@@ -7509,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>113110</v>
       </c>
@@ -7547,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>113111</v>
       </c>
@@ -7585,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>113200</v>
       </c>
@@ -7623,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>113201</v>
       </c>
@@ -7661,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>113202</v>
       </c>
@@ -7699,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>113203</v>
       </c>
@@ -7737,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>113204</v>
       </c>
@@ -7775,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>113205</v>
       </c>
@@ -7813,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>113206</v>
       </c>
@@ -7851,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>113207</v>
       </c>
@@ -7889,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>113208</v>
       </c>
@@ -7927,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>113209</v>
       </c>
@@ -7965,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>113210</v>
       </c>
@@ -8003,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>113300</v>
       </c>
@@ -8041,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>113301</v>
       </c>
@@ -8079,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>113302</v>
       </c>
@@ -8117,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>113303</v>
       </c>
@@ -8155,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>113304</v>
       </c>
@@ -8193,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>113305</v>
       </c>
@@ -8231,7 +8455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>113306</v>
       </c>
@@ -8269,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>113307</v>
       </c>
@@ -8307,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>113308</v>
       </c>
@@ -8345,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>113309</v>
       </c>
@@ -8383,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>113310</v>
       </c>
@@ -8421,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>121100</v>
       </c>
@@ -8459,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>121101</v>
       </c>
@@ -8497,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>121102</v>
       </c>
@@ -8535,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>121103</v>
       </c>
@@ -8573,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>121104</v>
       </c>
@@ -8611,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>121105</v>
       </c>
@@ -8649,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>121106</v>
       </c>
@@ -8687,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>121107</v>
       </c>
@@ -8725,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>121108</v>
       </c>
@@ -8763,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>121109</v>
       </c>
@@ -8801,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>121110</v>
       </c>
@@ -8839,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>121111</v>
       </c>
@@ -8877,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>121200</v>
       </c>
@@ -8915,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>121201</v>
       </c>
@@ -8953,7 +9177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>121202</v>
       </c>
@@ -8991,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>121203</v>
       </c>
@@ -9029,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>121204</v>
       </c>
@@ -9067,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>121205</v>
       </c>
@@ -9105,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>121206</v>
       </c>
@@ -9143,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>121207</v>
       </c>
@@ -9181,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>121208</v>
       </c>
@@ -9219,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>121209</v>
       </c>
@@ -9257,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>121210</v>
       </c>
@@ -9295,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>121300</v>
       </c>
@@ -9333,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>121301</v>
       </c>
@@ -9371,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>121302</v>
       </c>
@@ -9409,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>121303</v>
       </c>
@@ -9447,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>121304</v>
       </c>
@@ -9485,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>121305</v>
       </c>
@@ -9523,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>121306</v>
       </c>
@@ -9561,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>121307</v>
       </c>
@@ -9599,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>121308</v>
       </c>
@@ -9637,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>121309</v>
       </c>
@@ -9675,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>121310</v>
       </c>
@@ -9713,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>122100</v>
       </c>
@@ -9751,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>122101</v>
       </c>
@@ -9789,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>122102</v>
       </c>
@@ -9827,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>122103</v>
       </c>
@@ -9865,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>122104</v>
       </c>
@@ -9903,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>122105</v>
       </c>
@@ -9941,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>122106</v>
       </c>
@@ -9979,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>122107</v>
       </c>
@@ -10017,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>122108</v>
       </c>
@@ -10055,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>122109</v>
       </c>
@@ -10093,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>122110</v>
       </c>
@@ -10131,7 +10355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>122111</v>
       </c>
@@ -10169,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>122200</v>
       </c>
@@ -10207,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>122201</v>
       </c>
@@ -10245,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>122202</v>
       </c>
@@ -10283,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>122203</v>
       </c>
@@ -10321,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>122204</v>
       </c>
@@ -10359,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>122205</v>
       </c>
@@ -10397,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>122206</v>
       </c>
@@ -10435,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>122207</v>
       </c>
@@ -10473,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>122208</v>
       </c>
@@ -10511,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>122209</v>
       </c>
@@ -10549,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>122210</v>
       </c>
@@ -10587,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>122300</v>
       </c>
@@ -10625,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>122301</v>
       </c>
@@ -10663,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>122302</v>
       </c>
@@ -10701,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>122303</v>
       </c>
@@ -10739,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>122304</v>
       </c>
@@ -10777,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>122305</v>
       </c>
@@ -10815,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>122306</v>
       </c>
@@ -10853,7 +11077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>122307</v>
       </c>
@@ -10891,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>122308</v>
       </c>
@@ -10929,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>122309</v>
       </c>
@@ -10967,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>122310</v>
       </c>
@@ -11003,6 +11227,235 @@
       </c>
       <c r="L171">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D5D8E1-D9C7-4D44-B9FF-78CC7CACDB25}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="97.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7101</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>7102</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7103</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7104</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7201</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7202</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7203</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7204</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7205</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7301</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7302</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7303</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7401</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7402</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7403</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7501</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7502</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7503</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38326E42-AD29-4D02-B8DD-2791D6056180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A2D36C-AB7B-42E1-BCEF-890C2413584B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1635" windowWidth="17520" windowHeight="13110" tabRatio="490" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-26910" yWindow="2805" windowWidth="22680" windowHeight="11295" tabRatio="490" firstSheet="2" activeTab="6" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,12 +1081,6 @@
       <sz val="11"/>
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1785,7 +1779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E80AA-5002-403D-BE2E-63B1902A2B22}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1953,9 +1947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD5ABAE-FD82-4B74-89AC-131D68719B9B}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2125,9 +2117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E11:E12"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11240,8 +11230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D5D8E1-D9C7-4D44-B9FF-78CC7CACDB25}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A2D36C-AB7B-42E1-BCEF-890C2413584B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7FB3B4-DAA2-4338-9454-C25E02B83050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26910" yWindow="2805" windowWidth="22680" windowHeight="11295" tabRatio="490" firstSheet="2" activeTab="6" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -1783,19 +1783,19 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="9" width="24.375" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.58203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="9" width="24.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>66</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>110</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>110</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>110</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>120</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>120</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>120</v>
       </c>
@@ -1949,19 +1949,19 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>111</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>112</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>121</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>122</v>
       </c>
@@ -2117,47 +2117,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.125" customWidth="1"/>
-    <col min="15" max="15" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.875" customWidth="1"/>
-    <col min="17" max="17" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.08203125" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.83203125" customWidth="1"/>
+    <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.08203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.08203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11.75" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>81</v>
       </c>
@@ -2249,7 +2251,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>11101</v>
       </c>
@@ -2317,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="X2">
         <v>3001</v>
@@ -2341,7 +2343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>11102</v>
       </c>
@@ -2409,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="X3">
         <v>3001</v>
@@ -2433,7 +2435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>11103</v>
       </c>
@@ -2501,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="X4">
         <v>3001</v>
@@ -2525,7 +2527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>11201</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="T5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U5">
         <v>2002</v>
@@ -2593,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="X5">
         <v>3001</v>
@@ -2617,7 +2619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>12101</v>
       </c>
@@ -2676,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U6">
         <v>2002</v>
@@ -2685,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="X6">
         <v>3001</v>
@@ -2709,7 +2711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>12102</v>
       </c>
@@ -2768,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="T7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U7">
         <v>2002</v>
@@ -2777,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="X7">
         <v>3001</v>
@@ -2801,7 +2803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>12201</v>
       </c>
@@ -2860,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="T8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U8">
         <v>2002</v>
@@ -2869,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="X8">
         <v>3001</v>
@@ -2893,7 +2895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>12202</v>
       </c>
@@ -2952,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="T9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U9">
         <v>2002</v>
@@ -2961,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="X9">
         <v>3001</v>
@@ -2985,12 +2987,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L25" t="s">
         <v>46</v>
       </c>
@@ -3010,18 +3012,18 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="6.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3044,7 +3046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>111101</v>
       </c>
@@ -3067,7 +3069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>111102</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>111103</v>
       </c>
@@ -3113,7 +3115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>111201</v>
       </c>
@@ -3136,7 +3138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>111202</v>
       </c>
@@ -3159,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>111203</v>
       </c>
@@ -3182,7 +3184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>111301</v>
       </c>
@@ -3205,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>111302</v>
       </c>
@@ -3228,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>111303</v>
       </c>
@@ -3251,7 +3253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>112101</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>112102</v>
       </c>
@@ -3297,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>112103</v>
       </c>
@@ -3320,7 +3322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>112201</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>112202</v>
       </c>
@@ -3366,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>112203</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>112301</v>
       </c>
@@ -3412,7 +3414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>112302</v>
       </c>
@@ -3435,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>112303</v>
       </c>
@@ -3458,7 +3460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>113101</v>
       </c>
@@ -3481,7 +3483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>113102</v>
       </c>
@@ -3504,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>113103</v>
       </c>
@@ -3527,7 +3529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>113201</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>113202</v>
       </c>
@@ -3573,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>113203</v>
       </c>
@@ -3596,7 +3598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>113301</v>
       </c>
@@ -3619,7 +3621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>113302</v>
       </c>
@@ -3642,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>113303</v>
       </c>
@@ -3665,7 +3667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>121101</v>
       </c>
@@ -3688,7 +3690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>121102</v>
       </c>
@@ -3711,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>121103</v>
       </c>
@@ -3734,7 +3736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>121201</v>
       </c>
@@ -3757,7 +3759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>121202</v>
       </c>
@@ -3780,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>121203</v>
       </c>
@@ -3803,7 +3805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>121301</v>
       </c>
@@ -3826,7 +3828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>121302</v>
       </c>
@@ -3849,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>121303</v>
       </c>
@@ -3872,7 +3874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>122101</v>
       </c>
@@ -3895,7 +3897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>122102</v>
       </c>
@@ -3918,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>122103</v>
       </c>
@@ -3941,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>122201</v>
       </c>
@@ -3964,7 +3966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>122202</v>
       </c>
@@ -3987,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>122203</v>
       </c>
@@ -4010,7 +4012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>122301</v>
       </c>
@@ -4033,7 +4035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>122302</v>
       </c>
@@ -4056,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>122303</v>
       </c>
@@ -4079,39 +4081,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
     </row>
@@ -4130,16 +4132,16 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4171,7 +4173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>111001</v>
       </c>
@@ -4203,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>111002</v>
       </c>
@@ -4235,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>111003</v>
       </c>
@@ -4267,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>112001</v>
       </c>
@@ -4299,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>112002</v>
       </c>
@@ -4331,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>112003</v>
       </c>
@@ -4363,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>113001</v>
       </c>
@@ -4395,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>113002</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>113003</v>
       </c>
@@ -4459,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>121001</v>
       </c>
@@ -4491,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>121002</v>
       </c>
@@ -4523,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>121003</v>
       </c>
@@ -4555,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>122001</v>
       </c>
@@ -4587,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>121002</v>
       </c>
@@ -4619,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>121003</v>
       </c>
@@ -4651,47 +4653,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
@@ -4711,17 +4713,17 @@
       <selection pane="bottomLeft" activeCell="N166" sqref="N166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4759,7 +4761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>111100</v>
       </c>
@@ -4797,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>111101</v>
       </c>
@@ -4835,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>111102</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>111103</v>
       </c>
@@ -4911,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>111104</v>
       </c>
@@ -4949,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>111105</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>111106</v>
       </c>
@@ -5025,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>111107</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>111108</v>
       </c>
@@ -5101,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>111109</v>
       </c>
@@ -5139,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>111110</v>
       </c>
@@ -5177,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>111111</v>
       </c>
@@ -5215,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>111200</v>
       </c>
@@ -5253,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>111201</v>
       </c>
@@ -5291,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>111202</v>
       </c>
@@ -5329,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>111203</v>
       </c>
@@ -5367,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>111204</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>111205</v>
       </c>
@@ -5443,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>111206</v>
       </c>
@@ -5481,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>111207</v>
       </c>
@@ -5519,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>111208</v>
       </c>
@@ -5557,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>111209</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>111210</v>
       </c>
@@ -5633,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>111300</v>
       </c>
@@ -5671,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>111301</v>
       </c>
@@ -5709,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>111302</v>
       </c>
@@ -5747,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>111303</v>
       </c>
@@ -5785,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>111304</v>
       </c>
@@ -5823,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>111305</v>
       </c>
@@ -5861,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>111306</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>111307</v>
       </c>
@@ -5937,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>111308</v>
       </c>
@@ -5975,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>111309</v>
       </c>
@@ -6013,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>111310</v>
       </c>
@@ -6051,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>112100</v>
       </c>
@@ -6089,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>112101</v>
       </c>
@@ -6127,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>112102</v>
       </c>
@@ -6165,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>112103</v>
       </c>
@@ -6203,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>112104</v>
       </c>
@@ -6241,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>112105</v>
       </c>
@@ -6279,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>112106</v>
       </c>
@@ -6317,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>112107</v>
       </c>
@@ -6355,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>112108</v>
       </c>
@@ -6393,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>112109</v>
       </c>
@@ -6431,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>112110</v>
       </c>
@@ -6469,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>112111</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>112200</v>
       </c>
@@ -6545,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>112201</v>
       </c>
@@ -6583,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>112202</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>112203</v>
       </c>
@@ -6659,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>112204</v>
       </c>
@@ -6697,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>112205</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>112206</v>
       </c>
@@ -6773,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>112207</v>
       </c>
@@ -6811,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
         <v>112208</v>
       </c>
@@ -6849,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
         <v>112209</v>
       </c>
@@ -6887,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
         <v>112210</v>
       </c>
@@ -6925,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
         <v>112300</v>
       </c>
@@ -6963,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
         <v>112301</v>
       </c>
@@ -7001,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
         <v>112302</v>
       </c>
@@ -7039,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
         <v>112303</v>
       </c>
@@ -7077,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
         <v>112304</v>
       </c>
@@ -7115,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
         <v>112305</v>
       </c>
@@ -7153,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
         <v>112306</v>
       </c>
@@ -7191,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="6">
         <v>112307</v>
       </c>
@@ -7229,7 +7231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
         <v>112308</v>
       </c>
@@ -7267,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
         <v>112309</v>
       </c>
@@ -7305,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
         <v>112310</v>
       </c>
@@ -7343,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
         <v>113100</v>
       </c>
@@ -7381,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
         <v>113101</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
         <v>113102</v>
       </c>
@@ -7457,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
         <v>113103</v>
       </c>
@@ -7495,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
         <v>113104</v>
       </c>
@@ -7533,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="6">
         <v>113105</v>
       </c>
@@ -7571,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="6">
         <v>113106</v>
       </c>
@@ -7609,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="6">
         <v>113107</v>
       </c>
@@ -7647,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="6">
         <v>113108</v>
       </c>
@@ -7685,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="6">
         <v>113109</v>
       </c>
@@ -7723,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="6">
         <v>113110</v>
       </c>
@@ -7761,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="6">
         <v>113111</v>
       </c>
@@ -7799,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="6">
         <v>113200</v>
       </c>
@@ -7837,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="6">
         <v>113201</v>
       </c>
@@ -7875,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="6">
         <v>113202</v>
       </c>
@@ -7913,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="6">
         <v>113203</v>
       </c>
@@ -7951,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="6">
         <v>113204</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="6">
         <v>113205</v>
       </c>
@@ -8027,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="6">
         <v>113206</v>
       </c>
@@ -8065,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="6">
         <v>113207</v>
       </c>
@@ -8103,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="6">
         <v>113208</v>
       </c>
@@ -8141,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="6">
         <v>113209</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="6">
         <v>113210</v>
       </c>
@@ -8217,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="6">
         <v>113300</v>
       </c>
@@ -8255,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
         <v>113301</v>
       </c>
@@ -8293,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
         <v>113302</v>
       </c>
@@ -8331,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
         <v>113303</v>
       </c>
@@ -8369,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
         <v>113304</v>
       </c>
@@ -8407,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
         <v>113305</v>
       </c>
@@ -8445,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
         <v>113306</v>
       </c>
@@ -8483,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="6">
         <v>113307</v>
       </c>
@@ -8521,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="6">
         <v>113308</v>
       </c>
@@ -8559,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="6">
         <v>113309</v>
       </c>
@@ -8597,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="6">
         <v>113310</v>
       </c>
@@ -8635,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="6">
         <v>121100</v>
       </c>
@@ -8673,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="6">
         <v>121101</v>
       </c>
@@ -8711,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="6">
         <v>121102</v>
       </c>
@@ -8749,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
         <v>121103</v>
       </c>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="6">
         <v>121104</v>
       </c>
@@ -8825,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="6">
         <v>121105</v>
       </c>
@@ -8863,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="6">
         <v>121106</v>
       </c>
@@ -8901,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="6">
         <v>121107</v>
       </c>
@@ -8939,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="6">
         <v>121108</v>
       </c>
@@ -8977,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="6">
         <v>121109</v>
       </c>
@@ -9015,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="6">
         <v>121110</v>
       </c>
@@ -9053,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="6">
         <v>121111</v>
       </c>
@@ -9091,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="6">
         <v>121200</v>
       </c>
@@ -9129,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="6">
         <v>121201</v>
       </c>
@@ -9167,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="6">
         <v>121202</v>
       </c>
@@ -9205,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="6">
         <v>121203</v>
       </c>
@@ -9243,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="6">
         <v>121204</v>
       </c>
@@ -9281,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="6">
         <v>121205</v>
       </c>
@@ -9319,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="6">
         <v>121206</v>
       </c>
@@ -9357,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="6">
         <v>121207</v>
       </c>
@@ -9395,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="6">
         <v>121208</v>
       </c>
@@ -9433,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="6">
         <v>121209</v>
       </c>
@@ -9471,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="6">
         <v>121210</v>
       </c>
@@ -9509,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="6">
         <v>121300</v>
       </c>
@@ -9547,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="6">
         <v>121301</v>
       </c>
@@ -9585,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="6">
         <v>121302</v>
       </c>
@@ -9623,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="6">
         <v>121303</v>
       </c>
@@ -9661,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="6">
         <v>121304</v>
       </c>
@@ -9699,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="6">
         <v>121305</v>
       </c>
@@ -9737,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="6">
         <v>121306</v>
       </c>
@@ -9775,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="6">
         <v>121307</v>
       </c>
@@ -9813,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="6">
         <v>121308</v>
       </c>
@@ -9851,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="6">
         <v>121309</v>
       </c>
@@ -9889,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="6">
         <v>121310</v>
       </c>
@@ -9927,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="6">
         <v>122100</v>
       </c>
@@ -9965,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="6">
         <v>122101</v>
       </c>
@@ -10003,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="6">
         <v>122102</v>
       </c>
@@ -10041,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="6">
         <v>122103</v>
       </c>
@@ -10079,7 +10081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="6">
         <v>122104</v>
       </c>
@@ -10117,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="6">
         <v>122105</v>
       </c>
@@ -10155,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="6">
         <v>122106</v>
       </c>
@@ -10193,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="6">
         <v>122107</v>
       </c>
@@ -10231,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="6">
         <v>122108</v>
       </c>
@@ -10269,7 +10271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="6">
         <v>122109</v>
       </c>
@@ -10307,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="6">
         <v>122110</v>
       </c>
@@ -10345,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="6">
         <v>122111</v>
       </c>
@@ -10383,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="6">
         <v>122200</v>
       </c>
@@ -10421,7 +10423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="6">
         <v>122201</v>
       </c>
@@ -10459,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="6">
         <v>122202</v>
       </c>
@@ -10497,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="6">
         <v>122203</v>
       </c>
@@ -10535,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="6">
         <v>122204</v>
       </c>
@@ -10573,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="6">
         <v>122205</v>
       </c>
@@ -10611,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="6">
         <v>122206</v>
       </c>
@@ -10649,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="6">
         <v>122207</v>
       </c>
@@ -10687,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="6">
         <v>122208</v>
       </c>
@@ -10725,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="6">
         <v>122209</v>
       </c>
@@ -10763,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="6">
         <v>122210</v>
       </c>
@@ -10801,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="6">
         <v>122300</v>
       </c>
@@ -10839,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="6">
         <v>122301</v>
       </c>
@@ -10877,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="6">
         <v>122302</v>
       </c>
@@ -10915,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="6">
         <v>122303</v>
       </c>
@@ -10953,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="6">
         <v>122304</v>
       </c>
@@ -10991,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="6">
         <v>122305</v>
       </c>
@@ -11029,7 +11031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="6">
         <v>122306</v>
       </c>
@@ -11067,7 +11069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="6">
         <v>122307</v>
       </c>
@@ -11105,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="6">
         <v>122308</v>
       </c>
@@ -11143,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="6">
         <v>122309</v>
       </c>
@@ -11181,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="6">
         <v>122310</v>
       </c>
@@ -11230,16 +11232,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D5D8E1-D9C7-4D44-B9FF-78CC7CACDB25}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="97.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -11250,7 +11252,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>7101</v>
       </c>
@@ -11261,7 +11263,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>7102</v>
       </c>
@@ -11272,7 +11274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>7103</v>
       </c>
@@ -11283,7 +11285,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>7104</v>
       </c>
@@ -11294,7 +11296,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>7201</v>
       </c>
@@ -11305,7 +11307,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7202</v>
       </c>
@@ -11316,7 +11318,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7203</v>
       </c>
@@ -11327,7 +11329,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7204</v>
       </c>
@@ -11338,7 +11340,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7205</v>
       </c>
@@ -11349,7 +11351,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>7301</v>
       </c>
@@ -11360,7 +11362,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>7302</v>
       </c>
@@ -11371,7 +11373,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>7303</v>
       </c>
@@ -11382,7 +11384,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>7401</v>
       </c>
@@ -11393,7 +11395,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>7402</v>
       </c>
@@ -11404,7 +11406,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>7403</v>
       </c>
@@ -11415,7 +11417,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>7501</v>
       </c>
@@ -11426,7 +11428,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>7502</v>
       </c>
@@ -11437,7 +11439,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>7503</v>
       </c>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7FB3B4-DAA2-4338-9454-C25E02B83050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EFA1F5-29D2-412F-A1BB-5355D6EBC91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2117,8 +2117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2325,19 +2326,19 @@
         <v>3001</v>
       </c>
       <c r="Y2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AA2">
         <v>3002</v>
       </c>
       <c r="AB2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AD2">
         <v>7</v>
@@ -2417,7 +2418,7 @@
         <v>3001</v>
       </c>
       <c r="Y3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z3">
         <v>10</v>
@@ -2426,7 +2427,7 @@
         <v>3002</v>
       </c>
       <c r="AB3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC3">
         <v>10</v>
@@ -2509,7 +2510,7 @@
         <v>3001</v>
       </c>
       <c r="Y4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z4">
         <v>10</v>
@@ -2518,7 +2519,7 @@
         <v>3002</v>
       </c>
       <c r="AB4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC4">
         <v>10</v>
@@ -2601,7 +2602,7 @@
         <v>3001</v>
       </c>
       <c r="Y5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z5">
         <v>10</v>
@@ -2610,7 +2611,7 @@
         <v>3002</v>
       </c>
       <c r="AB5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC5">
         <v>10</v>
@@ -2693,7 +2694,7 @@
         <v>3001</v>
       </c>
       <c r="Y6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>10</v>
@@ -2702,7 +2703,7 @@
         <v>3002</v>
       </c>
       <c r="AB6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC6">
         <v>10</v>
@@ -2785,7 +2786,7 @@
         <v>3001</v>
       </c>
       <c r="Y7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z7">
         <v>10</v>
@@ -2794,7 +2795,7 @@
         <v>3002</v>
       </c>
       <c r="AB7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC7">
         <v>10</v>
@@ -2877,7 +2878,7 @@
         <v>3001</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z8">
         <v>10</v>
@@ -2886,7 +2887,7 @@
         <v>3002</v>
       </c>
       <c r="AB8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC8">
         <v>10</v>
@@ -2969,7 +2970,7 @@
         <v>3001</v>
       </c>
       <c r="Y9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z9">
         <v>10</v>
@@ -2978,7 +2979,7 @@
         <v>3002</v>
       </c>
       <c r="AB9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AC9">
         <v>10</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EFA1F5-29D2-412F-A1BB-5355D6EBC91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4311816-EF07-454E-9347-0E7B5F3EB8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -182,6 +182,8 @@
     <author>tc={AD41039A-52E1-409F-8CF9-E03370129B0D}</author>
     <author>tc={7F7F9A7E-7241-4417-9719-CC9889CBA455}</author>
     <author>tc={DFEAD093-397E-49EB-9ECD-97658251A7E8}</author>
+    <author>tc={9EB770EE-8BFC-43F6-A786-B56AA82AD677}</author>
+    <author>tc={CB685D87-27CB-443B-BD1E-24B8E7FBB88C}</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{7B20AA07-24DB-4418-AD3C-EB38273A9E53}">
@@ -317,6 +319,22 @@
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     무기2 스폰 시간 (초)</t>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="16" shapeId="0" xr:uid="{9EB770EE-8BFC-43F6-A786-B56AA82AD677}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    일반블록</t>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="17" shapeId="0" xr:uid="{CB685D87-27CB-443B-BD1E-24B8E7FBB88C}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    반 블록</t>
       </text>
     </comment>
   </commentList>
@@ -1035,7 +1053,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,6 +1107,12 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1667,6 +1691,12 @@
   <threadedComment ref="W1" dT="2024-09-12T15:08:45.20" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{DFEAD093-397E-49EB-9ECD-97658251A7E8}">
     <text>무기2 스폰 시간 (초)</text>
   </threadedComment>
+  <threadedComment ref="X1" dT="2024-12-16T09:22:45.56" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{9EB770EE-8BFC-43F6-A786-B56AA82AD677}">
+    <text>일반블록</text>
+  </threadedComment>
+  <threadedComment ref="AA1" dT="2024-12-16T09:22:58.10" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{CB685D87-27CB-443B-BD1E-24B8E7FBB88C}">
+    <text>반 블록</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2119,7 +2149,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z29" sqref="Z29"/>
+      <selection pane="topRight" activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2329,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA2">
         <v>3002</v>
@@ -2338,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD2">
         <v>7</v>
@@ -2418,7 +2448,7 @@
         <v>3001</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z3">
         <v>10</v>
@@ -2510,7 +2540,7 @@
         <v>3001</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z4">
         <v>10</v>
@@ -2602,7 +2632,7 @@
         <v>3001</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>10</v>
@@ -2694,7 +2724,7 @@
         <v>3001</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z6">
         <v>10</v>
@@ -2786,7 +2816,7 @@
         <v>3001</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z7">
         <v>10</v>
@@ -2878,7 +2908,7 @@
         <v>3001</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z8">
         <v>10</v>
@@ -2970,7 +3000,7 @@
         <v>3001</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z9">
         <v>10</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4311816-EF07-454E-9347-0E7B5F3EB8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ADB193-850C-48B0-AD22-0F19E695CC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -1053,7 +1053,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,12 +1107,6 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2149,7 +2143,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB21" sqref="AB21"/>
+      <selection pane="topRight" activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2448,7 +2442,7 @@
         <v>3001</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z3">
         <v>10</v>
@@ -2457,7 +2451,7 @@
         <v>3002</v>
       </c>
       <c r="AB3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC3">
         <v>10</v>
@@ -2540,7 +2534,7 @@
         <v>3001</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z4">
         <v>10</v>
@@ -2549,7 +2543,7 @@
         <v>3002</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC4">
         <v>10</v>
@@ -2632,7 +2626,7 @@
         <v>3001</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z5">
         <v>10</v>
@@ -2641,7 +2635,7 @@
         <v>3002</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC5">
         <v>10</v>
@@ -2724,7 +2718,7 @@
         <v>3001</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>10</v>
@@ -2733,7 +2727,7 @@
         <v>3002</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC6">
         <v>10</v>
@@ -2816,7 +2810,7 @@
         <v>3001</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z7">
         <v>10</v>
@@ -2825,7 +2819,7 @@
         <v>3002</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC7">
         <v>10</v>
@@ -2908,7 +2902,7 @@
         <v>3001</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z8">
         <v>10</v>
@@ -2917,7 +2911,7 @@
         <v>3002</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC8">
         <v>10</v>
@@ -3000,7 +2994,7 @@
         <v>3001</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z9">
         <v>10</v>
@@ -3009,7 +3003,7 @@
         <v>3002</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC9">
         <v>10</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ADB193-850C-48B0-AD22-0F19E695CC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0599CD2B-EC20-4CE2-8F16-3DF60096916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2142,8 +2142,8 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA15" sqref="AA15"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2584,7 +2584,7 @@
         <v>20</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>15</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0599CD2B-EC20-4CE2-8F16-3DF60096916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF81B03-C60F-48F6-A274-00B3963EC84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2142,8 +2142,8 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M20" sqref="M20"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2676,7 +2676,7 @@
         <v>20</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>15</v>
@@ -2768,7 +2768,7 @@
         <v>20</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>15</v>
@@ -2860,7 +2860,7 @@
         <v>20</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>15</v>
@@ -2952,7 +2952,7 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>15</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF81B03-C60F-48F6-A274-00B3963EC84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD2B43-178D-45A4-A57A-6CBFE24A6037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2142,8 +2142,8 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P24" sqref="P24"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2534,7 +2534,7 @@
         <v>3001</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>10</v>
@@ -2543,7 +2543,7 @@
         <v>3002</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC4">
         <v>10</v>
@@ -2626,7 +2626,7 @@
         <v>3001</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z5">
         <v>10</v>
@@ -2635,7 +2635,7 @@
         <v>3002</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC5">
         <v>10</v>
@@ -2718,7 +2718,7 @@
         <v>3001</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z6">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         <v>3002</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC6">
         <v>10</v>
@@ -2810,7 +2810,7 @@
         <v>3001</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z7">
         <v>10</v>
@@ -2819,7 +2819,7 @@
         <v>3002</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC7">
         <v>10</v>
@@ -2902,7 +2902,7 @@
         <v>3001</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z8">
         <v>10</v>
@@ -2911,7 +2911,7 @@
         <v>3002</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC8">
         <v>10</v>
@@ -2994,7 +2994,7 @@
         <v>3001</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z9">
         <v>10</v>
@@ -3003,7 +3003,7 @@
         <v>3002</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC9">
         <v>10</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD2B43-178D-45A4-A57A-6CBFE24A6037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EF43B7-2E5B-4335-9B75-DF5744C4DFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -2143,7 +2143,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z26" sqref="Z26"/>
+      <selection pane="topRight" activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2994,19 +2994,19 @@
         <v>3001</v>
       </c>
       <c r="Y9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
         <v>5</v>
-      </c>
-      <c r="Z9">
-        <v>10</v>
       </c>
       <c r="AA9">
         <v>3002</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD9">
         <v>7</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EF43B7-2E5B-4335-9B75-DF5744C4DFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166382B0-BF89-4ABA-B213-18FC04E555DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2143,7 +2143,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA13" sqref="AA13"/>
+      <selection pane="topRight" activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2534,7 +2534,7 @@
         <v>3001</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z4">
         <v>10</v>
@@ -2626,7 +2626,7 @@
         <v>3001</v>
       </c>
       <c r="Y5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z5">
         <v>10</v>
@@ -2635,7 +2635,7 @@
         <v>3002</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC5">
         <v>10</v>
@@ -2718,7 +2718,7 @@
         <v>3001</v>
       </c>
       <c r="Y6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         <v>3002</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC6">
         <v>10</v>
@@ -2810,7 +2810,7 @@
         <v>3001</v>
       </c>
       <c r="Y7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z7">
         <v>10</v>
@@ -2819,7 +2819,7 @@
         <v>3002</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC7">
         <v>10</v>
@@ -2902,7 +2902,7 @@
         <v>3001</v>
       </c>
       <c r="Y8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z8">
         <v>10</v>
@@ -2911,7 +2911,7 @@
         <v>3002</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC8">
         <v>10</v>
@@ -2994,7 +2994,7 @@
         <v>3001</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>5</v>
@@ -3003,7 +3003,7 @@
         <v>3002</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC9">
         <v>5</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166382B0-BF89-4ABA-B213-18FC04E555DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4D44CE-6E34-4676-BE00-21E12C83417A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2142,8 +2142,8 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB17" sqref="AB17"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="Z9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA9">
         <v>3002</v>
@@ -3006,7 +3006,7 @@
         <v>3</v>
       </c>
       <c r="AC9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD9">
         <v>7</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4D44CE-6E34-4676-BE00-21E12C83417A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6D60CF-C711-40F5-8471-9934835B2564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="4" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -2141,7 +2141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
     </sheetView>
@@ -3033,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB955C-74DD-4B61-BCC6-9955AD17436D}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4153,8 +4153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87B89F5-A0CF-418F-90DB-EDDE1E3A1683}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4247,7 +4247,7 @@
         <v>100001</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>100001</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>100001</v>
       </c>
       <c r="F6">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>100001</v>
       </c>
       <c r="F7">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4439,7 +4439,7 @@
         <v>100001</v>
       </c>
       <c r="F9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         <v>100001</v>
       </c>
       <c r="F10">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>100001</v>
       </c>
       <c r="F12">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -4567,7 +4567,7 @@
         <v>100001</v>
       </c>
       <c r="F13">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>100001</v>
       </c>
       <c r="F15">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         <v>100001</v>
       </c>
       <c r="F16">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G16">
         <v>0</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6D60CF-C711-40F5-8471-9934835B2564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8918D7-E6A1-4E09-AA67-FB91D0A7D98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="4" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -558,7 +558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="101">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -741,10 +741,6 @@
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1821,22 +1817,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -1993,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -2139,11 +2135,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2186,7 +2182,7 @@
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>35</v>
@@ -2195,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>28</v>
@@ -2213,7 +2209,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
@@ -2225,16 +2221,16 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>30</v>
@@ -2273,7 +2269,7 @@
         <v>16</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.45">
@@ -2442,7 +2438,7 @@
         <v>3001</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>10</v>
@@ -3010,16 +3006,6 @@
       </c>
       <c r="AD9">
         <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="I15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L25" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3065,7 +3051,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>45</v>
@@ -3076,7 +3062,7 @@
         <v>111101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>111</v>
@@ -3099,7 +3085,7 @@
         <v>111102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>111</v>
@@ -3122,7 +3108,7 @@
         <v>111103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>111</v>
@@ -3145,7 +3131,7 @@
         <v>111201</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>111</v>
@@ -3168,7 +3154,7 @@
         <v>111202</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <v>111</v>
@@ -3191,7 +3177,7 @@
         <v>111203</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>111</v>
@@ -3214,7 +3200,7 @@
         <v>111301</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2">
         <v>111</v>
@@ -3237,7 +3223,7 @@
         <v>111302</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2">
         <v>111</v>
@@ -3260,7 +3246,7 @@
         <v>111303</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2">
         <v>111</v>
@@ -3283,7 +3269,7 @@
         <v>112101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2">
         <v>112</v>
@@ -3306,7 +3292,7 @@
         <v>112102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2">
         <v>112</v>
@@ -3329,7 +3315,7 @@
         <v>112103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2">
         <v>112</v>
@@ -3352,7 +3338,7 @@
         <v>112201</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2">
         <v>112</v>
@@ -3375,7 +3361,7 @@
         <v>112202</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2">
         <v>112</v>
@@ -3398,7 +3384,7 @@
         <v>112203</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2">
         <v>112</v>
@@ -3421,7 +3407,7 @@
         <v>112301</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2">
         <v>112</v>
@@ -3444,7 +3430,7 @@
         <v>112302</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2">
         <v>112</v>
@@ -3467,7 +3453,7 @@
         <v>112303</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2">
         <v>112</v>
@@ -3490,7 +3476,7 @@
         <v>113101</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2">
         <v>113</v>
@@ -3513,7 +3499,7 @@
         <v>113102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2">
         <v>113</v>
@@ -3536,7 +3522,7 @@
         <v>113103</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2">
         <v>113</v>
@@ -3559,7 +3545,7 @@
         <v>113201</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2">
         <v>113</v>
@@ -3582,7 +3568,7 @@
         <v>113202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2">
         <v>113</v>
@@ -3605,7 +3591,7 @@
         <v>113203</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2">
         <v>113</v>
@@ -3628,7 +3614,7 @@
         <v>113301</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2">
         <v>113</v>
@@ -3651,7 +3637,7 @@
         <v>113302</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2">
         <v>113</v>
@@ -3674,7 +3660,7 @@
         <v>113303</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2">
         <v>113</v>
@@ -3697,7 +3683,7 @@
         <v>121101</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2">
         <v>121</v>
@@ -3720,7 +3706,7 @@
         <v>121102</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2">
         <v>121</v>
@@ -3743,7 +3729,7 @@
         <v>121103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2">
         <v>121</v>
@@ -3766,7 +3752,7 @@
         <v>121201</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2">
         <v>121</v>
@@ -3789,7 +3775,7 @@
         <v>121202</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2">
         <v>121</v>
@@ -3812,7 +3798,7 @@
         <v>121203</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2">
         <v>121</v>
@@ -3835,7 +3821,7 @@
         <v>121301</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2">
         <v>121</v>
@@ -3858,7 +3844,7 @@
         <v>121302</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2">
         <v>121</v>
@@ -3881,7 +3867,7 @@
         <v>121303</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2">
         <v>121</v>
@@ -3904,7 +3890,7 @@
         <v>122101</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="2">
         <v>122</v>
@@ -3927,7 +3913,7 @@
         <v>122102</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="2">
         <v>122</v>
@@ -3950,7 +3936,7 @@
         <v>122103</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="2">
         <v>122</v>
@@ -3973,7 +3959,7 @@
         <v>122201</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2">
         <v>122</v>
@@ -3996,7 +3982,7 @@
         <v>122202</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2">
         <v>122</v>
@@ -4019,7 +4005,7 @@
         <v>122203</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="2">
         <v>122</v>
@@ -4042,7 +4028,7 @@
         <v>122301</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="2">
         <v>122</v>
@@ -4065,7 +4051,7 @@
         <v>122302</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="2">
         <v>122</v>
@@ -4088,7 +4074,7 @@
         <v>122303</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="2">
         <v>122</v>
@@ -4153,7 +4139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87B89F5-A0CF-418F-90DB-EDDE1E3A1683}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -4203,7 +4189,7 @@
         <v>111001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>111</v>
@@ -4235,7 +4221,7 @@
         <v>111002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>111</v>
@@ -4267,7 +4253,7 @@
         <v>111003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2">
         <v>111</v>
@@ -4299,7 +4285,7 @@
         <v>112001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>112</v>
@@ -4331,7 +4317,7 @@
         <v>112002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
         <v>112</v>
@@ -4363,7 +4349,7 @@
         <v>112003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2">
         <v>112</v>
@@ -4395,7 +4381,7 @@
         <v>113001</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <v>113</v>
@@ -4427,7 +4413,7 @@
         <v>113002</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2">
         <v>113</v>
@@ -4459,7 +4445,7 @@
         <v>113003</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2">
         <v>112</v>
@@ -4491,7 +4477,7 @@
         <v>121001</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
         <v>121</v>
@@ -4523,7 +4509,7 @@
         <v>121002</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2">
         <v>121</v>
@@ -4555,7 +4541,7 @@
         <v>121003</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2">
         <v>121</v>
@@ -4587,7 +4573,7 @@
         <v>122001</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2">
         <v>122</v>
@@ -4619,7 +4605,7 @@
         <v>121002</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2">
         <v>122</v>
@@ -4651,7 +4637,7 @@
         <v>121003</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2">
         <v>122</v>
@@ -4791,7 +4777,7 @@
         <v>111100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>111</v>
@@ -4829,7 +4815,7 @@
         <v>111101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>111</v>
@@ -4867,7 +4853,7 @@
         <v>111102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
         <v>111</v>
@@ -4905,7 +4891,7 @@
         <v>111103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>111</v>
@@ -4943,7 +4929,7 @@
         <v>111104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <v>111</v>
@@ -4981,7 +4967,7 @@
         <v>111105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>111</v>
@@ -5019,7 +5005,7 @@
         <v>111106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
         <v>111</v>
@@ -5057,7 +5043,7 @@
         <v>111107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2">
         <v>111</v>
@@ -5095,7 +5081,7 @@
         <v>111108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2">
         <v>111</v>
@@ -5133,7 +5119,7 @@
         <v>111109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2">
         <v>111</v>
@@ -5171,7 +5157,7 @@
         <v>111110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2">
         <v>111</v>
@@ -5209,7 +5195,7 @@
         <v>111111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2">
         <v>111</v>
@@ -5247,7 +5233,7 @@
         <v>111200</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2">
         <v>111</v>
@@ -5285,7 +5271,7 @@
         <v>111201</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2">
         <v>111</v>
@@ -5323,7 +5309,7 @@
         <v>111202</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2">
         <v>111</v>
@@ -5361,7 +5347,7 @@
         <v>111203</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2">
         <v>111</v>
@@ -5399,7 +5385,7 @@
         <v>111204</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2">
         <v>111</v>
@@ -5437,7 +5423,7 @@
         <v>111205</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2">
         <v>111</v>
@@ -5475,7 +5461,7 @@
         <v>111206</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2">
         <v>111</v>
@@ -5513,7 +5499,7 @@
         <v>111207</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2">
         <v>111</v>
@@ -5551,7 +5537,7 @@
         <v>111208</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2">
         <v>111</v>
@@ -5589,7 +5575,7 @@
         <v>111209</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2">
         <v>111</v>
@@ -5627,7 +5613,7 @@
         <v>111210</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2">
         <v>111</v>
@@ -5665,7 +5651,7 @@
         <v>111300</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2">
         <v>111</v>
@@ -5703,7 +5689,7 @@
         <v>111301</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2">
         <v>111</v>
@@ -5741,7 +5727,7 @@
         <v>111302</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2">
         <v>111</v>
@@ -5779,7 +5765,7 @@
         <v>111303</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2">
         <v>111</v>
@@ -5817,7 +5803,7 @@
         <v>111304</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2">
         <v>111</v>
@@ -5855,7 +5841,7 @@
         <v>111305</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2">
         <v>111</v>
@@ -5893,7 +5879,7 @@
         <v>111306</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2">
         <v>111</v>
@@ -5931,7 +5917,7 @@
         <v>111307</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2">
         <v>111</v>
@@ -5969,7 +5955,7 @@
         <v>111308</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2">
         <v>111</v>
@@ -6007,7 +5993,7 @@
         <v>111309</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2">
         <v>111</v>
@@ -6045,7 +6031,7 @@
         <v>111310</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2">
         <v>111</v>
@@ -6083,7 +6069,7 @@
         <v>112100</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="2">
         <v>112</v>
@@ -6121,7 +6107,7 @@
         <v>112101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <v>112</v>
@@ -6159,7 +6145,7 @@
         <v>112102</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
         <v>112</v>
@@ -6197,7 +6183,7 @@
         <v>112103</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="2">
         <v>112</v>
@@ -6235,7 +6221,7 @@
         <v>112104</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2">
         <v>112</v>
@@ -6273,7 +6259,7 @@
         <v>112105</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2">
         <v>112</v>
@@ -6311,7 +6297,7 @@
         <v>112106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2">
         <v>112</v>
@@ -6349,7 +6335,7 @@
         <v>112107</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2">
         <v>112</v>
@@ -6387,7 +6373,7 @@
         <v>112108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2">
         <v>112</v>
@@ -6425,7 +6411,7 @@
         <v>112109</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2">
         <v>112</v>
@@ -6463,7 +6449,7 @@
         <v>112110</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2">
         <v>112</v>
@@ -6501,7 +6487,7 @@
         <v>112111</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2">
         <v>112</v>
@@ -6539,7 +6525,7 @@
         <v>112200</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2">
         <v>112</v>
@@ -6577,7 +6563,7 @@
         <v>112201</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2">
         <v>112</v>
@@ -6615,7 +6601,7 @@
         <v>112202</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2">
         <v>112</v>
@@ -6653,7 +6639,7 @@
         <v>112203</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2">
         <v>112</v>
@@ -6691,7 +6677,7 @@
         <v>112204</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2">
         <v>112</v>
@@ -6729,7 +6715,7 @@
         <v>112205</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="2">
         <v>112</v>
@@ -6767,7 +6753,7 @@
         <v>112206</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="2">
         <v>112</v>
@@ -6805,7 +6791,7 @@
         <v>112207</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="2">
         <v>112</v>
@@ -6843,7 +6829,7 @@
         <v>112208</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="2">
         <v>112</v>
@@ -6881,7 +6867,7 @@
         <v>112209</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="2">
         <v>112</v>
@@ -6919,7 +6905,7 @@
         <v>112210</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="2">
         <v>112</v>
@@ -6957,7 +6943,7 @@
         <v>112300</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2">
         <v>112</v>
@@ -6995,7 +6981,7 @@
         <v>112301</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2">
         <v>112</v>
@@ -7033,7 +7019,7 @@
         <v>112302</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2">
         <v>112</v>
@@ -7071,7 +7057,7 @@
         <v>112303</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2">
         <v>112</v>
@@ -7109,7 +7095,7 @@
         <v>112304</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2">
         <v>112</v>
@@ -7147,7 +7133,7 @@
         <v>112305</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2">
         <v>112</v>
@@ -7185,7 +7171,7 @@
         <v>112306</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="2">
         <v>112</v>
@@ -7223,7 +7209,7 @@
         <v>112307</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2">
         <v>112</v>
@@ -7261,7 +7247,7 @@
         <v>112308</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="2">
         <v>112</v>
@@ -7299,7 +7285,7 @@
         <v>112309</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="2">
         <v>112</v>
@@ -7337,7 +7323,7 @@
         <v>112310</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="2">
         <v>112</v>
@@ -7375,7 +7361,7 @@
         <v>113100</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2">
         <v>113</v>
@@ -7413,7 +7399,7 @@
         <v>113101</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2">
         <v>113</v>
@@ -7451,7 +7437,7 @@
         <v>113102</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2">
         <v>113</v>
@@ -7489,7 +7475,7 @@
         <v>113103</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2">
         <v>113</v>
@@ -7527,7 +7513,7 @@
         <v>113104</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74" s="2">
         <v>113</v>
@@ -7565,7 +7551,7 @@
         <v>113105</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2">
         <v>113</v>
@@ -7603,7 +7589,7 @@
         <v>113106</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" s="2">
         <v>113</v>
@@ -7641,7 +7627,7 @@
         <v>113107</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2">
         <v>113</v>
@@ -7679,7 +7665,7 @@
         <v>113108</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2">
         <v>113</v>
@@ -7717,7 +7703,7 @@
         <v>113109</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2">
         <v>113</v>
@@ -7755,7 +7741,7 @@
         <v>113110</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2">
         <v>113</v>
@@ -7793,7 +7779,7 @@
         <v>113111</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2">
         <v>113</v>
@@ -7831,7 +7817,7 @@
         <v>113200</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2">
         <v>113</v>
@@ -7869,7 +7855,7 @@
         <v>113201</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C83" s="2">
         <v>113</v>
@@ -7907,7 +7893,7 @@
         <v>113202</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2">
         <v>113</v>
@@ -7945,7 +7931,7 @@
         <v>113203</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C85" s="2">
         <v>113</v>
@@ -7983,7 +7969,7 @@
         <v>113204</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2">
         <v>113</v>
@@ -8021,7 +8007,7 @@
         <v>113205</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2">
         <v>113</v>
@@ -8059,7 +8045,7 @@
         <v>113206</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C88" s="2">
         <v>113</v>
@@ -8097,7 +8083,7 @@
         <v>113207</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C89" s="2">
         <v>113</v>
@@ -8135,7 +8121,7 @@
         <v>113208</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C90" s="2">
         <v>113</v>
@@ -8173,7 +8159,7 @@
         <v>113209</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C91" s="2">
         <v>113</v>
@@ -8211,7 +8197,7 @@
         <v>113210</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C92" s="2">
         <v>113</v>
@@ -8249,7 +8235,7 @@
         <v>113300</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2">
         <v>113</v>
@@ -8287,7 +8273,7 @@
         <v>113301</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2">
         <v>113</v>
@@ -8325,7 +8311,7 @@
         <v>113302</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C95" s="2">
         <v>113</v>
@@ -8363,7 +8349,7 @@
         <v>113303</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2">
         <v>113</v>
@@ -8401,7 +8387,7 @@
         <v>113304</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2">
         <v>113</v>
@@ -8439,7 +8425,7 @@
         <v>113305</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C98" s="2">
         <v>113</v>
@@ -8477,7 +8463,7 @@
         <v>113306</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2">
         <v>113</v>
@@ -8515,7 +8501,7 @@
         <v>113307</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C100" s="2">
         <v>113</v>
@@ -8553,7 +8539,7 @@
         <v>113308</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C101" s="2">
         <v>113</v>
@@ -8591,7 +8577,7 @@
         <v>113309</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C102" s="2">
         <v>113</v>
@@ -8629,7 +8615,7 @@
         <v>113310</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C103" s="2">
         <v>113</v>
@@ -8667,7 +8653,7 @@
         <v>121100</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C104" s="2">
         <v>121</v>
@@ -8705,7 +8691,7 @@
         <v>121101</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C105" s="2">
         <v>121</v>
@@ -8743,7 +8729,7 @@
         <v>121102</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C106" s="2">
         <v>121</v>
@@ -8781,7 +8767,7 @@
         <v>121103</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C107" s="2">
         <v>121</v>
@@ -8819,7 +8805,7 @@
         <v>121104</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2">
         <v>121</v>
@@ -8857,7 +8843,7 @@
         <v>121105</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C109" s="2">
         <v>121</v>
@@ -8895,7 +8881,7 @@
         <v>121106</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C110" s="2">
         <v>121</v>
@@ -8933,7 +8919,7 @@
         <v>121107</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C111" s="2">
         <v>121</v>
@@ -8971,7 +8957,7 @@
         <v>121108</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2">
         <v>121</v>
@@ -9009,7 +8995,7 @@
         <v>121109</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C113" s="2">
         <v>121</v>
@@ -9047,7 +9033,7 @@
         <v>121110</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2">
         <v>121</v>
@@ -9085,7 +9071,7 @@
         <v>121111</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2">
         <v>121</v>
@@ -9123,7 +9109,7 @@
         <v>121200</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C116" s="2">
         <v>121</v>
@@ -9161,7 +9147,7 @@
         <v>121201</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C117" s="2">
         <v>121</v>
@@ -9199,7 +9185,7 @@
         <v>121202</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C118" s="2">
         <v>121</v>
@@ -9237,7 +9223,7 @@
         <v>121203</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C119" s="2">
         <v>121</v>
@@ -9275,7 +9261,7 @@
         <v>121204</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C120" s="2">
         <v>121</v>
@@ -9313,7 +9299,7 @@
         <v>121205</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C121" s="2">
         <v>121</v>
@@ -9351,7 +9337,7 @@
         <v>121206</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C122" s="2">
         <v>121</v>
@@ -9389,7 +9375,7 @@
         <v>121207</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C123" s="2">
         <v>121</v>
@@ -9427,7 +9413,7 @@
         <v>121208</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C124" s="2">
         <v>121</v>
@@ -9465,7 +9451,7 @@
         <v>121209</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C125" s="2">
         <v>121</v>
@@ -9503,7 +9489,7 @@
         <v>121210</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C126" s="2">
         <v>121</v>
@@ -9541,7 +9527,7 @@
         <v>121300</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C127" s="2">
         <v>121</v>
@@ -9579,7 +9565,7 @@
         <v>121301</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C128" s="2">
         <v>121</v>
@@ -9617,7 +9603,7 @@
         <v>121302</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C129" s="2">
         <v>121</v>
@@ -9655,7 +9641,7 @@
         <v>121303</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C130" s="2">
         <v>121</v>
@@ -9693,7 +9679,7 @@
         <v>121304</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C131" s="2">
         <v>121</v>
@@ -9731,7 +9717,7 @@
         <v>121305</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C132" s="2">
         <v>121</v>
@@ -9769,7 +9755,7 @@
         <v>121306</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C133" s="2">
         <v>121</v>
@@ -9807,7 +9793,7 @@
         <v>121307</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C134" s="2">
         <v>121</v>
@@ -9845,7 +9831,7 @@
         <v>121308</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C135" s="2">
         <v>121</v>
@@ -9883,7 +9869,7 @@
         <v>121309</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C136" s="2">
         <v>121</v>
@@ -9921,7 +9907,7 @@
         <v>121310</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C137" s="2">
         <v>121</v>
@@ -9959,7 +9945,7 @@
         <v>122100</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C138" s="2">
         <v>122</v>
@@ -9997,7 +9983,7 @@
         <v>122101</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C139" s="2">
         <v>122</v>
@@ -10035,7 +10021,7 @@
         <v>122102</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C140" s="2">
         <v>122</v>
@@ -10073,7 +10059,7 @@
         <v>122103</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2">
         <v>122</v>
@@ -10111,7 +10097,7 @@
         <v>122104</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C142" s="2">
         <v>122</v>
@@ -10149,7 +10135,7 @@
         <v>122105</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C143" s="2">
         <v>122</v>
@@ -10187,7 +10173,7 @@
         <v>122106</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2">
         <v>122</v>
@@ -10225,7 +10211,7 @@
         <v>122107</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C145" s="2">
         <v>122</v>
@@ -10263,7 +10249,7 @@
         <v>122108</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C146" s="2">
         <v>122</v>
@@ -10301,7 +10287,7 @@
         <v>122109</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C147" s="2">
         <v>122</v>
@@ -10339,7 +10325,7 @@
         <v>122110</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C148" s="2">
         <v>122</v>
@@ -10377,7 +10363,7 @@
         <v>122111</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C149" s="2">
         <v>122</v>
@@ -10415,7 +10401,7 @@
         <v>122200</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C150" s="2">
         <v>122</v>
@@ -10453,7 +10439,7 @@
         <v>122201</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C151" s="2">
         <v>122</v>
@@ -10491,7 +10477,7 @@
         <v>122202</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C152" s="2">
         <v>122</v>
@@ -10529,7 +10515,7 @@
         <v>122203</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C153" s="2">
         <v>122</v>
@@ -10567,7 +10553,7 @@
         <v>122204</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C154" s="2">
         <v>122</v>
@@ -10605,7 +10591,7 @@
         <v>122205</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C155" s="2">
         <v>122</v>
@@ -10643,7 +10629,7 @@
         <v>122206</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C156" s="2">
         <v>122</v>
@@ -10681,7 +10667,7 @@
         <v>122207</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C157" s="2">
         <v>122</v>
@@ -10719,7 +10705,7 @@
         <v>122208</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C158" s="2">
         <v>122</v>
@@ -10757,7 +10743,7 @@
         <v>122209</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C159" s="2">
         <v>122</v>
@@ -10795,7 +10781,7 @@
         <v>122210</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C160" s="2">
         <v>122</v>
@@ -10833,7 +10819,7 @@
         <v>122300</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C161" s="2">
         <v>122</v>
@@ -10871,7 +10857,7 @@
         <v>122301</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C162" s="2">
         <v>122</v>
@@ -10909,7 +10895,7 @@
         <v>122302</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C163" s="2">
         <v>122</v>
@@ -10947,7 +10933,7 @@
         <v>122303</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C164" s="2">
         <v>122</v>
@@ -10985,7 +10971,7 @@
         <v>122304</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C165" s="2">
         <v>122</v>
@@ -11023,7 +11009,7 @@
         <v>122305</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C166" s="2">
         <v>122</v>
@@ -11061,7 +11047,7 @@
         <v>122306</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C167" s="2">
         <v>122</v>
@@ -11099,7 +11085,7 @@
         <v>122307</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C168" s="2">
         <v>122</v>
@@ -11137,7 +11123,7 @@
         <v>122308</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C169" s="2">
         <v>122</v>
@@ -11175,7 +11161,7 @@
         <v>122309</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C170" s="2">
         <v>122</v>
@@ -11213,7 +11199,7 @@
         <v>122310</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C171" s="2">
         <v>122</v>
@@ -11271,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -11285,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -11296,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -11307,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -11318,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -11329,7 +11315,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -11340,7 +11326,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -11351,7 +11337,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -11362,7 +11348,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -11373,7 +11359,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -11384,7 +11370,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -11395,7 +11381,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -11406,7 +11392,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -11417,7 +11403,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -11428,7 +11414,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -11439,7 +11425,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -11450,7 +11436,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -11461,7 +11447,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -11472,7 +11458,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8918D7-E6A1-4E09-AA67-FB91D0A7D98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943D2FCB-4216-447D-B9B4-B7D600B09307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2139,7 +2139,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB11" sqref="AB11"/>
+      <selection pane="topRight" activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD2">
         <v>7</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943D2FCB-4216-447D-B9B4-B7D600B09307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF22230-E643-4880-A507-A6A4414CA3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2139,7 +2139,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z15" sqref="Z15"/>
+      <selection pane="topRight" activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2530,7 +2530,7 @@
         <v>3001</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>10</v>
@@ -2539,7 +2539,7 @@
         <v>3002</v>
       </c>
       <c r="AB4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC4">
         <v>10</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF22230-E643-4880-A507-A6A4414CA3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A76FA2-9BDD-413B-8156-CAD1D846E45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -2138,8 +2138,8 @@
   <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB11" sqref="AB11"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A76FA2-9BDD-413B-8156-CAD1D846E45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5780325-A5F8-4686-9FEA-E0DAA57EAB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -184,6 +184,7 @@
     <author>tc={DFEAD093-397E-49EB-9ECD-97658251A7E8}</author>
     <author>tc={9EB770EE-8BFC-43F6-A786-B56AA82AD677}</author>
     <author>tc={CB685D87-27CB-443B-BD1E-24B8E7FBB88C}</author>
+    <author>tc={F88CC7E6-7FB7-4D8A-803F-86166D82C8E5}</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{7B20AA07-24DB-4418-AD3C-EB38273A9E53}">
@@ -335,6 +336,14 @@
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     반 블록</t>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="18" shapeId="0" xr:uid="{F88CC7E6-7FB7-4D8A-803F-86166D82C8E5}">
+      <text>
+        <t xml:space="preserve">[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    캐릭터가 떨어지는 블록에 맞으면 깍이는 HP </t>
       </text>
     </comment>
   </commentList>
@@ -558,7 +567,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="102">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1044,12 +1053,16 @@
     <t>한 팀이 압도적으로 우세하다면 나머지 두 팀이 협력해야 합니다. 그렇지 않으면 차례대로 당할 뿐입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Block_Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,6 +1116,12 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1687,6 +1706,9 @@
   <threadedComment ref="AA1" dT="2024-12-16T09:22:58.10" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{CB685D87-27CB-443B-BD1E-24B8E7FBB88C}">
     <text>반 블록</text>
   </threadedComment>
+  <threadedComment ref="AE1" dT="2024-12-30T08:00:27.96" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{F88CC7E6-7FB7-4D8A-803F-86166D82C8E5}">
+    <text xml:space="preserve">캐릭터가 떨어지는 블록에 맞으면 깍이는 HP </text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2135,11 +2157,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V21" sqref="V21"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2180,7 +2202,7 @@
     <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>80</v>
       </c>
@@ -2271,8 +2293,11 @@
       <c r="AD1" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE1" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>11101</v>
       </c>
@@ -2363,8 +2388,11 @@
       <c r="AD2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>11102</v>
       </c>
@@ -2455,8 +2483,11 @@
       <c r="AD3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>11103</v>
       </c>
@@ -2547,8 +2578,11 @@
       <c r="AD4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>11201</v>
       </c>
@@ -2639,8 +2673,11 @@
       <c r="AD5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>12101</v>
       </c>
@@ -2731,8 +2768,11 @@
       <c r="AD6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>12102</v>
       </c>
@@ -2823,8 +2863,11 @@
       <c r="AD7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>12201</v>
       </c>
@@ -2915,8 +2958,11 @@
       <c r="AD8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>12202</v>
       </c>
@@ -3006,6 +3052,9 @@
       </c>
       <c r="AD9">
         <v>7</v>
+      </c>
+      <c r="AE9">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5780325-A5F8-4686-9FEA-E0DAA57EAB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27E0A4B-2691-4F1F-AC28-B5615518BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -1062,7 +1062,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1116,12 +1116,6 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2161,7 +2155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG11" sqref="AG11"/>
+      <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2371,7 +2365,7 @@
         <v>3001</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>10</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27E0A4B-2691-4F1F-AC28-B5615518BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC8F341-6B21-42FD-AF64-07D6405E5ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -2155,7 +2155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
+      <selection pane="topRight" activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2374,7 +2374,7 @@
         <v>3002</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC2">
         <v>10</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC8F341-6B21-42FD-AF64-07D6405E5ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3594217-8956-46E2-9592-B374EA0E675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2155,7 +2155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB17" sqref="AB17"/>
+      <selection pane="topRight" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2460,7 +2460,7 @@
         <v>3001</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>10</v>
@@ -2469,7 +2469,7 @@
         <v>3002</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC3">
         <v>10</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3594217-8956-46E2-9592-B374EA0E675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA18CC9-F100-41A6-8608-43F28807014F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2155,7 +2155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z11" sqref="Z11"/>
+      <selection pane="topRight" activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2469,7 +2469,7 @@
         <v>3002</v>
       </c>
       <c r="AB3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC3">
         <v>10</v>
@@ -2555,7 +2555,7 @@
         <v>3001</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>10</v>
@@ -2564,7 +2564,7 @@
         <v>3002</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC4">
         <v>10</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA18CC9-F100-41A6-8608-43F28807014F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFCC3A8-8508-4F89-951C-AB77DC2EEE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2155,7 +2155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB12" sqref="AB12"/>
+      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2567,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="AC4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD4">
         <v>7</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFCC3A8-8508-4F89-951C-AB77DC2EEE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E0C3B5-F20E-4096-BF9C-DFECF27EA781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2155,7 +2155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
+      <selection pane="topRight" activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2564,10 +2564,10 @@
         <v>3002</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD4">
         <v>7</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E0C3B5-F20E-4096-BF9C-DFECF27EA781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FED3A5-DA81-4185-9A55-6307D1FD20FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2155,7 +2155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA35" sqref="AA35"/>
+      <selection pane="topRight" activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2564,7 +2564,7 @@
         <v>3002</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC4">
         <v>10</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FED3A5-DA81-4185-9A55-6307D1FD20FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D68CFE6-6242-45D9-B536-D85B84C49947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2155,7 +2155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB10" sqref="AB10"/>
+      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2659,10 +2659,10 @@
         <v>3002</v>
       </c>
       <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
         <v>5</v>
-      </c>
-      <c r="AC5">
-        <v>10</v>
       </c>
       <c r="AD5">
         <v>7</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D68CFE6-6242-45D9-B536-D85B84C49947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CE24FD-BA2E-4F16-82B0-67AAADAEE788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2155,7 +2155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
+      <selection pane="topRight" activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2745,7 +2745,7 @@
         <v>3001</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <v>10</v>
@@ -2754,10 +2754,10 @@
         <v>3002</v>
       </c>
       <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
         <v>5</v>
-      </c>
-      <c r="AC6">
-        <v>10</v>
       </c>
       <c r="AD6">
         <v>7</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CE24FD-BA2E-4F16-82B0-67AAADAEE788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6300EE6-F7C9-4296-B8D7-D0FAF56CA515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2840,7 +2840,7 @@
         <v>3001</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>10</v>
@@ -2944,10 +2944,10 @@
         <v>3002</v>
       </c>
       <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
         <v>5</v>
-      </c>
-      <c r="AC8">
-        <v>10</v>
       </c>
       <c r="AD8">
         <v>7</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6300EE6-F7C9-4296-B8D7-D0FAF56CA515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889FD834-5192-4520-8A1A-F26799975789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
@@ -2155,7 +2155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC18" sqref="AC18"/>
+      <selection pane="topRight" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2935,7 +2935,7 @@
         <v>3001</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z8">
         <v>10</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889FD834-5192-4520-8A1A-F26799975789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592E7AD6-3C9C-4231-9653-02DE4B6CE10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -2154,8 +2154,8 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z12" sqref="Z12"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2840,7 +2840,7 @@
         <v>3001</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>10</v>
@@ -2849,10 +2849,10 @@
         <v>3002</v>
       </c>
       <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
         <v>5</v>
-      </c>
-      <c r="AC7">
-        <v>10</v>
       </c>
       <c r="AD7">
         <v>7</v>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592E7AD6-3C9C-4231-9653-02DE4B6CE10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6EA084-880A-485E-B3D2-06E66D9F51C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" firstSheet="2" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -567,7 +567,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="105">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1056,6 +1056,15 @@
   <si>
     <t>Block_Hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH_Team_Battle_7</t>
+  </si>
+  <si>
+    <t>FITH_Team_Battle_8</t>
+  </si>
+  <si>
+    <t>FITH_Team_Battle_9</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD5ABAE-FD82-4B74-89AC-131D68719B9B}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2151,11 +2160,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2863,16 +2872,16 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <v>12201</v>
+        <v>12103</v>
       </c>
       <c r="B8" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -2935,7 +2944,7 @@
         <v>3001</v>
       </c>
       <c r="Y8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>10</v>
@@ -2944,7 +2953,7 @@
         <v>3002</v>
       </c>
       <c r="AB8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC8">
         <v>5</v>
@@ -2958,16 +2967,16 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>12202</v>
+        <v>12104</v>
       </c>
       <c r="B9" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -3030,10 +3039,10 @@
         <v>3001</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA9">
         <v>3002</v>
@@ -3042,12 +3051,487 @@
         <v>3</v>
       </c>
       <c r="AC9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD9">
         <v>7</v>
       </c>
       <c r="AE9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>12201</v>
+      </c>
+      <c r="B10" s="2">
+        <v>122</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>180</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>2001</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>30</v>
+      </c>
+      <c r="U10">
+        <v>2002</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>60</v>
+      </c>
+      <c r="X10">
+        <v>3001</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>3002</v>
+      </c>
+      <c r="AB10">
+        <v>4</v>
+      </c>
+      <c r="AC10">
+        <v>5</v>
+      </c>
+      <c r="AD10">
+        <v>7</v>
+      </c>
+      <c r="AE10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>12202</v>
+      </c>
+      <c r="B11" s="2">
+        <v>122</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>180</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>15</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>2001</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>30</v>
+      </c>
+      <c r="U11">
+        <v>2002</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>60</v>
+      </c>
+      <c r="X11">
+        <v>3001</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>8</v>
+      </c>
+      <c r="AA11">
+        <v>3002</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>8</v>
+      </c>
+      <c r="AD11">
+        <v>7</v>
+      </c>
+      <c r="AE11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>12203</v>
+      </c>
+      <c r="B12" s="2">
+        <v>122</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>180</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>15</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>2001</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>30</v>
+      </c>
+      <c r="U12">
+        <v>2002</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>60</v>
+      </c>
+      <c r="X12">
+        <v>3001</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12">
+        <v>3002</v>
+      </c>
+      <c r="AB12">
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <v>5</v>
+      </c>
+      <c r="AD12">
+        <v>7</v>
+      </c>
+      <c r="AE12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>12204</v>
+      </c>
+      <c r="B13" s="2">
+        <v>122</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>180</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>15</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>2001</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>30</v>
+      </c>
+      <c r="U13">
+        <v>2002</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>60</v>
+      </c>
+      <c r="X13">
+        <v>3001</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>8</v>
+      </c>
+      <c r="AA13">
+        <v>3002</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13">
+        <v>8</v>
+      </c>
+      <c r="AD13">
+        <v>7</v>
+      </c>
+      <c r="AE13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>12205</v>
+      </c>
+      <c r="B14" s="2">
+        <v>122</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>180</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>2001</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>30</v>
+      </c>
+      <c r="U14">
+        <v>2002</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>60</v>
+      </c>
+      <c r="X14">
+        <v>3001</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
+        <v>3002</v>
+      </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
+      <c r="AC14">
+        <v>5</v>
+      </c>
+      <c r="AD14">
+        <v>7</v>
+      </c>
+      <c r="AE14">
         <v>10</v>
       </c>
     </row>
@@ -3062,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB955C-74DD-4B61-BCC6-9955AD17436D}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4763,7 +5247,7 @@
   <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N166" sqref="N166"/>
     </sheetView>
   </sheetViews>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6EA084-880A-485E-B3D2-06E66D9F51C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD8E196-F5A3-424E-B587-7DBAB180A4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="2" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="4" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -189,13 +189,15 @@
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{7B20AA07-24DB-4418-AD3C-EB38273A9E53}">
       <text>
-        <t>[스레드 댓글]
+        <t xml:space="preserve">[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     100: 1번 모드
 200: 2번 모드
+00: 튜토리얼
 10: 개인전
-20: 팀전</t>
+20: 팀전
+</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1" shapeId="0" xr:uid="{E2FE2F0E-FC03-439A-A7C1-ECEBA9B21F2D}">
@@ -567,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="111">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1066,12 +1068,36 @@
   <si>
     <t>FITH_Team_Battle_9</t>
   </si>
+  <si>
+    <t>FITH 튜토리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH_튜토리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH_튜토리얼_Win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH_튜토리얼_Lose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH_튜토리얼_Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,8 +1152,22 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,6 +1177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,7 +1216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,6 +1244,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1221,13 +1291,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1649,10 +1719,12 @@
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B1" dT="2024-09-12T14:08:08.25" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{7B20AA07-24DB-4418-AD3C-EB38273A9E53}">
-    <text>100: 1번 모드
+    <text xml:space="preserve">100: 1번 모드
 200: 2번 모드
+00: 튜토리얼
 10: 개인전
-20: 팀전</text>
+20: 팀전
+</text>
   </threadedComment>
   <threadedComment ref="C1" dT="2024-09-12T14:12:24.35" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{E2FE2F0E-FC03-439A-A7C1-ECEBA9B21F2D}">
     <text>모드 이름</text>
@@ -1822,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E80AA-5002-403D-BE2E-63B1902A2B22}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1860,24 +1932,24 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>110</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>112</v>
-      </c>
-      <c r="E2">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="9">
+        <v>100</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>100</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1885,19 +1957,19 @@
         <v>110</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>10</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
       </c>
       <c r="D3">
         <v>112</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1905,39 +1977,39 @@
         <v>110</v>
       </c>
       <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>30</v>
       </c>
-      <c r="C4">
-        <v>99999</v>
-      </c>
       <c r="D4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>99999</v>
       </c>
       <c r="D5">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E5">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1945,19 +2017,19 @@
         <v>120</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>10</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
       </c>
       <c r="D6">
         <v>122</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1965,34 +2037,57 @@
         <v>120</v>
       </c>
       <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>30</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>122</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>120</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
         <v>99999</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>121</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD5ABAE-FD82-4B74-89AC-131D68719B9B}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2035,56 +2130,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>111</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="10">
+        <v>100</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2095,25 +2190,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2124,30 +2219,59 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
+        <v>121</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
         <v>122</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
@@ -2160,11 +2284,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1D1EFC-2C97-4775-89FB-1DF8061BC0EF}">
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G36" sqref="G36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2300,23 +2424,23 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>11101</v>
-      </c>
-      <c r="B2" s="2">
-        <v>111</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
+    <row r="2" spans="1:31" s="10" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="10">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="10">
+        <v>100</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
         <v>0</v>
       </c>
       <c r="G2">
@@ -2397,7 +2521,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>11102</v>
+        <v>11101</v>
       </c>
       <c r="B3" s="2">
         <v>111</v>
@@ -2492,7 +2616,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <v>11103</v>
+        <v>11102</v>
       </c>
       <c r="B4" s="2">
         <v>111</v>
@@ -2587,16 +2711,16 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>11201</v>
+        <v>11103</v>
       </c>
       <c r="B5" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -2659,7 +2783,7 @@
         <v>3001</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>10</v>
@@ -2668,10 +2792,10 @@
         <v>3002</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD5">
         <v>7</v>
@@ -2682,16 +2806,16 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <v>12101</v>
+        <v>11201</v>
       </c>
       <c r="B6" s="2">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -2754,7 +2878,7 @@
         <v>3001</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>10</v>
@@ -2763,7 +2887,7 @@
         <v>3002</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC6">
         <v>5</v>
@@ -2777,7 +2901,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <v>12102</v>
+        <v>12101</v>
       </c>
       <c r="B7" s="2">
         <v>121</v>
@@ -2849,7 +2973,7 @@
         <v>3001</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>10</v>
@@ -2858,7 +2982,7 @@
         <v>3002</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC7">
         <v>5</v>
@@ -2872,7 +2996,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <v>12103</v>
+        <v>12102</v>
       </c>
       <c r="B8" s="2">
         <v>121</v>
@@ -2967,7 +3091,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>12104</v>
+        <v>12103</v>
       </c>
       <c r="B9" s="2">
         <v>121</v>
@@ -3062,16 +3186,16 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>12201</v>
+        <v>12104</v>
       </c>
       <c r="B10" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -3134,7 +3258,7 @@
         <v>3001</v>
       </c>
       <c r="Y10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>10</v>
@@ -3143,7 +3267,7 @@
         <v>3002</v>
       </c>
       <c r="AB10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC10">
         <v>5</v>
@@ -3157,7 +3281,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>12202</v>
+        <v>12201</v>
       </c>
       <c r="B11" s="2">
         <v>122</v>
@@ -3229,19 +3353,19 @@
         <v>3001</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA11">
         <v>3002</v>
       </c>
       <c r="AB11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD11">
         <v>7</v>
@@ -3252,13 +3376,13 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
-        <v>12203</v>
+        <v>12202</v>
       </c>
       <c r="B12" s="2">
         <v>122</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
@@ -3324,19 +3448,19 @@
         <v>3001</v>
       </c>
       <c r="Y12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA12">
         <v>3002</v>
       </c>
       <c r="AB12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD12">
         <v>7</v>
@@ -3347,13 +3471,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
-        <v>12204</v>
+        <v>12203</v>
       </c>
       <c r="B13" s="2">
         <v>122</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>27</v>
@@ -3419,19 +3543,19 @@
         <v>3001</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA13">
         <v>3002</v>
       </c>
       <c r="AB13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD13">
         <v>7</v>
@@ -3442,13 +3566,13 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <v>12205</v>
+        <v>12204</v>
       </c>
       <c r="B14" s="2">
         <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -3514,24 +3638,119 @@
         <v>3001</v>
       </c>
       <c r="Y14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA14">
         <v>3002</v>
       </c>
       <c r="AB14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AD14">
         <v>7</v>
       </c>
       <c r="AE14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>12205</v>
+      </c>
+      <c r="B15" s="2">
+        <v>122</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>180</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>15</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>15</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>2001</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>30</v>
+      </c>
+      <c r="U15">
+        <v>2002</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>60</v>
+      </c>
+      <c r="X15">
+        <v>3001</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <v>10</v>
+      </c>
+      <c r="AA15">
+        <v>3002</v>
+      </c>
+      <c r="AB15">
+        <v>4</v>
+      </c>
+      <c r="AC15">
+        <v>5</v>
+      </c>
+      <c r="AD15">
+        <v>7</v>
+      </c>
+      <c r="AE15">
         <v>10</v>
       </c>
     </row>
@@ -3544,17 +3763,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB955C-74DD-4B61-BCC6-9955AD17436D}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:G46"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
@@ -3565,7 +3784,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -3584,222 +3803,222 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>111101</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2">
-        <v>111</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
+    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="13">
+        <v>100101</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="12">
+        <v>100</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>111102</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2">
-        <v>111</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="A3" s="13">
+        <v>100102</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="12">
+        <v>100</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>111103</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="2">
-        <v>111</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>111201</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2">
-        <v>111</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>111202</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2">
-        <v>111</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>111203</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2">
-        <v>111</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>111301</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="2">
-        <v>111</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>111302</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="2">
-        <v>111</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>111303</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="2">
-        <v>111</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
+      <c r="A4" s="13">
+        <v>100103</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="12">
+        <v>100</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="13">
+        <v>100201</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="12">
+        <v>100</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="13">
+        <v>100202</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="12">
+        <v>100</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="13">
+        <v>100203</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="12">
+        <v>100</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="13">
+        <v>100301</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="12">
+        <v>100</v>
+      </c>
+      <c r="D8" s="13">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="13">
+        <v>100302</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="12">
+        <v>100</v>
+      </c>
+      <c r="D9" s="13">
+        <v>3</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3</v>
+      </c>
+      <c r="F9" s="13">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="13">
+        <v>100303</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="12">
+        <v>100</v>
+      </c>
+      <c r="D10" s="13">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13">
+        <v>3</v>
+      </c>
+      <c r="F10" s="13">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>112101</v>
+        <v>111101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3816,13 +4035,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>112102</v>
+        <v>111102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3839,13 +4058,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>112103</v>
+        <v>111103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3862,13 +4081,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>112201</v>
+        <v>111201</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -3885,13 +4104,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>112202</v>
+        <v>111202</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -3908,13 +4127,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>112203</v>
+        <v>111203</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -3931,13 +4150,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>112301</v>
+        <v>111301</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -3954,13 +4173,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>112302</v>
+        <v>111302</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -3977,13 +4196,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>112303</v>
+        <v>111303</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -4000,13 +4219,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>113101</v>
+        <v>112101</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4023,13 +4242,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>113102</v>
+        <v>112102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4046,13 +4265,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>113103</v>
+        <v>112103</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4069,13 +4288,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>113201</v>
+        <v>112201</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -4092,13 +4311,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>113202</v>
+        <v>112202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -4115,13 +4334,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>113203</v>
+        <v>112203</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -4138,13 +4357,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>113301</v>
+        <v>112301</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -4161,13 +4380,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>113302</v>
+        <v>112302</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -4184,13 +4403,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>113303</v>
+        <v>112303</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -4207,13 +4426,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>121101</v>
+        <v>113101</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4230,13 +4449,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>121102</v>
+        <v>113102</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -4253,13 +4472,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>121103</v>
+        <v>113103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -4276,13 +4495,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>121201</v>
+        <v>113201</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -4299,13 +4518,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>121202</v>
+        <v>113202</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -4322,13 +4541,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>121203</v>
+        <v>113203</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4345,13 +4564,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>121301</v>
+        <v>113301</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -4368,13 +4587,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>121302</v>
+        <v>113302</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -4391,13 +4610,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>121303</v>
+        <v>113303</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -4414,13 +4633,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>122101</v>
+        <v>121101</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -4437,13 +4656,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>122102</v>
+        <v>121102</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4460,13 +4679,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>122103</v>
+        <v>121103</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4483,13 +4702,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>122201</v>
+        <v>121201</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C41" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -4506,13 +4725,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>122202</v>
+        <v>121202</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -4529,13 +4748,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>122203</v>
+        <v>121203</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -4552,13 +4771,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>122301</v>
+        <v>121301</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -4575,13 +4794,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>122302</v>
+        <v>121302</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -4598,62 +4817,260 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
+        <v>121303</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="2">
+        <v>121</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>122101</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="2">
+        <v>122</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>122102</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="2">
+        <v>122</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>122103</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2">
+        <v>122</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>122201</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2">
+        <v>122</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>122202</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="2">
+        <v>122</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>122203</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="2">
+        <v>122</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>122301</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="2">
+        <v>122</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>122302</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="2">
+        <v>122</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55">
         <v>122303</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C55" s="2">
         <v>122</v>
       </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B54" s="1"/>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B55" s="1"/>
-      <c r="C55" s="2"/>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B64" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4664,10 +5081,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87B89F5-A0CF-418F-90DB-EDDE1E3A1683}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4711,24 +5128,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>111001</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2">
-        <v>111</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>100001</v>
-      </c>
-      <c r="F2">
-        <v>500</v>
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="12">
+        <v>100001</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="12">
+        <v>100</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>100001</v>
+      </c>
+      <c r="F2" s="12">
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4743,24 +5160,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>111002</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2">
-        <v>111</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>100001</v>
-      </c>
-      <c r="F3">
-        <v>300</v>
+    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="12">
+        <v>100002</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="12">
+        <v>100</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>100001</v>
+      </c>
+      <c r="F3" s="12">
+        <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4775,24 +5192,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>111003</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="2">
-        <v>111</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>100001</v>
-      </c>
-      <c r="F4">
-        <v>400</v>
+    <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="12">
+        <v>100003</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="12">
+        <v>100</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13">
+        <v>100001</v>
+      </c>
+      <c r="F4" s="12">
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4809,13 +5226,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>112001</v>
+        <v>111001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4841,13 +5258,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <v>112002</v>
+        <v>111002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4873,13 +5290,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <v>112003</v>
+        <v>111003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -4905,13 +5322,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <v>113001</v>
+        <v>112001</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4937,13 +5354,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>113002</v>
+        <v>112002</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -4969,10 +5386,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>113003</v>
+        <v>112003</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2">
         <v>112</v>
@@ -5001,13 +5418,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>121001</v>
+        <v>113001</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5033,13 +5450,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
-        <v>121002</v>
+        <v>113002</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -5065,13 +5482,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
-        <v>121003</v>
+        <v>113003</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -5097,13 +5514,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <v>122001</v>
+        <v>121001</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5132,10 +5549,10 @@
         <v>121002</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -5164,10 +5581,10 @@
         <v>121003</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -5191,31 +5608,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>122001</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2">
+        <v>122</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>100001</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>121002</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2">
+        <v>122</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>100001</v>
+      </c>
+      <c r="F18">
+        <v>300</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>121003</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2">
+        <v>122</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>100001</v>
+      </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
@@ -5234,6 +5735,18 @@
     <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5244,11 +5757,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71821EEC-8EF8-416A-A444-28A2AA6C244D}">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N166" sqref="N166"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5299,47 +5812,47 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>100100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
         <v>111100</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2">
-        <v>111</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
-        <v>111101</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>47</v>
@@ -5354,13 +5867,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -5377,7 +5890,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
-        <v>111102</v>
+        <v>111101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>47</v>
@@ -5392,13 +5905,13 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>100001</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -5415,7 +5928,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
-        <v>111103</v>
+        <v>111102</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
@@ -5430,13 +5943,13 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>100001</v>
       </c>
       <c r="H5">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -5453,7 +5966,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
-        <v>111104</v>
+        <v>111103</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>47</v>
@@ -5468,13 +5981,13 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>100001</v>
       </c>
       <c r="H6">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5491,7 +6004,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
-        <v>111105</v>
+        <v>111104</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>47</v>
@@ -5506,13 +6019,13 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>100001</v>
       </c>
       <c r="H7">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -5529,7 +6042,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
-        <v>111106</v>
+        <v>111105</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>47</v>
@@ -5544,13 +6057,13 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>100001</v>
       </c>
       <c r="H8">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5567,7 +6080,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
-        <v>111107</v>
+        <v>111106</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>47</v>
@@ -5582,13 +6095,13 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>100001</v>
       </c>
       <c r="H9">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -5605,7 +6118,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
-        <v>111108</v>
+        <v>111107</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
@@ -5620,13 +6133,13 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>100001</v>
       </c>
       <c r="H10">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -5643,7 +6156,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
-        <v>111109</v>
+        <v>111108</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>47</v>
@@ -5658,13 +6171,13 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>100001</v>
       </c>
       <c r="H11">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -5681,7 +6194,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
-        <v>111110</v>
+        <v>111109</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>47</v>
@@ -5696,13 +6209,13 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>100001</v>
       </c>
       <c r="H12">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -5719,10 +6232,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
-        <v>111111</v>
+        <v>111110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2">
         <v>111</v>
@@ -5731,22 +6244,22 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>100001</v>
       </c>
       <c r="H13">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I13">
-        <v>100003</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -5757,34 +6270,34 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
-        <v>111200</v>
+        <v>111111</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2">
         <v>111</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -5795,7 +6308,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
-        <v>111201</v>
+        <v>111200</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>48</v>
@@ -5810,13 +6323,13 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -5833,7 +6346,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
-        <v>111202</v>
+        <v>111201</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>48</v>
@@ -5848,13 +6361,13 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>100001</v>
       </c>
       <c r="H16">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5871,7 +6384,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
-        <v>111203</v>
+        <v>111202</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>48</v>
@@ -5886,13 +6399,13 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <v>100001</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -5909,7 +6422,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
-        <v>111204</v>
+        <v>111203</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>48</v>
@@ -5924,13 +6437,13 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>100001</v>
       </c>
       <c r="H18">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -5947,7 +6460,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
-        <v>111205</v>
+        <v>111204</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>48</v>
@@ -5962,13 +6475,13 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>100001</v>
       </c>
       <c r="H19">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5985,7 +6498,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
-        <v>111206</v>
+        <v>111205</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>48</v>
@@ -6000,13 +6513,13 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>100001</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -6023,7 +6536,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
-        <v>111207</v>
+        <v>111206</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>48</v>
@@ -6038,13 +6551,13 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>100001</v>
       </c>
       <c r="H21">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -6061,7 +6574,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
-        <v>111208</v>
+        <v>111207</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>48</v>
@@ -6076,13 +6589,13 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>100001</v>
       </c>
       <c r="H22">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -6099,7 +6612,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
-        <v>111209</v>
+        <v>111208</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>48</v>
@@ -6114,13 +6627,13 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23">
         <v>100001</v>
       </c>
       <c r="H23">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -6137,7 +6650,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
-        <v>111210</v>
+        <v>111209</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>48</v>
@@ -6152,13 +6665,13 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <v>100001</v>
       </c>
       <c r="H24">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -6175,28 +6688,28 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
-        <v>111300</v>
+        <v>111210</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2">
         <v>111</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -6213,7 +6726,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
-        <v>111301</v>
+        <v>111300</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>71</v>
@@ -6228,13 +6741,13 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -6251,7 +6764,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
-        <v>111302</v>
+        <v>111301</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>71</v>
@@ -6266,13 +6779,13 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>100001</v>
       </c>
       <c r="H27">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -6289,7 +6802,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
-        <v>111303</v>
+        <v>111302</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>71</v>
@@ -6304,13 +6817,13 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <v>100001</v>
       </c>
       <c r="H28">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -6327,7 +6840,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
-        <v>111304</v>
+        <v>111303</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>71</v>
@@ -6342,13 +6855,13 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29">
         <v>100001</v>
       </c>
       <c r="H29">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -6365,7 +6878,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
-        <v>111305</v>
+        <v>111304</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>71</v>
@@ -6380,13 +6893,13 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30">
         <v>100001</v>
       </c>
       <c r="H30">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -6403,7 +6916,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
-        <v>111306</v>
+        <v>111305</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>71</v>
@@ -6418,13 +6931,13 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>100001</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -6441,7 +6954,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
-        <v>111307</v>
+        <v>111306</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>71</v>
@@ -6456,13 +6969,13 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G32">
         <v>100001</v>
       </c>
       <c r="H32">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -6479,7 +6992,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
-        <v>111308</v>
+        <v>111307</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>71</v>
@@ -6494,13 +7007,13 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33">
         <v>100001</v>
       </c>
       <c r="H33">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6517,7 +7030,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
-        <v>111309</v>
+        <v>111308</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>71</v>
@@ -6532,13 +7045,13 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34">
         <v>100001</v>
       </c>
       <c r="H34">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -6555,7 +7068,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
-        <v>111310</v>
+        <v>111309</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>71</v>
@@ -6570,13 +7083,13 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35">
         <v>100001</v>
       </c>
       <c r="H35">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -6593,28 +7106,28 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
-        <v>112100</v>
+        <v>111310</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>100001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -6631,7 +7144,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
-        <v>112101</v>
+        <v>112100</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>49</v>
@@ -6646,13 +7159,13 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>100001</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -6669,7 +7182,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
-        <v>112102</v>
+        <v>112101</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>49</v>
@@ -6684,13 +7197,13 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>100001</v>
       </c>
       <c r="H38">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -6707,7 +7220,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
-        <v>112103</v>
+        <v>112102</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>49</v>
@@ -6722,13 +7235,13 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>100001</v>
       </c>
       <c r="H39">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -6745,7 +7258,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
-        <v>112104</v>
+        <v>112103</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>49</v>
@@ -6760,13 +7273,13 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40">
         <v>100001</v>
       </c>
       <c r="H40">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -6783,7 +7296,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
-        <v>112105</v>
+        <v>112104</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>49</v>
@@ -6798,13 +7311,13 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41">
         <v>100001</v>
       </c>
       <c r="H41">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -6821,7 +7334,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
-        <v>112106</v>
+        <v>112105</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>49</v>
@@ -6836,13 +7349,13 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>100001</v>
       </c>
       <c r="H42">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -6859,7 +7372,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
-        <v>112107</v>
+        <v>112106</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>49</v>
@@ -6874,13 +7387,13 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G43">
         <v>100001</v>
       </c>
       <c r="H43">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -6897,7 +7410,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
-        <v>112108</v>
+        <v>112107</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>49</v>
@@ -6912,13 +7425,13 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G44">
         <v>100001</v>
       </c>
       <c r="H44">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -6935,7 +7448,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
-        <v>112109</v>
+        <v>112108</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>49</v>
@@ -6950,13 +7463,13 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G45">
         <v>100001</v>
       </c>
       <c r="H45">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -6973,7 +7486,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
-        <v>112110</v>
+        <v>112109</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>49</v>
@@ -6988,13 +7501,13 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46">
         <v>100001</v>
       </c>
       <c r="H46">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -7011,10 +7524,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
-        <v>112111</v>
+        <v>112110</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2">
         <v>112</v>
@@ -7023,22 +7536,22 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47">
         <v>100001</v>
       </c>
       <c r="H47">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I47">
-        <v>100003</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -7049,34 +7562,34 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
-        <v>112200</v>
+        <v>112111</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2">
         <v>112</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G48">
         <v>100001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -7087,7 +7600,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
-        <v>112201</v>
+        <v>112200</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>50</v>
@@ -7102,13 +7615,13 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>100001</v>
       </c>
       <c r="H49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -7125,7 +7638,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
-        <v>112202</v>
+        <v>112201</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
@@ -7140,13 +7653,13 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>100001</v>
       </c>
       <c r="H50">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -7163,7 +7676,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
-        <v>112203</v>
+        <v>112202</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
@@ -7178,13 +7691,13 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51">
         <v>100001</v>
       </c>
       <c r="H51">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -7201,7 +7714,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
-        <v>112204</v>
+        <v>112203</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
@@ -7216,13 +7729,13 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G52">
         <v>100001</v>
       </c>
       <c r="H52">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -7239,7 +7752,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
-        <v>112205</v>
+        <v>112204</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>50</v>
@@ -7254,13 +7767,13 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53">
         <v>100001</v>
       </c>
       <c r="H53">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -7277,7 +7790,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
-        <v>112206</v>
+        <v>112205</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
@@ -7292,13 +7805,13 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G54">
         <v>100001</v>
       </c>
       <c r="H54">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -7315,7 +7828,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
-        <v>112207</v>
+        <v>112206</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>50</v>
@@ -7330,13 +7843,13 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G55">
         <v>100001</v>
       </c>
       <c r="H55">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -7353,7 +7866,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
-        <v>112208</v>
+        <v>112207</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>50</v>
@@ -7368,13 +7881,13 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G56">
         <v>100001</v>
       </c>
       <c r="H56">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -7391,7 +7904,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
-        <v>112209</v>
+        <v>112208</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>50</v>
@@ -7406,13 +7919,13 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57">
         <v>100001</v>
       </c>
       <c r="H57">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -7429,7 +7942,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
-        <v>112210</v>
+        <v>112209</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>50</v>
@@ -7444,13 +7957,13 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G58">
         <v>100001</v>
       </c>
       <c r="H58">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -7467,28 +7980,28 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
-        <v>112300</v>
+        <v>112210</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C59" s="2">
         <v>112</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -7505,7 +8018,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
-        <v>112301</v>
+        <v>112300</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>72</v>
@@ -7520,13 +8033,13 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -7543,7 +8056,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
-        <v>112302</v>
+        <v>112301</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>72</v>
@@ -7558,13 +8071,13 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>100001</v>
       </c>
       <c r="H61">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -7581,7 +8094,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
-        <v>112303</v>
+        <v>112302</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>72</v>
@@ -7596,13 +8109,13 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62">
         <v>100001</v>
       </c>
       <c r="H62">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -7619,7 +8132,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
-        <v>112304</v>
+        <v>112303</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>72</v>
@@ -7634,13 +8147,13 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G63">
         <v>100001</v>
       </c>
       <c r="H63">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -7657,7 +8170,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
-        <v>112305</v>
+        <v>112304</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>72</v>
@@ -7672,13 +8185,13 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G64">
         <v>100001</v>
       </c>
       <c r="H64">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -7695,7 +8208,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
-        <v>112306</v>
+        <v>112305</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>72</v>
@@ -7710,13 +8223,13 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G65">
         <v>100001</v>
       </c>
       <c r="H65">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -7733,7 +8246,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="6">
-        <v>112307</v>
+        <v>112306</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>72</v>
@@ -7748,13 +8261,13 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G66">
         <v>100001</v>
       </c>
       <c r="H66">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -7771,7 +8284,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
-        <v>112308</v>
+        <v>112307</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>72</v>
@@ -7786,13 +8299,13 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G67">
         <v>100001</v>
       </c>
       <c r="H67">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -7809,7 +8322,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
-        <v>112309</v>
+        <v>112308</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>72</v>
@@ -7824,13 +8337,13 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68">
         <v>100001</v>
       </c>
       <c r="H68">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -7847,7 +8360,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
-        <v>112310</v>
+        <v>112309</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>72</v>
@@ -7862,13 +8375,13 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G69">
         <v>100001</v>
       </c>
       <c r="H69">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -7885,28 +8398,28 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
-        <v>113100</v>
+        <v>112310</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C70" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -7923,7 +8436,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
-        <v>113101</v>
+        <v>113100</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>51</v>
@@ -7938,13 +8451,13 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -7961,7 +8474,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
-        <v>113102</v>
+        <v>113101</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>51</v>
@@ -7976,13 +8489,13 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>100001</v>
       </c>
       <c r="H72">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -7999,7 +8512,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
-        <v>113103</v>
+        <v>113102</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>51</v>
@@ -8014,13 +8527,13 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G73">
         <v>100001</v>
       </c>
       <c r="H73">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -8037,7 +8550,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
-        <v>113104</v>
+        <v>113103</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>51</v>
@@ -8052,13 +8565,13 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G74">
         <v>100001</v>
       </c>
       <c r="H74">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -8075,7 +8588,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="6">
-        <v>113105</v>
+        <v>113104</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>51</v>
@@ -8090,13 +8603,13 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G75">
         <v>100001</v>
       </c>
       <c r="H75">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -8113,7 +8626,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="6">
-        <v>113106</v>
+        <v>113105</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>51</v>
@@ -8128,13 +8641,13 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G76">
         <v>100001</v>
       </c>
       <c r="H76">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -8151,7 +8664,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="6">
-        <v>113107</v>
+        <v>113106</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>51</v>
@@ -8166,13 +8679,13 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G77">
         <v>100001</v>
       </c>
       <c r="H77">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -8189,7 +8702,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="6">
-        <v>113108</v>
+        <v>113107</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>51</v>
@@ -8204,13 +8717,13 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G78">
         <v>100001</v>
       </c>
       <c r="H78">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -8227,7 +8740,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="6">
-        <v>113109</v>
+        <v>113108</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>51</v>
@@ -8242,13 +8755,13 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G79">
         <v>100001</v>
       </c>
       <c r="H79">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -8265,7 +8778,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="6">
-        <v>113110</v>
+        <v>113109</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>51</v>
@@ -8280,13 +8793,13 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G80">
         <v>100001</v>
       </c>
       <c r="H80">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -8303,10 +8816,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="6">
-        <v>113111</v>
+        <v>113110</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2">
         <v>113</v>
@@ -8315,22 +8828,22 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G81">
         <v>100001</v>
       </c>
       <c r="H81">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I81">
-        <v>100003</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -8341,34 +8854,34 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="6">
-        <v>113200</v>
+        <v>113111</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2">
         <v>113</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -8379,7 +8892,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="6">
-        <v>113201</v>
+        <v>113200</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>52</v>
@@ -8394,13 +8907,13 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -8417,7 +8930,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="6">
-        <v>113202</v>
+        <v>113201</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>52</v>
@@ -8432,13 +8945,13 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>100001</v>
       </c>
       <c r="H84">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -8455,7 +8968,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="6">
-        <v>113203</v>
+        <v>113202</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>52</v>
@@ -8470,13 +8983,13 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G85">
         <v>100001</v>
       </c>
       <c r="H85">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -8493,7 +9006,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="6">
-        <v>113204</v>
+        <v>113203</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>52</v>
@@ -8508,13 +9021,13 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G86">
         <v>100001</v>
       </c>
       <c r="H86">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8531,7 +9044,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="6">
-        <v>113205</v>
+        <v>113204</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>52</v>
@@ -8546,13 +9059,13 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G87">
         <v>100001</v>
       </c>
       <c r="H87">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8569,7 +9082,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="6">
-        <v>113206</v>
+        <v>113205</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>52</v>
@@ -8584,13 +9097,13 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G88">
         <v>100001</v>
       </c>
       <c r="H88">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -8607,7 +9120,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="6">
-        <v>113207</v>
+        <v>113206</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>52</v>
@@ -8622,13 +9135,13 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G89">
         <v>100001</v>
       </c>
       <c r="H89">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -8645,7 +9158,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="6">
-        <v>113208</v>
+        <v>113207</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>52</v>
@@ -8660,13 +9173,13 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G90">
         <v>100001</v>
       </c>
       <c r="H90">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -8683,7 +9196,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="6">
-        <v>113209</v>
+        <v>113208</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>52</v>
@@ -8698,13 +9211,13 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G91">
         <v>100001</v>
       </c>
       <c r="H91">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8721,7 +9234,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="6">
-        <v>113210</v>
+        <v>113209</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>52</v>
@@ -8736,13 +9249,13 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G92">
         <v>100001</v>
       </c>
       <c r="H92">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -8759,28 +9272,28 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="6">
-        <v>113300</v>
+        <v>113210</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C93" s="2">
         <v>113</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -8797,7 +9310,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
-        <v>113301</v>
+        <v>113300</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>73</v>
@@ -8812,13 +9325,13 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -8835,7 +9348,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
-        <v>113302</v>
+        <v>113301</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>73</v>
@@ -8850,13 +9363,13 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>100001</v>
       </c>
       <c r="H95">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -8873,7 +9386,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
-        <v>113303</v>
+        <v>113302</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>73</v>
@@ -8888,13 +9401,13 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96">
         <v>100001</v>
       </c>
       <c r="H96">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -8911,7 +9424,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
-        <v>113304</v>
+        <v>113303</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>73</v>
@@ -8926,13 +9439,13 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G97">
         <v>100001</v>
       </c>
       <c r="H97">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -8949,7 +9462,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
-        <v>113305</v>
+        <v>113304</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>73</v>
@@ -8964,13 +9477,13 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G98">
         <v>100001</v>
       </c>
       <c r="H98">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -8987,7 +9500,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
-        <v>113306</v>
+        <v>113305</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>73</v>
@@ -9002,13 +9515,13 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G99">
         <v>100001</v>
       </c>
       <c r="H99">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -9025,7 +9538,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="6">
-        <v>113307</v>
+        <v>113306</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>73</v>
@@ -9040,13 +9553,13 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G100">
         <v>100001</v>
       </c>
       <c r="H100">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -9063,7 +9576,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="6">
-        <v>113308</v>
+        <v>113307</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>73</v>
@@ -9078,13 +9591,13 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G101">
         <v>100001</v>
       </c>
       <c r="H101">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -9101,7 +9614,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="6">
-        <v>113309</v>
+        <v>113308</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>73</v>
@@ -9116,13 +9629,13 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G102">
         <v>100001</v>
       </c>
       <c r="H102">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -9139,7 +9652,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="6">
-        <v>113310</v>
+        <v>113309</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>73</v>
@@ -9154,13 +9667,13 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G103">
         <v>100001</v>
       </c>
       <c r="H103">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9177,28 +9690,28 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="6">
-        <v>121100</v>
+        <v>113310</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C104" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9215,7 +9728,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="6">
-        <v>121101</v>
+        <v>121100</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>53</v>
@@ -9230,13 +9743,13 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9253,7 +9766,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="6">
-        <v>121102</v>
+        <v>121101</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>53</v>
@@ -9268,13 +9781,13 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106">
         <v>100001</v>
       </c>
       <c r="H106">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9291,7 +9804,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
-        <v>121103</v>
+        <v>121102</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>53</v>
@@ -9306,13 +9819,13 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107">
         <v>100001</v>
       </c>
       <c r="H107">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -9329,7 +9842,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="6">
-        <v>121104</v>
+        <v>121103</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>53</v>
@@ -9344,13 +9857,13 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G108">
         <v>100001</v>
       </c>
       <c r="H108">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -9367,7 +9880,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="6">
-        <v>121105</v>
+        <v>121104</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>53</v>
@@ -9382,13 +9895,13 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G109">
         <v>100001</v>
       </c>
       <c r="H109">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -9405,7 +9918,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="6">
-        <v>121106</v>
+        <v>121105</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>53</v>
@@ -9420,13 +9933,13 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G110">
         <v>100001</v>
       </c>
       <c r="H110">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -9443,7 +9956,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="6">
-        <v>121107</v>
+        <v>121106</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>53</v>
@@ -9458,13 +9971,13 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G111">
         <v>100001</v>
       </c>
       <c r="H111">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -9481,7 +9994,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="6">
-        <v>121108</v>
+        <v>121107</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>53</v>
@@ -9496,13 +10009,13 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G112">
         <v>100001</v>
       </c>
       <c r="H112">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -9519,7 +10032,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="6">
-        <v>121109</v>
+        <v>121108</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>53</v>
@@ -9534,13 +10047,13 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G113">
         <v>100001</v>
       </c>
       <c r="H113">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -9557,7 +10070,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="6">
-        <v>121110</v>
+        <v>121109</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>53</v>
@@ -9572,13 +10085,13 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G114">
         <v>100001</v>
       </c>
       <c r="H114">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -9595,10 +10108,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="6">
-        <v>121111</v>
+        <v>121110</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C115" s="2">
         <v>121</v>
@@ -9607,22 +10120,22 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G115">
         <v>100001</v>
       </c>
       <c r="H115">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I115">
-        <v>100003</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -9633,34 +10146,34 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="6">
-        <v>121200</v>
+        <v>121111</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2">
         <v>121</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -9671,7 +10184,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="6">
-        <v>121201</v>
+        <v>121200</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>54</v>
@@ -9686,13 +10199,13 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -9709,7 +10222,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="6">
-        <v>121202</v>
+        <v>121201</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>54</v>
@@ -9724,13 +10237,13 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118">
         <v>100001</v>
       </c>
       <c r="H118">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -9747,7 +10260,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="6">
-        <v>121203</v>
+        <v>121202</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>54</v>
@@ -9762,13 +10275,13 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119">
         <v>100001</v>
       </c>
       <c r="H119">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -9785,7 +10298,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="6">
-        <v>121204</v>
+        <v>121203</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>54</v>
@@ -9800,13 +10313,13 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G120">
         <v>100001</v>
       </c>
       <c r="H120">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -9823,7 +10336,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="6">
-        <v>121205</v>
+        <v>121204</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>54</v>
@@ -9838,13 +10351,13 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G121">
         <v>100001</v>
       </c>
       <c r="H121">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -9861,7 +10374,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="6">
-        <v>121206</v>
+        <v>121205</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>54</v>
@@ -9876,13 +10389,13 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G122">
         <v>100001</v>
       </c>
       <c r="H122">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -9899,7 +10412,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="6">
-        <v>121207</v>
+        <v>121206</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>54</v>
@@ -9914,13 +10427,13 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G123">
         <v>100001</v>
       </c>
       <c r="H123">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -9937,7 +10450,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="6">
-        <v>121208</v>
+        <v>121207</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>54</v>
@@ -9952,13 +10465,13 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G124">
         <v>100001</v>
       </c>
       <c r="H124">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -9975,7 +10488,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="6">
-        <v>121209</v>
+        <v>121208</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>54</v>
@@ -9990,13 +10503,13 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G125">
         <v>100001</v>
       </c>
       <c r="H125">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -10013,7 +10526,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="6">
-        <v>121210</v>
+        <v>121209</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>54</v>
@@ -10028,13 +10541,13 @@
         <v>1</v>
       </c>
       <c r="F126">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G126">
         <v>100001</v>
       </c>
       <c r="H126">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -10051,28 +10564,28 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="6">
-        <v>121300</v>
+        <v>121210</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C127" s="2">
         <v>121</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -10089,7 +10602,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="6">
-        <v>121301</v>
+        <v>121300</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>74</v>
@@ -10104,13 +10617,13 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -10127,7 +10640,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="6">
-        <v>121302</v>
+        <v>121301</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>74</v>
@@ -10142,13 +10655,13 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129">
         <v>100001</v>
       </c>
       <c r="H129">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -10165,7 +10678,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="6">
-        <v>121303</v>
+        <v>121302</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>74</v>
@@ -10180,13 +10693,13 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G130">
         <v>100001</v>
       </c>
       <c r="H130">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -10203,7 +10716,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="6">
-        <v>121304</v>
+        <v>121303</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>74</v>
@@ -10218,13 +10731,13 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G131">
         <v>100001</v>
       </c>
       <c r="H131">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -10241,7 +10754,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="6">
-        <v>121305</v>
+        <v>121304</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>74</v>
@@ -10256,13 +10769,13 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G132">
         <v>100001</v>
       </c>
       <c r="H132">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -10279,7 +10792,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="6">
-        <v>121306</v>
+        <v>121305</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>74</v>
@@ -10294,13 +10807,13 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G133">
         <v>100001</v>
       </c>
       <c r="H133">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -10317,7 +10830,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="6">
-        <v>121307</v>
+        <v>121306</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>74</v>
@@ -10332,13 +10845,13 @@
         <v>1</v>
       </c>
       <c r="F134">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G134">
         <v>100001</v>
       </c>
       <c r="H134">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -10355,7 +10868,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="6">
-        <v>121308</v>
+        <v>121307</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>74</v>
@@ -10370,13 +10883,13 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G135">
         <v>100001</v>
       </c>
       <c r="H135">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -10393,7 +10906,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="6">
-        <v>121309</v>
+        <v>121308</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>74</v>
@@ -10408,13 +10921,13 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G136">
         <v>100001</v>
       </c>
       <c r="H136">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -10431,7 +10944,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="6">
-        <v>121310</v>
+        <v>121309</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>74</v>
@@ -10446,13 +10959,13 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G137">
         <v>100001</v>
       </c>
       <c r="H137">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -10469,28 +10982,28 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="6">
-        <v>122100</v>
+        <v>121310</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C138" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -10507,7 +11020,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="6">
-        <v>122101</v>
+        <v>122100</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>55</v>
@@ -10522,13 +11035,13 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -10545,7 +11058,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="6">
-        <v>122102</v>
+        <v>122101</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>55</v>
@@ -10560,13 +11073,13 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140">
         <v>100001</v>
       </c>
       <c r="H140">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -10583,7 +11096,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="6">
-        <v>122103</v>
+        <v>122102</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>55</v>
@@ -10598,13 +11111,13 @@
         <v>1</v>
       </c>
       <c r="F141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G141">
         <v>100001</v>
       </c>
       <c r="H141">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -10621,7 +11134,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="6">
-        <v>122104</v>
+        <v>122103</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>55</v>
@@ -10636,13 +11149,13 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G142">
         <v>100001</v>
       </c>
       <c r="H142">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -10659,7 +11172,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="6">
-        <v>122105</v>
+        <v>122104</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>55</v>
@@ -10674,13 +11187,13 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G143">
         <v>100001</v>
       </c>
       <c r="H143">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -10697,7 +11210,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="6">
-        <v>122106</v>
+        <v>122105</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>55</v>
@@ -10712,13 +11225,13 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G144">
         <v>100001</v>
       </c>
       <c r="H144">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -10735,7 +11248,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="6">
-        <v>122107</v>
+        <v>122106</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>55</v>
@@ -10750,13 +11263,13 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G145">
         <v>100001</v>
       </c>
       <c r="H145">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -10773,7 +11286,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="6">
-        <v>122108</v>
+        <v>122107</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>55</v>
@@ -10788,13 +11301,13 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G146">
         <v>100001</v>
       </c>
       <c r="H146">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -10811,7 +11324,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="6">
-        <v>122109</v>
+        <v>122108</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>55</v>
@@ -10826,13 +11339,13 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G147">
         <v>100001</v>
       </c>
       <c r="H147">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -10849,7 +11362,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="6">
-        <v>122110</v>
+        <v>122109</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>55</v>
@@ -10864,13 +11377,13 @@
         <v>1</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G148">
         <v>100001</v>
       </c>
       <c r="H148">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -10887,10 +11400,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="6">
-        <v>122111</v>
+        <v>122110</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C149" s="2">
         <v>122</v>
@@ -10899,22 +11412,22 @@
         <v>1</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G149">
         <v>100001</v>
       </c>
       <c r="H149">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I149">
-        <v>100003</v>
+        <v>0</v>
       </c>
       <c r="J149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -10925,34 +11438,34 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="6">
-        <v>122200</v>
+        <v>122111</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C150" s="2">
         <v>122</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>100003</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -10963,7 +11476,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="6">
-        <v>122201</v>
+        <v>122200</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>56</v>
@@ -10978,13 +11491,13 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -11001,7 +11514,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="6">
-        <v>122202</v>
+        <v>122201</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>56</v>
@@ -11016,13 +11529,13 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G152">
         <v>100001</v>
       </c>
       <c r="H152">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -11039,7 +11552,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="6">
-        <v>122203</v>
+        <v>122202</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>56</v>
@@ -11054,13 +11567,13 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G153">
         <v>100001</v>
       </c>
       <c r="H153">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -11077,7 +11590,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="6">
-        <v>122204</v>
+        <v>122203</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>56</v>
@@ -11092,13 +11605,13 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G154">
         <v>100001</v>
       </c>
       <c r="H154">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -11115,7 +11628,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="6">
-        <v>122205</v>
+        <v>122204</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>56</v>
@@ -11130,13 +11643,13 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G155">
         <v>100001</v>
       </c>
       <c r="H155">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -11153,7 +11666,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="6">
-        <v>122206</v>
+        <v>122205</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>56</v>
@@ -11168,13 +11681,13 @@
         <v>1</v>
       </c>
       <c r="F156">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G156">
         <v>100001</v>
       </c>
       <c r="H156">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -11191,7 +11704,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="6">
-        <v>122207</v>
+        <v>122206</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>56</v>
@@ -11206,13 +11719,13 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G157">
         <v>100001</v>
       </c>
       <c r="H157">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -11229,7 +11742,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="6">
-        <v>122208</v>
+        <v>122207</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>56</v>
@@ -11244,13 +11757,13 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G158">
         <v>100001</v>
       </c>
       <c r="H158">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -11267,7 +11780,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="6">
-        <v>122209</v>
+        <v>122208</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>56</v>
@@ -11282,13 +11795,13 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G159">
         <v>100001</v>
       </c>
       <c r="H159">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -11305,7 +11818,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="6">
-        <v>122210</v>
+        <v>122209</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>56</v>
@@ -11320,13 +11833,13 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G160">
         <v>100001</v>
       </c>
       <c r="H160">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -11343,28 +11856,28 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="6">
-        <v>122300</v>
+        <v>122210</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C161" s="2">
         <v>122</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>100001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -11381,7 +11894,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="6">
-        <v>122301</v>
+        <v>122300</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>75</v>
@@ -11396,13 +11909,13 @@
         <v>1</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>100001</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -11419,7 +11932,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="6">
-        <v>122302</v>
+        <v>122301</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>75</v>
@@ -11434,13 +11947,13 @@
         <v>1</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G163">
         <v>100001</v>
       </c>
       <c r="H163">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -11457,7 +11970,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="6">
-        <v>122303</v>
+        <v>122302</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>75</v>
@@ -11472,13 +11985,13 @@
         <v>1</v>
       </c>
       <c r="F164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G164">
         <v>100001</v>
       </c>
       <c r="H164">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -11495,7 +12008,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="6">
-        <v>122304</v>
+        <v>122303</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>75</v>
@@ -11510,13 +12023,13 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G165">
         <v>100001</v>
       </c>
       <c r="H165">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -11533,7 +12046,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="6">
-        <v>122305</v>
+        <v>122304</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>75</v>
@@ -11548,13 +12061,13 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G166">
         <v>100001</v>
       </c>
       <c r="H166">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -11571,7 +12084,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="6">
-        <v>122306</v>
+        <v>122305</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>75</v>
@@ -11586,13 +12099,13 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G167">
         <v>100001</v>
       </c>
       <c r="H167">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -11609,7 +12122,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="6">
-        <v>122307</v>
+        <v>122306</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>75</v>
@@ -11624,13 +12137,13 @@
         <v>1</v>
       </c>
       <c r="F168">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G168">
         <v>100001</v>
       </c>
       <c r="H168">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -11647,7 +12160,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="6">
-        <v>122308</v>
+        <v>122307</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>75</v>
@@ -11662,13 +12175,13 @@
         <v>1</v>
       </c>
       <c r="F169">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G169">
         <v>100001</v>
       </c>
       <c r="H169">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -11685,7 +12198,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="6">
-        <v>122309</v>
+        <v>122308</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>75</v>
@@ -11700,13 +12213,13 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G170">
         <v>100001</v>
       </c>
       <c r="H170">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -11723,7 +12236,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="6">
-        <v>122310</v>
+        <v>122309</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>75</v>
@@ -11738,24 +12251,62 @@
         <v>1</v>
       </c>
       <c r="F171">
+        <v>9</v>
+      </c>
+      <c r="G171">
+        <v>100001</v>
+      </c>
+      <c r="H171">
+        <v>130</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A172" s="6">
+        <v>122310</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C172" s="2">
+        <v>122</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
         <v>10</v>
       </c>
-      <c r="G171">
-        <v>100001</v>
-      </c>
-      <c r="H171">
+      <c r="G172">
+        <v>100001</v>
+      </c>
+      <c r="H172">
         <v>140</v>
       </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171">
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
         <v>0</v>
       </c>
     </row>

--- a/Client/Assets/11. GameData/Mode_Ver3.xlsx
+++ b/Client/Assets/11. GameData/Mode_Ver3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD8E196-F5A3-424E-B587-7DBAB180A4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB7C533-FE15-4037-BA53-293BED1E38B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="490" activeTab="4" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="490" firstSheet="1" activeTab="5" xr2:uid="{00881117-46AD-47BC-AC4E-DE2587EC70E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Matching" sheetId="10" r:id="rId1"/>
@@ -50,11 +50,13 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4A4CE066-CDC9-45B9-A68E-25045A47C719}">
       <text>
-        <t>[스레드 댓글]
+        <t xml:space="preserve">[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Matching_Mode = 110 -&gt; FITH_개인전
-Matching_Mode = 120 -&gt; FITH_팀전</t>
+Matching_Mode = 120 -&gt; FITH_팀전
+Matching_Mode = 100 -&gt; FITH_튜토리얼
+</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1" shapeId="0" xr:uid="{DEFE490C-47EE-4D67-A9EE-4DFAA53308AB}">
@@ -569,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="113">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1069,35 +1071,39 @@
     <t>FITH_Team_Battle_9</t>
   </si>
   <si>
-    <t>FITH 튜토리얼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>튜토리얼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FITH_튜토리얼</t>
+    <t>FITH_Tutorial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FITH_튜토리얼_Win</t>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FITH_튜토리얼_Lose</t>
+    <t>FITH_Tutorial_Win</t>
+  </si>
+  <si>
+    <t>FITH_Tutorial_Win</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FITH_튜토리얼_Draw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>FITH_Tutorial_Lose</t>
+  </si>
+  <si>
+    <t>FITH_Tutorial_Draw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,10 +1253,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1665,8 +1671,10 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2024-10-09T05:55:39.22" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{4A4CE066-CDC9-45B9-A68E-25045A47C719}">
-    <text>Matching_Mode = 110 -&gt; FITH_개인전
-Matching_Mode = 120 -&gt; FITH_팀전</text>
+    <text xml:space="preserve">Matching_Mode = 110 -&gt; FITH_개인전
+Matching_Mode = 120 -&gt; FITH_팀전
+Matching_Mode = 100 -&gt; FITH_튜토리얼
+</text>
   </threadedComment>
   <threadedComment ref="F1" dT="2024-10-09T07:12:31.69" personId="{E1FA3A2E-0EF7-4438-AF14-B862B0564913}" id="{DEFE490C-47EE-4D67-A9EE-4DFAA53308AB}">
     <text>플레이어 모집 수</text>
@@ -1897,10 +1905,10 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
@@ -1912,7 +1920,7 @@
     <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
@@ -1932,7 +1940,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" s="9" customFormat="1">
       <c r="A2" s="9">
         <v>100</v>
       </c>
@@ -1952,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>110</v>
       </c>
@@ -1972,7 +1980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>110</v>
       </c>
@@ -1992,7 +2000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>110</v>
       </c>
@@ -2012,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>120</v>
       </c>
@@ -2032,7 +2040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>120</v>
       </c>
@@ -2052,7 +2060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>120</v>
       </c>
@@ -2086,10 +2094,10 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -2101,7 +2109,7 @@
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="18" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -2130,15 +2138,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="17.5">
       <c r="A2" s="10">
         <v>100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
@@ -2159,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>111</v>
       </c>
@@ -2188,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>112</v>
       </c>
@@ -2217,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>121</v>
       </c>
@@ -2246,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>122</v>
       </c>
@@ -2288,10 +2296,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E25" sqref="E25"/>
+      <selection pane="topRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.08203125" style="2" bestFit="1" customWidth="1"/>
@@ -2329,7 +2337,7 @@
     <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>80</v>
       </c>
@@ -2424,7 +2432,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="10" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:31" s="10" customFormat="1" ht="17.5">
       <c r="A2" s="10">
         <v>10000</v>
       </c>
@@ -2432,10 +2440,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="10">
         <v>0</v>
@@ -2519,7 +2527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:31">
       <c r="A3" s="2">
         <v>11101</v>
       </c>
@@ -2614,7 +2622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31">
       <c r="A4" s="2">
         <v>11102</v>
       </c>
@@ -2709,7 +2717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31">
       <c r="A5" s="2">
         <v>11103</v>
       </c>
@@ -2804,7 +2812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:31">
       <c r="A6" s="2">
         <v>11201</v>
       </c>
@@ -2899,7 +2907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31">
       <c r="A7" s="2">
         <v>12101</v>
       </c>
@@ -2994,7 +3002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:31">
       <c r="A8" s="2">
         <v>12102</v>
       </c>
@@ -3089,7 +3097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:31">
       <c r="A9" s="2">
         <v>12103</v>
       </c>
@@ -3184,7 +3192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:31">
       <c r="A10" s="2">
         <v>12104</v>
       </c>
@@ -3279,7 +3287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:31">
       <c r="A11" s="2">
         <v>12201</v>
       </c>
@@ -3374,7 +3382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:31">
       <c r="A12" s="2">
         <v>12202</v>
       </c>
@@ -3469,7 +3477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:31">
       <c r="A13" s="2">
         <v>12203</v>
       </c>
@@ -3564,7 +3572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:31">
       <c r="A14" s="2">
         <v>12204</v>
       </c>
@@ -3659,7 +3667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:31">
       <c r="A15" s="2">
         <v>12205</v>
       </c>
@@ -3765,11 +3773,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB955C-74DD-4B61-BCC6-9955AD17436D}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" style="16" bestFit="1" customWidth="1"/>
@@ -3780,7 +3788,7 @@
     <col min="7" max="7" width="6.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3803,12 +3811,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="13" customFormat="1">
       <c r="A2" s="13">
         <v>100101</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2" s="12">
         <v>100</v>
@@ -3826,12 +3834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="A3" s="13">
         <v>100102</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="12">
         <v>100</v>
@@ -3849,12 +3857,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="A4" s="13">
         <v>100103</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12">
         <v>100</v>
@@ -3872,12 +3880,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" s="13" customFormat="1">
       <c r="A5" s="13">
         <v>100201</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C5" s="12">
         <v>100</v>
@@ -3895,12 +3903,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" s="13" customFormat="1">
       <c r="A6" s="13">
         <v>100202</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" s="12">
         <v>100</v>
@@ -3918,12 +3926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" s="13" customFormat="1">
       <c r="A7" s="13">
         <v>100203</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C7" s="12">
         <v>100</v>
@@ -3941,12 +3949,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" s="13" customFormat="1">
       <c r="A8" s="13">
         <v>100301</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C8" s="12">
         <v>100</v>
@@ -3964,12 +3972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" s="13" customFormat="1">
       <c r="A9" s="13">
         <v>100302</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C9" s="12">
         <v>100</v>
@@ -3987,12 +3995,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" s="13" customFormat="1">
       <c r="A10" s="13">
         <v>100303</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" s="12">
         <v>100</v>
@@ -4010,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>111101</v>
       </c>
@@ -4033,7 +4041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>111102</v>
       </c>
@@ -4056,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>111103</v>
       </c>
@@ -4079,7 +4087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>111201</v>
       </c>
@@ -4102,7 +4110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>111202</v>
       </c>
@@ -4125,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>111203</v>
       </c>
@@ -4148,7 +4156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>111301</v>
       </c>
@@ -4171,7 +4179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>111302</v>
       </c>
@@ -4194,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>111303</v>
       </c>
@@ -4217,7 +4225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>112101</v>
       </c>
@@ -4240,7 +4248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>112102</v>
       </c>
@@ -4263,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>112103</v>
       </c>
@@ -4286,7 +4294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>112201</v>
       </c>
@@ -4309,7 +4317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>112202</v>
       </c>
@@ -4332,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>112203</v>
       </c>
@@ -4355,7 +4363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>112301</v>
       </c>
@@ -4378,7 +4386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>112302</v>
       </c>
@@ -4401,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>112303</v>
       </c>
@@ -4424,7 +4432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>113101</v>
       </c>
@@ -4447,7 +4455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>113102</v>
       </c>
@@ -4470,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>113103</v>
       </c>
@@ -4493,7 +4501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>113201</v>
       </c>
@@ -4516,7 +4524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>113202</v>
       </c>
@@ -4539,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>113203</v>
       </c>
@@ -4562,7 +4570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>113301</v>
       </c>
@@ -4585,7 +4593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>113302</v>
       </c>
@@ -4608,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>113303</v>
       </c>
@@ -4631,7 +4639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>121101</v>
       </c>
@@ -4654,7 +4662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>121102</v>
       </c>
@@ -4677,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>121103</v>
       </c>
@@ -4700,7 +4708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>121201</v>
       </c>
@@ -4723,7 +4731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>121202</v>
       </c>
@@ -4746,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>121203</v>
       </c>
@@ -4769,7 +4777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>121301</v>
       </c>
@@ -4792,7 +4800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>121302</v>
       </c>
@@ -4815,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>121303</v>
       </c>
@@ -4838,7 +4846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>122101</v>
       </c>
@@ -4861,7 +4869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>122102</v>
       </c>
@@ -4884,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>122103</v>
       </c>
@@ -4907,7 +4915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>122201</v>
       </c>
@@ -4930,7 +4938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>122202</v>
       </c>
@@ -4953,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>122203</v>
       </c>
@@ -4976,7 +4984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>122301</v>
       </c>
@@ -4999,7 +5007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>122302</v>
       </c>
@@ -5022,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>122303</v>
       </c>
@@ -5045,31 +5053,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7">
       <c r="B64" s="1"/>
     </row>
   </sheetData>
@@ -5083,11 +5091,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87B89F5-A0CF-418F-90DB-EDDE1E3A1683}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
@@ -5096,7 +5104,7 @@
     <col min="5" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5128,12 +5136,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" s="12" customFormat="1">
       <c r="A2" s="12">
         <v>100001</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="12">
         <v>100</v>
@@ -5160,12 +5168,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" s="12" customFormat="1">
       <c r="A3" s="12">
         <v>100002</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="12">
         <v>100</v>
@@ -5192,12 +5200,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" s="12" customFormat="1">
       <c r="A4" s="12">
         <v>100003</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12">
         <v>100</v>
@@ -5224,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>111001</v>
       </c>
@@ -5256,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>111002</v>
       </c>
@@ -5288,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>111003</v>
       </c>
@@ -5320,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>112001</v>
       </c>
@@ -5352,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>112002</v>
       </c>
@@ -5384,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>112003</v>
       </c>
@@ -5416,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>113001</v>
       </c>
@@ -5448,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>113002</v>
       </c>
@@ -5480,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>113003</v>
       </c>
@@ -5512,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>121001</v>
       </c>
@@ -5544,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>121002</v>
       </c>
@@ -5576,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>121003</v>
       </c>
@@ -5608,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>122001</v>
       </c>
@@ -5640,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>121002</v>
       </c>
@@ -5672,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>121003</v>
       </c>
@@ -5704,47 +5712,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3">
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:3">
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3">
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3">
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
     </row>
@@ -5759,12 +5767,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71821EEC-8EF8-416A-A444-28A2AA6C244D}">
   <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
@@ -5774,7 +5782,7 @@
     <col min="7" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5812,12 +5820,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>100100</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -5850,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" s="6" customFormat="1">
       <c r="A3" s="6">
         <v>111100</v>
       </c>
@@ -5888,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12">
       <c r="A4" s="6">
         <v>111101</v>
       </c>
@@ -5926,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12">
       <c r="A5" s="6">
         <v>111102</v>
       </c>
@@ -5964,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12">
       <c r="A6" s="6">
         <v>111103</v>
       </c>
@@ -6002,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12">
       <c r="A7" s="6">
         <v>111104</v>
       </c>
@@ -6040,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12">
       <c r="A8" s="6">
         <v>111105</v>
       </c>
@@ -6078,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12">
       <c r="A9" s="6">
         <v>111106</v>
       </c>
@@ -6116,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12">
       <c r="A10" s="6">
         <v>111107</v>
       </c>
@@ -6154,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12">
       <c r="A11" s="6">
         <v>111108</v>
       </c>
@@ -6192,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12">
       <c r="A12" s="6">
         <v>111109</v>
       </c>
@@ -6230,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12">
       <c r="A13" s="6">
         <v>111110</v>
       </c>
@@ -6268,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12">
       <c r="A14" s="6">
         <v>111111</v>
       </c>
@@ -6306,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12">
       <c r="A15" s="6">
         <v>111200</v>
       </c>
@@ -6344,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12">
       <c r="A16" s="6">
         <v>111201</v>
       </c>
@@ -6382,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12">
       <c r="A17" s="6">
         <v>111202</v>
       </c>
@@ -6420,7 +6428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12">
       <c r="A18" s="6">
         <v>111203</v>
       </c>
@@ -6458,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12">
       <c r="A19" s="6">
         <v>111204</v>
       </c>
@@ -6496,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12">
       <c r="A20" s="6">
         <v>111205</v>
       </c>
@@ -6534,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12">
       <c r="A21" s="6">
         <v>111206</v>
       </c>
@@ -6572,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12">
       <c r="A22" s="6">
         <v>111207</v>
       </c>
@@ -6610,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12">
       <c r="A23" s="6">
         <v>111208</v>
       </c>
@@ -6648,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12">
       <c r="A24" s="6">
         <v>111209</v>
       </c>
@@ -6686,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12">
       <c r="A25" s="6">
         <v>111210</v>
       </c>
@@ -6724,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12">
       <c r="A26" s="6">
         <v>111300</v>
       </c>
@@ -6762,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12">
       <c r="A27" s="6">
         <v>111301</v>
       </c>
@@ -6800,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12">
       <c r="A28" s="6">
         <v>111302</v>
       </c>
@@ -6838,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12">
       <c r="A29" s="6">
         <v>111303</v>
       </c>
@@ -6876,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12">
       <c r="A30" s="6">
         <v>111304</v>
       </c>
@@ -6914,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12">
       <c r="A31" s="6">
         <v>111305</v>
       </c>
@@ -6952,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12">
       <c r="A32" s="6">
         <v>111306</v>
       </c>
@@ -6990,7 +6998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12">
       <c r="A33" s="6">
         <v>111307</v>
       </c>
@@ -7028,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12">
       <c r="A34" s="6">
         <v>111308</v>
       </c>
@@ -7066,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12">
       <c r="A35" s="6">
         <v>111309</v>
       </c>
@@ -7104,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12">
       <c r="A36" s="6">
         <v>111310</v>
       </c>
@@ -7142,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12">
       <c r="A37" s="6">
         <v>112100</v>
       </c>
@@ -7180,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12">
       <c r="A38" s="6">
         <v>112101</v>
       </c>
@@ -7218,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12">
       <c r="A39" s="6">
         <v>112102</v>
       </c>
@@ -7256,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12">
       <c r="A40" s="6">
         <v>112103</v>
       </c>
@@ -7294,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12">
       <c r="A41" s="6">
         <v>112104</v>
       </c>
@@ -7332,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12">
       <c r="A42" s="6">
         <v>112105</v>
       </c>
@@ -7370,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12">
       <c r="A43" s="6">
         <v>112106</v>
       </c>
@@ -7408,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12">
       <c r="A44" s="6">
         <v>112107</v>
       </c>
@@ -7446,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12">
       <c r="A45" s="6">
         <v>112108</v>
       </c>
@@ -7484,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12">
       <c r="A46" s="6">
         <v>112109</v>
       </c>
@@ -7522,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12">
       <c r="A47" s="6">
         <v>112110</v>
       </c>
@@ -7560,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12">
       <c r="A48" s="6">
         <v>112111</v>
       </c>
@@ -7598,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12">
       <c r="A49" s="6">
         <v>112200</v>
       </c>
@@ -7636,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12">
       <c r="A50" s="6">
         <v>112201</v>
       </c>
@@ -7674,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12">
       <c r="A51" s="6">
         <v>112202</v>
       </c>
@@ -7712,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12">
       <c r="A52" s="6">
         <v>112203</v>
       </c>
@@ -7750,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12">
       <c r="A53" s="6">
         <v>112204</v>
       </c>
@@ -7788,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12">
       <c r="A54" s="6">
         <v>112205</v>
       </c>
@@ -7826,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12">
       <c r="A55" s="6">
         <v>112206</v>
       </c>
@@ -7864,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12">
       <c r="A56" s="6">
         <v>112207</v>
       </c>
@@ -7902,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12">
       <c r="A57" s="6">
         <v>112208</v>
       </c>
@@ -7940,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12">
       <c r="A58" s="6">
         <v>112209</v>
       </c>
@@ -7978,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12">
       <c r="A59" s="6">
         <v>112210</v>
       </c>
@@ -8016,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12">
       <c r="A60" s="6">
         <v>112300</v>
       </c>
@@ -8054,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12">
       <c r="A61" s="6">
         <v>112301</v>
       </c>
@@ -8092,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12">
       <c r="A62" s="6">
         <v>112302</v>
       </c>
@@ -8130,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12">
       <c r="A63" s="6">
         <v>112303</v>
       </c>
@@ -8168,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12">
       <c r="A64" s="6">
         <v>112304</v>
       </c>
@@ -8206,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12">
       <c r="A65" s="6">
         <v>112305</v>
       </c>
@@ -8244,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12">
       <c r="A66" s="6">
         <v>112306</v>
       </c>
@@ -8282,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12">
       <c r="A67" s="6">
         <v>112307</v>
       </c>
@@ -8320,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12">
       <c r="A68" s="6">
         <v>112308</v>
       </c>
@@ -8358,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12">
       <c r="A69" s="6">
         <v>112309</v>
       </c>
@@ -8396,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12">
       <c r="A70" s="6">
         <v>112310</v>
       </c>
@@ -8434,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12">
       <c r="A71" s="6">
         <v>113100</v>
       </c>
@@ -8472,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12">
       <c r="A72" s="6">
         <v>113101</v>
       </c>
@@ -8510,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12">
       <c r="A73" s="6">
         <v>113102</v>
       </c>
@@ -8548,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12">
       <c r="A74" s="6">
         <v>113103</v>
       </c>
@@ -8586,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12">
       <c r="A75" s="6">
         <v>113104</v>
       </c>
@@ -8624,7 +8632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12">
       <c r="A76" s="6">
         <v>113105</v>
       </c>
@@ -8662,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12">
       <c r="A77" s="6">
         <v>113106</v>
       </c>
@@ -8700,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12">
       <c r="A78" s="6">
         <v>113107</v>
       </c>
@@ -8738,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12">
       <c r="A79" s="6">
         <v>113108</v>
       </c>
@@ -8776,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12">
       <c r="A80" s="6">
         <v>113109</v>
       </c>
@@ -8814,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12">
       <c r="A81" s="6">
         <v>113110</v>
       </c>
@@ -8852,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12">
       <c r="A82" s="6">
         <v>113111</v>
       </c>
@@ -8890,7 +8898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12">
       <c r="A83" s="6">
         <v>113200</v>
       </c>
@@ -8928,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12">
       <c r="A84" s="6">
         <v>113201</v>
       </c>
@@ -8966,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12">
       <c r="A85" s="6">
         <v>113202</v>
       </c>
@@ -9004,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12">
       <c r="A86" s="6">
         <v>113203</v>
       </c>
@@ -9042,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12">
       <c r="A87" s="6">
         <v>113204</v>
       </c>
@@ -9080,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12">
       <c r="A88" s="6">
         <v>113205</v>
       </c>
@@ -9118,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12">
       <c r="A89" s="6">
         <v>113206</v>
       </c>
@@ -9156,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12">
       <c r="A90" s="6">
         <v>113207</v>
       </c>
@@ -9194,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12">
       <c r="A91" s="6">
         <v>113208</v>
       </c>
@@ -9232,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12">
       <c r="A92" s="6">
         <v>113209</v>
       </c>
@@ -9270,7 +9278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12">
       <c r="A93" s="6">
         <v>113210</v>
       </c>
@@ -9308,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12">
       <c r="A94" s="6">
         <v>113300</v>
       </c>
@@ -9346,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12">
       <c r="A95" s="6">
         <v>113301</v>
       </c>
@@ -9384,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12">
       <c r="A96" s="6">
         <v>113302</v>
       </c>
@@ -9422,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12">
       <c r="A97" s="6">
         <v>113303</v>
       </c>
@@ -9460,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12">
       <c r="A98" s="6">
         <v>113304</v>
       </c>
@@ -9498,7 +9506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12">
       <c r="A99" s="6">
         <v>113305</v>
       </c>
@@ -9536,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12">
       <c r="A100" s="6">
         <v>113306</v>
       </c>
@@ -9574,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12">
       <c r="A101" s="6">
         <v>113307</v>
       </c>
@@ -9612,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12">
       <c r="A102" s="6">
         <v>113308</v>
       </c>
@@ -9650,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12">
       <c r="A103" s="6">
         <v>113309</v>
       </c>
@@ -9688,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12">
       <c r="A104" s="6">
         <v>113310</v>
       </c>
@@ -9726,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12">
       <c r="A105" s="6">
         <v>121100</v>
       </c>
@@ -9764,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12">
       <c r="A106" s="6">
         <v>121101</v>
       </c>
@@ -9802,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12">
       <c r="A107" s="6">
         <v>121102</v>
       </c>
@@ -9840,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12">
       <c r="A108" s="6">
         <v>121103</v>
       </c>
@@ -9878,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12">
       <c r="A109" s="6">
         <v>121104</v>
       </c>
@@ -9916,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12">
       <c r="A110" s="6">
         <v>121105</v>
       </c>
@@ -9954,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12">
       <c r="A111" s="6">
         <v>121106</v>
       </c>
@@ -9992,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12">
       <c r="A112" s="6">
         <v>121107</v>
       </c>
@@ -10030,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12">
       <c r="A113" s="6">
         <v>121108</v>
       </c>
@@ -10068,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12">
       <c r="A114" s="6">
         <v>121109</v>
       </c>
@@ -10106,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12">
       <c r="A115" s="6">
         <v>121110</v>
       </c>
@@ -10144,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12">
       <c r="A116" s="6">
         <v>121111</v>
       </c>
@@ -10182,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12">
       <c r="A117" s="6">
         <v>121200</v>
       </c>
@@ -10220,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12">
       <c r="A118" s="6">
         <v>121201</v>
       </c>
@@ -10258,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12">
       <c r="A119" s="6">
         <v>121202</v>
       </c>
@@ -10296,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12">
       <c r="A120" s="6">
         <v>121203</v>
       </c>
@@ -10334,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12">
       <c r="A121" s="6">
         <v>121204</v>
       </c>
@@ -10372,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12">
       <c r="A122" s="6">
         <v>121205</v>
       </c>
@@ -10410,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12">
       <c r="A123" s="6">
         <v>121206</v>
       </c>
@@ -10448,7 +10456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12">
       <c r="A124" s="6">
         <v>121207</v>
       </c>
@@ -10486,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12">
       <c r="A125" s="6">
         <v>121208</v>
       </c>
@@ -10524,7 +10532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12">
       <c r="A126" s="6">
         <v>121209</v>
       </c>
@@ -10562,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12">
       <c r="A127" s="6">
         <v>121210</v>
       </c>
@@ -10600,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12">
       <c r="A128" s="6">
         <v>121300</v>
       </c>
@@ -10638,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12">
       <c r="A129" s="6">
         <v>121301</v>
       </c>
@@ -10676,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12">
       <c r="A130" s="6">
         <v>121302</v>
       </c>
@@ -10714,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12">
       <c r="A131" s="6">
         <v>121303</v>
       </c>
@@ -10752,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12">
       <c r="A132" s="6">
         <v>121304</v>
       </c>
@@ -10790,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12">
       <c r="A133" s="6">
         <v>121305</v>
       </c>
@@ -10828,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12">
       <c r="A134" s="6">
         <v>121306</v>
       </c>
@@ -10866,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12">
       <c r="A135" s="6">
         <v>121307</v>
       </c>
@@ -10904,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12">
       <c r="A136" s="6">
         <v>121308</v>
       </c>
@@ -10942,7 +10950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12">
       <c r="A137" s="6">
         <v>121309</v>
       </c>
@@ -10980,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12">
       <c r="A138" s="6">
         <v>121310</v>
       </c>
@@ -11018,7 +11026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12">
       <c r="A139" s="6">
         <v>122100</v>
       </c>
@@ -11056,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12">
       <c r="A140" s="6">
         <v>122101</v>
       </c>
@@ -11094,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12">
       <c r="A141" s="6">
         <v>122102</v>
       </c>
@@ -11132,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12">
       <c r="A142" s="6">
         <v>122103</v>
       </c>
@@ -11170,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12">
       <c r="A143" s="6">
         <v>122104</v>
       </c>
@@ -11208,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12">
       <c r="A144" s="6">
         <v>122105</v>
       </c>
@@ -11246,7 +11254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12">
       <c r="A145" s="6">
         <v>122106</v>
       </c>
@@ -11284,7 +11292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12">
       <c r="A146" s="6">
         <v>122107</v>
       </c>
@@ -11322,7 +11330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12">
       <c r="A147" s="6">
         <v>122108</v>
       </c>
@@ -11360,7 +11368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12">
       <c r="A148" s="6">
         <v>122109</v>
       </c>
@@ -11398,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12">
       <c r="A149" s="6">
         <v>122110</v>
       </c>
@@ -11436,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12">
       <c r="A150" s="6">
         <v>122111</v>
       </c>
@@ -11474,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12">
       <c r="A151" s="6">
         <v>122200</v>
       </c>
@@ -11512,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12">
       <c r="A152" s="6">
         <v>122201</v>
       </c>
@@ -11550,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12">
       <c r="A153" s="6">
         <v>122202</v>
       </c>
@@ -11588,7 +11596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12">
       <c r="A154" s="6">
         <v>122203</v>
       </c>
@@ -11626,7 +11634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12">
       <c r="A155" s="6">
         <v>122204</v>
       </c>
@@ -11664,7 +11672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12">
       <c r="A156" s="6">
         <v>122205</v>
       </c>
@@ -11702,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12">
       <c r="A157" s="6">
         <v>122206</v>
       </c>
@@ -11740,7 +11748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12">
       <c r="A158" s="6">
         <v>122207</v>
       </c>
@@ -11778,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12">
       <c r="A159" s="6">
         <v>122208</v>
       </c>
@@ -11816,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12">
       <c r="A160" s="6">
         <v>122209</v>
       </c>
@@ -11854,7 +11862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12">
       <c r="A161" s="6">
         <v>122210</v>
       </c>
@@ -11892,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12">
       <c r="A162" s="6">
         <v>122300</v>
       </c>
@@ -11930,7 +11938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12">
       <c r="A163" s="6">
         <v>122301</v>
       </c>
@@ -11968,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12">
       <c r="A164" s="6">
         <v>122302</v>
       </c>
@@ -12006,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12">
       <c r="A165" s="6">
         <v>122303</v>
       </c>
@@ -12044,7 +12052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12">
       <c r="A166" s="6">
         <v>122304</v>
       </c>
@@ -12082,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12">
       <c r="A167" s="6">
         <v>122305</v>
       </c>
@@ -12120,7 +12128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12">
       <c r="A168" s="6">
         <v>122306</v>
       </c>
@@ -12158,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12">
       <c r="A169" s="6">
         <v>122307</v>
       </c>
@@ -12196,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12">
       <c r="A170" s="6">
         <v>122308</v>
       </c>
@@ -12234,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12">
       <c r="A171" s="6">
         <v>122309</v>
       </c>
@@ -12272,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12">
       <c r="A172" s="6">
         <v>122310</v>
       </c>
@@ -12325,12 +12333,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="97.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -12341,7 +12349,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
       <c r="A2">
         <v>7101</v>
       </c>
@@ -12352,7 +12360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
       <c r="A3">
         <v>7102</v>
       </c>
@@ -12363,7 +12371,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
       <c r="A4">
         <v>7103</v>
       </c>
@@ -12374,7 +12382,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
       <c r="A5">
         <v>7104</v>
       </c>
@@ -12385,7 +12393,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="16.5" customHeight="1">
       <c r="A6">
         <v>7201</v>
       </c>
@@ -12396,7 +12404,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="16.5" customHeight="1">
       <c r="A7">
         <v>7202</v>
       </c>
@@ -12407,7 +12415,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="16.5" customHeight="1">
       <c r="A8">
         <v>7203</v>
       </c>
@@ -12418,7 +12426,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="16.5" customHeight="1">
       <c r="A9">
         <v>7204</v>
       </c>
@@ -12429,7 +12437,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>7205</v>
       </c>
@@ -12440,7 +12448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>7301</v>
       </c>
@@ -12451,7 +12459,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>7302</v>
       </c>
@@ -12462,7 +12470,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>7303</v>
       </c>
@@ -12473,7 +12481,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>7401</v>
       </c>
@@ -12484,7 +12492,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>7402</v>
       </c>
@@ -12495,7 +12503,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>7403</v>
       </c>
@@ -12506,7 +12514,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>7501</v>
       </c>
@@ -12517,7 +12525,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>7502</v>
       </c>
@@ -12528,7 +12536,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>7503</v>
       </c>
